--- a/TEST/Attributes Table.xlsx
+++ b/TEST/Attributes Table.xlsx
@@ -396,7 +396,7 @@
         <v>-1.011836921968793</v>
       </c>
       <c r="C2" t="n">
-        <v>27.35081750096697</v>
+        <v>2.075205116335383</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
@@ -413,7 +413,7 @@
         <v>-0.950474687876806</v>
       </c>
       <c r="C3" t="n">
-        <v>-21.52826572451113</v>
+        <v>-1.33094558690982</v>
       </c>
       <c r="D3" t="n">
         <v>5.333333333333333</v>
@@ -430,7 +430,7 @@
         <v>-0.896131372473647</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.891306374328906</v>
+        <v>-0.3150647256152297</v>
       </c>
       <c r="D4" t="n">
         <v>5.666666666666666</v>
@@ -447,7 +447,7 @@
         <v>-0.8476675601677783</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7525511486555843</v>
+        <v>-0.9533216084637388</v>
       </c>
       <c r="D5" t="n">
         <v>5.999999999999999</v>
@@ -464,7 +464,7 @@
         <v>-0.8041778490726017</v>
       </c>
       <c r="C6" t="n">
-        <v>-8.257909136829767</v>
+        <v>0.1406192258232295</v>
       </c>
       <c r="D6" t="n">
         <v>6.333333333333332</v>
@@ -481,7 +481,7 @@
         <v>-0.7649336964247624</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.215400600238354</v>
+        <v>-2.637955245891135</v>
       </c>
       <c r="D7" t="n">
         <v>6.666666666666665</v>
@@ -498,7 +498,7 @@
         <v>-0.729342237787165</v>
       </c>
       <c r="C8" t="n">
-        <v>2.265052910102895</v>
+        <v>-1.065117470842324</v>
       </c>
       <c r="D8" t="n">
         <v>6.999999999999998</v>
@@ -515,7 +515,7 @@
         <v>-0.6969161025534447</v>
       </c>
       <c r="C9" t="n">
-        <v>-13.93763952125619</v>
+        <v>1.659710130898475</v>
       </c>
       <c r="D9" t="n">
         <v>7.333333333333331</v>
@@ -532,7 +532,7 @@
         <v>-0.6672509455538744</v>
       </c>
       <c r="C10" t="n">
-        <v>-11.41340449050995</v>
+        <v>0.4466617108264472</v>
       </c>
       <c r="D10" t="n">
         <v>7.666666666666664</v>
@@ -549,7 +549,7 @@
         <v>-0.6400084872715865</v>
       </c>
       <c r="C11" t="n">
-        <v>28.32102805197201</v>
+        <v>0.111098484847389</v>
       </c>
       <c r="D11" t="n">
         <v>7.999999999999997</v>
@@ -566,7 +566,7 @@
         <v>-0.6149035486859731</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.7530546798057</v>
+        <v>1.066946489333532</v>
       </c>
       <c r="D12" t="n">
         <v>8.33333333333333</v>
@@ -583,7 +583,7 @@
         <v>-0.5916940243929076</v>
       </c>
       <c r="C13" t="n">
-        <v>26.61530981310307</v>
+        <v>1.124403930545213</v>
       </c>
       <c r="D13" t="n">
         <v>8.666666666666664</v>
@@ -600,7 +600,7 @@
         <v>-0.5701730453146752</v>
       </c>
       <c r="C14" t="n">
-        <v>5.987189627647695</v>
+        <v>0.8993699177299277</v>
       </c>
       <c r="D14" t="n">
         <v>8.999999999999998</v>
@@ -617,7 +617,7 @@
         <v>-0.5501627926982025</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.92476149069444</v>
+        <v>1.596554018201005</v>
       </c>
       <c r="D15" t="n">
         <v>9.333333333333332</v>
@@ -634,7 +634,7 @@
         <v>-0.5315095712275024</v>
       </c>
       <c r="C16" t="n">
-        <v>13.83784448267716</v>
+        <v>0.6783150447017761</v>
       </c>
       <c r="D16" t="n">
         <v>9.666666666666666</v>
@@ -651,7 +651,7 @@
         <v>-0.5140798520374261</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.370307711348687</v>
+        <v>-0.3995667047970528</v>
       </c>
       <c r="D17" t="n">
         <v>10</v>
@@ -668,7 +668,7 @@
         <v>-0.4977570699313674</v>
       </c>
       <c r="C18" t="n">
-        <v>-15.39153755514735</v>
+        <v>1.36337811045496</v>
       </c>
       <c r="D18" t="n">
         <v>10.33333333333333</v>
@@ -685,7 +685,7 @@
         <v>-0.4824390122431339</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8149464096836709</v>
+        <v>1.526878431555815</v>
       </c>
       <c r="D19" t="n">
         <v>10.66666666666667</v>
@@ -702,7 +702,7 @@
         <v>-0.4680356756336721</v>
       </c>
       <c r="C20" t="n">
-        <v>9.268132324828002</v>
+        <v>0.2425630293096219</v>
       </c>
       <c r="D20" t="n">
         <v>11</v>
@@ -719,7 +719,7 @@
         <v>-0.4544674958195429</v>
       </c>
       <c r="C21" t="n">
-        <v>4.27134022517248</v>
+        <v>-1.548237155008337</v>
       </c>
       <c r="D21" t="n">
         <v>11.33333333333334</v>
@@ -736,7 +736,7 @@
         <v>-0.4416638766541183</v>
       </c>
       <c r="C22" t="n">
-        <v>1.744009133271447</v>
+        <v>0.6728568669950619</v>
       </c>
       <c r="D22" t="n">
         <v>11.66666666666667</v>
@@ -753,7 +753,7 @@
         <v>-0.4295619611194468</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.68402877415156</v>
+        <v>-0.4968812228780735</v>
       </c>
       <c r="D23" t="n">
         <v>12</v>
@@ -770,7 +770,7 @@
         <v>-0.4181055990483316</v>
       </c>
       <c r="C24" t="n">
-        <v>-18.53349905482582</v>
+        <v>-0.5740796395157304</v>
       </c>
       <c r="D24" t="n">
         <v>12.33333333333334</v>
@@ -787,7 +787,7 @@
         <v>-0.4072444757897813</v>
       </c>
       <c r="C25" t="n">
-        <v>2.969106052963525</v>
+        <v>0.060008604498762</v>
       </c>
       <c r="D25" t="n">
         <v>12.66666666666667</v>
@@ -804,7 +804,7 @@
         <v>-0.3969333732828204</v>
       </c>
       <c r="C26" t="n">
-        <v>40.34819842314346</v>
+        <v>0.7387467061730604</v>
       </c>
       <c r="D26" t="n">
         <v>13.00000000000001</v>
@@ -821,7 +821,7 @@
         <v>-0.3871315406429972</v>
       </c>
       <c r="C27" t="n">
-        <v>5.413914555714655</v>
+        <v>0.5618028784792841</v>
       </c>
       <c r="D27" t="n">
         <v>13.33333333333334</v>
@@ -838,7 +838,7 @@
         <v>-0.3778021557817652</v>
       </c>
       <c r="C28" t="n">
-        <v>4.747096705362765</v>
+        <v>-0.2118939517022227</v>
       </c>
       <c r="D28" t="n">
         <v>13.66666666666667</v>
@@ -855,7 +855,7 @@
         <v>-0.3689118630588695</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.889901268953054</v>
+        <v>-0.5143869815342441</v>
       </c>
       <c r="D29" t="n">
         <v>14.00000000000001</v>
@@ -872,7 +872,7 @@
         <v>-0.3604303747282813</v>
       </c>
       <c r="C30" t="n">
-        <v>-3.241675136885078</v>
+        <v>0.2950207588960438</v>
       </c>
       <c r="D30" t="n">
         <v>14.33333333333334</v>
@@ -889,7 +889,7 @@
         <v>-0.3523301261385541</v>
       </c>
       <c r="C31" t="n">
-        <v>-4.657886060088458</v>
+        <v>0.7930761071484085</v>
       </c>
       <c r="D31" t="n">
         <v>14.66666666666667</v>
@@ -906,7 +906,7 @@
         <v>-0.3445859764149191</v>
       </c>
       <c r="C32" t="n">
-        <v>11.14264115338665</v>
+        <v>1.793060693365987</v>
       </c>
       <c r="D32" t="n">
         <v>15.00000000000001</v>
@@ -923,7 +923,7 @@
         <v>-0.3371749477745709</v>
       </c>
       <c r="C33" t="n">
-        <v>-13.56227801906789</v>
+        <v>-0.6896771494471068</v>
       </c>
       <c r="D33" t="n">
         <v>15.33333333333334</v>
@@ -940,7 +940,7 @@
         <v>-0.3300759977792893</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.18495425177298</v>
+        <v>1.006350736314289</v>
       </c>
       <c r="D34" t="n">
         <v>15.66666666666668</v>
@@ -957,7 +957,7 @@
         <v>-0.3232698197706441</v>
       </c>
       <c r="C35" t="n">
-        <v>4.944142852550613</v>
+        <v>-1.898026271343042</v>
       </c>
       <c r="D35" t="n">
         <v>16.00000000000001</v>
@@ -974,7 +974,7 @@
         <v>-0.3167386675009425</v>
       </c>
       <c r="C36" t="n">
-        <v>-3.953368983949076</v>
+        <v>-1.194387006233683</v>
       </c>
       <c r="D36" t="n">
         <v>16.33333333333334</v>
@@ -991,7 +991,7 @@
         <v>-0.3104662006052195</v>
       </c>
       <c r="C37" t="n">
-        <v>14.83774931254993</v>
+        <v>0.02022051505491618</v>
       </c>
       <c r="D37" t="n">
         <v>16.66666666666667</v>
@@ -1008,7 +1008,7 @@
         <v>-0.3044373480807394</v>
       </c>
       <c r="C38" t="n">
-        <v>-18.39384325657466</v>
+        <v>-1.780153525946389</v>
       </c>
       <c r="D38" t="n">
         <v>17.00000000000001</v>
@@ -1025,7 +1025,7 @@
         <v>-0.2986381873722337</v>
       </c>
       <c r="C39" t="n">
-        <v>-19.93649977032464</v>
+        <v>1.480885461249272</v>
       </c>
       <c r="D39" t="n">
         <v>17.33333333333334</v>
@@ -1042,7 +1042,7 @@
         <v>-0.2930558370206882</v>
       </c>
       <c r="C40" t="n">
-        <v>33.34789331104366</v>
+        <v>-0.8219741022171547</v>
       </c>
       <c r="D40" t="n">
         <v>17.66666666666667</v>
@@ -1059,7 +1059,7 @@
         <v>-0.2876783611330325</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.3276540049273535</v>
+        <v>0.3806672641389923</v>
       </c>
       <c r="D41" t="n">
         <v>18</v>
@@ -1076,7 +1076,7 @@
         <v>-0.2824946841816285</v>
       </c>
       <c r="C42" t="n">
-        <v>34.35571604476718</v>
+        <v>-1.291978403487064</v>
       </c>
       <c r="D42" t="n">
         <v>18.33333333333334</v>
@@ -1093,7 +1093,7 @@
         <v>-0.2774945148531032</v>
       </c>
       <c r="C43" t="n">
-        <v>-19.10509425043074</v>
+        <v>-1.875698175779235</v>
       </c>
       <c r="D43" t="n">
         <v>18.66666666666667</v>
@@ -1110,7 +1110,7 @@
         <v>-0.2726682778450993</v>
       </c>
       <c r="C44" t="n">
-        <v>9.787762574459975</v>
+        <v>-1.862898017060161</v>
       </c>
       <c r="D44" t="n">
         <v>19</v>
@@ -1127,7 +1127,7 @@
         <v>-0.268007052659371</v>
       </c>
       <c r="C45" t="n">
-        <v>11.87225154602129</v>
+        <v>1.588617003832951</v>
       </c>
       <c r="D45" t="n">
         <v>19.33333333333333</v>
@@ -1144,7 +1144,7 @@
         <v>-0.2635025185681314</v>
       </c>
       <c r="C46" t="n">
-        <v>1.669693778575038</v>
+        <v>0.6883634966870886</v>
       </c>
       <c r="D46" t="n">
         <v>19.66666666666666</v>
@@ -1161,7 +1161,7 @@
         <v>-0.2591469050391453</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.81041999378476</v>
+        <v>1.661705425931359</v>
       </c>
       <c r="D47" t="n">
         <v>20</v>
@@ -1178,7 +1178,7 @@
         <v>-0.2549329469982808</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.714898041826473</v>
+        <v>-0.2576219589759603</v>
       </c>
       <c r="D48" t="n">
         <v>20.33333333333333</v>
@@ -1195,7 +1195,7 @@
         <v>-0.2508538443873363</v>
       </c>
       <c r="C49" t="n">
-        <v>-3.295245951264405</v>
+        <v>-1.755114733139635</v>
       </c>
       <c r="D49" t="n">
         <v>20.66666666666666</v>
@@ -1212,7 +1212,7 @@
         <v>-0.2469032255440169</v>
       </c>
       <c r="C50" t="n">
-        <v>11.80984992601725</v>
+        <v>0.3261937023121391</v>
       </c>
       <c r="D50" t="n">
         <v>20.99999999999999</v>
@@ -1229,7 +1229,7 @@
         <v>-0.2430751139887661</v>
       </c>
       <c r="C51" t="n">
-        <v>4.067201918150204</v>
+        <v>-0.878354815512921</v>
       </c>
       <c r="D51" t="n">
         <v>21.33333333333333</v>
@@ -1246,7 +1246,7 @@
         <v>-0.2393638982543678</v>
       </c>
       <c r="C52" t="n">
-        <v>12.98653249630661</v>
+        <v>0.3857684467993749</v>
       </c>
       <c r="D52" t="n">
         <v>21.66666666666666</v>
@@ -1263,7 +1263,7 @@
         <v>-0.2357643044383764</v>
       </c>
       <c r="C53" t="n">
-        <v>-15.62802659242561</v>
+        <v>-0.6332150506168546</v>
       </c>
       <c r="D53" t="n">
         <v>21.99999999999999</v>
@@ -1280,7 +1280,7 @@
         <v>-0.2322713711952957</v>
       </c>
       <c r="C54" t="n">
-        <v>4.603937603031682</v>
+        <v>0.7021917206593571</v>
       </c>
       <c r="D54" t="n">
         <v>22.33333333333332</v>
@@ -1297,7 +1297,7 @@
         <v>-0.2288804269197868</v>
       </c>
       <c r="C55" t="n">
-        <v>-3.098522198298724</v>
+        <v>1.250433540246831</v>
       </c>
       <c r="D55" t="n">
         <v>22.66666666666665</v>
@@ -1314,7 +1314,7 @@
         <v>-0.2255870688997561</v>
       </c>
       <c r="C56" t="n">
-        <v>-27.96478543000831</v>
+        <v>-3.868113378162434</v>
       </c>
       <c r="D56" t="n">
         <v>22.99999999999999</v>
@@ -1331,7 +1331,7 @@
         <v>-0.2223871442439389</v>
       </c>
       <c r="C57" t="n">
-        <v>11.90050005499006</v>
+        <v>-1.93925109558495</v>
       </c>
       <c r="D57" t="n">
         <v>23.33333333333332</v>
@@ -1348,7 +1348,7 @@
         <v>-0.2192767324101794</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.7563711745401633</v>
+        <v>-2.285135740593887</v>
       </c>
       <c r="D58" t="n">
         <v>23.66666666666665</v>
@@ -1365,7 +1365,7 @@
         <v>-0.2162521291796651</v>
       </c>
       <c r="C59" t="n">
-        <v>-4.757584574668726</v>
+        <v>3.855960289249197</v>
       </c>
       <c r="D59" t="n">
         <v>23.99999999999998</v>
@@ -1382,7 +1382,7 @@
         <v>-0.2133098319397817</v>
       </c>
       <c r="C60" t="n">
-        <v>6.95288935868939</v>
+        <v>0.5222480780485057</v>
       </c>
       <c r="D60" t="n">
         <v>24.33333333333331</v>
@@ -1399,7 +1399,7 @@
         <v>-0.2104465261521256</v>
       </c>
       <c r="C61" t="n">
-        <v>-5.172267646006276</v>
+        <v>0.7040810586850057</v>
       </c>
       <c r="D61" t="n">
         <v>24.66666666666665</v>
@@ -1416,7 +1416,7 @@
         <v>-0.2076590728961918</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.3753595836142267</v>
+        <v>-0.8868540793605462</v>
       </c>
       <c r="D62" t="n">
         <v>24.99999999999998</v>
@@ -1433,7 +1433,7 @@
         <v>-0.2049444973900307</v>
       </c>
       <c r="C63" t="n">
-        <v>-3.013474735759701</v>
+        <v>-0.7879230809435285</v>
       </c>
       <c r="D63" t="n">
         <v>25.33333333333331</v>
@@ -1450,7 +1450,7 @@
         <v>-0.2022999783997506</v>
       </c>
       <c r="C64" t="n">
-        <v>-13.99390445408108</v>
+        <v>-0.1638602749126221</v>
       </c>
       <c r="D64" t="n">
         <v>25.66666666666664</v>
@@ -1467,7 +1467,7 @@
         <v>-0.1997228384585981</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.022295379085335</v>
+        <v>1.093768614866349</v>
       </c>
       <c r="D65" t="n">
         <v>25.99999999999998</v>
@@ -1484,7 +1484,7 @@
         <v>-0.1972105348242223</v>
       </c>
       <c r="C66" t="n">
-        <v>-16.05437420263888</v>
+        <v>-0.1033017147192368</v>
       </c>
       <c r="D66" t="n">
         <v>26.33333333333331</v>
@@ -1501,7 +1501,7 @@
         <v>-0.1947606511100872</v>
       </c>
       <c r="C67" t="n">
-        <v>1.318989253183645</v>
+        <v>0.285080526438378</v>
       </c>
       <c r="D67" t="n">
         <v>26.66666666666664</v>
@@ -1518,7 +1518,7 @@
         <v>-0.1923708895329241</v>
       </c>
       <c r="C68" t="n">
-        <v>-4.165198611749474</v>
+        <v>1.836869295782435</v>
       </c>
       <c r="D68" t="n">
         <v>26.99999999999997</v>
@@ -1535,7 +1535,7 @@
         <v>-0.1900390637240861</v>
       </c>
       <c r="C69" t="n">
-        <v>16.89485690567744</v>
+        <v>1.833745780684239</v>
       </c>
       <c r="D69" t="n">
         <v>27.3333333333333</v>
@@ -1552,7 +1552,7 @@
         <v>-0.1877630920576649</v>
       </c>
       <c r="C70" t="n">
-        <v>6.303570597101498</v>
+        <v>-0.7400020524869433</v>
       </c>
       <c r="D70" t="n">
         <v>27.66666666666664</v>
@@ -1569,7 +1569,7 @@
         <v>-0.1855409914520436</v>
       </c>
       <c r="C71" t="n">
-        <v>-8.32391831070936</v>
+        <v>-2.69357639096097</v>
       </c>
       <c r="D71" t="n">
         <v>27.99999999999997</v>
@@ -1586,7 +1586,7 @@
         <v>-0.1833708716068259</v>
       </c>
       <c r="C72" t="n">
-        <v>-37.01103737334233</v>
+        <v>1.050767550373621</v>
       </c>
       <c r="D72" t="n">
         <v>28.3333333333333</v>
@@ -1603,7 +1603,7 @@
         <v>-0.181250929639333</v>
       </c>
       <c r="C73" t="n">
-        <v>5.748878025643535</v>
+        <v>0.1224556374190797</v>
       </c>
       <c r="D73" t="n">
         <v>28.66666666666663</v>
@@ -1620,7 +1620,7 @@
         <v>-0.1791794450889483</v>
       </c>
       <c r="C74" t="n">
-        <v>8.746811589908702</v>
+        <v>-1.150596070501251</v>
       </c>
       <c r="D74" t="n">
         <v>28.99999999999996</v>
@@ -1637,7 +1637,7 @@
         <v>-0.1771547752602771</v>
       </c>
       <c r="C75" t="n">
-        <v>11.35897099862859</v>
+        <v>1.401010406838395</v>
       </c>
       <c r="D75" t="n">
         <v>29.3333333333333</v>
@@ -1654,7 +1654,7 @@
         <v>-0.175175350878277</v>
       </c>
       <c r="C76" t="n">
-        <v>26.64064311050015</v>
+        <v>1.402196248826385</v>
       </c>
       <c r="D76" t="n">
         <v>29.66666666666663</v>
@@ -1671,7 +1671,7 @@
         <v>-0.1732396720318405</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.866372807222433</v>
+        <v>1.354513534387024</v>
       </c>
       <c r="D77" t="n">
         <v>29.99999999999996</v>
@@ -1688,7 +1688,7 @@
         <v>-0.1713463043830643</v>
       </c>
       <c r="C78" t="n">
-        <v>-2.012559718248667</v>
+        <v>-1.780811731698122</v>
       </c>
       <c r="D78" t="n">
         <v>30.33333333333329</v>
@@ -1705,7 +1705,7 @@
         <v>-0.1694938756225213</v>
       </c>
       <c r="C79" t="n">
-        <v>-6.782997941632857</v>
+        <v>0.09591839699123739</v>
       </c>
       <c r="D79" t="n">
         <v>30.66666666666663</v>
@@ -1722,7 +1722,7 @@
         <v>-0.1676810721520638</v>
       </c>
       <c r="C80" t="n">
-        <v>5.068778617850057</v>
+        <v>0.3877375291745011</v>
       </c>
       <c r="D80" t="n">
         <v>30.99999999999996</v>
@@ -1739,7 +1739,7 @@
         <v>-0.1659066359782742</v>
       </c>
       <c r="C81" t="n">
-        <v>18.42121569031588</v>
+        <v>1.306774900419896</v>
       </c>
       <c r="D81" t="n">
         <v>31.33333333333329</v>
@@ -1756,7 +1756,7 @@
         <v>-0.1641693618010152</v>
       </c>
       <c r="C82" t="n">
-        <v>9.174481112760986</v>
+        <v>0.2974197351632029</v>
       </c>
       <c r="D82" t="n">
         <v>31.66666666666662</v>
@@ -1773,7 +1773,7 @@
         <v>-0.1624680942830139</v>
       </c>
       <c r="C83" t="n">
-        <v>13.10930416785413</v>
+        <v>0.2831841803813404</v>
       </c>
       <c r="D83" t="n">
         <v>31.99999999999995</v>
@@ -1790,7 +1790,7 @@
         <v>-0.1608017254876302</v>
       </c>
       <c r="C84" t="n">
-        <v>-16.64105250868806</v>
+        <v>1.919311806151654</v>
       </c>
       <c r="D84" t="n">
         <v>32.33333333333329</v>
@@ -1807,7 +1807,7 @@
         <v>-0.1591691924724898</v>
       </c>
       <c r="C85" t="n">
-        <v>23.89639882990423</v>
+        <v>-2.247806920564017</v>
       </c>
       <c r="D85" t="n">
         <v>32.66666666666662</v>
@@ -1824,7 +1824,7 @@
         <v>-0.1575694750284526</v>
       </c>
       <c r="C86" t="n">
-        <v>-4.396077819767015</v>
+        <v>-0.2262397859876728</v>
       </c>
       <c r="D86" t="n">
         <v>32.99999999999996</v>
@@ -1841,7 +1841,7 @@
         <v>-0.1560015935533983</v>
       </c>
       <c r="C87" t="n">
-        <v>-19.73293787968714</v>
+        <v>-1.277246942362126</v>
       </c>
       <c r="D87" t="n">
         <v>33.33333333333329</v>
@@ -1858,7 +1858,7 @@
         <v>-0.1544646070518212</v>
       </c>
       <c r="C88" t="n">
-        <v>15.24620604758093</v>
+        <v>0.05693945031225667</v>
       </c>
       <c r="D88" t="n">
         <v>33.66666666666663</v>
@@ -1875,7 +1875,7 @@
         <v>-0.1529576112515088</v>
       </c>
       <c r="C89" t="n">
-        <v>-9.206830959849867</v>
+        <v>1.733811918352785</v>
       </c>
       <c r="D89" t="n">
         <v>33.99999999999996</v>
@@ -1892,7 +1892,7 @@
         <v>-0.1514797368292449</v>
       </c>
       <c r="C90" t="n">
-        <v>9.226395903291632</v>
+        <v>-0.1080847649304815</v>
       </c>
       <c r="D90" t="n">
         <v>34.3333333333333</v>
@@ -1909,7 +1909,7 @@
         <v>-0.1500301477388035</v>
       </c>
       <c r="C91" t="n">
-        <v>-14.40829700765562</v>
+        <v>-0.3490971744249691</v>
       </c>
       <c r="D91" t="n">
         <v>34.66666666666664</v>
@@ -1926,7 +1926,7 @@
         <v>-0.1486080396334444</v>
       </c>
       <c r="C92" t="n">
-        <v>34.50205074668429</v>
+        <v>1.631897292026224</v>
       </c>
       <c r="D92" t="n">
         <v>34.99999999999997</v>
@@ -1943,7 +1943,7 @@
         <v>-0.1472126383778516</v>
       </c>
       <c r="C93" t="n">
-        <v>21.10282276715861</v>
+        <v>1.069827690569127</v>
       </c>
       <c r="D93" t="n">
         <v>35.33333333333331</v>
@@ -1960,7 +1960,7 @@
         <v>-0.1458431986428224</v>
       </c>
       <c r="C94" t="n">
-        <v>7.63973477585705</v>
+        <v>-1.614892841124856</v>
       </c>
       <c r="D94" t="n">
         <v>35.66666666666664</v>
@@ -1977,7 +1977,7 @@
         <v>-0.144499002577632</v>
       </c>
       <c r="C95" t="n">
-        <v>19.91087520177643</v>
+        <v>1.526027719036847</v>
       </c>
       <c r="D95" t="n">
         <v>35.99999999999998</v>
@@ -1994,7 +1994,7 @@
         <v>-0.1431793585554146</v>
       </c>
       <c r="C96" t="n">
-        <v>22.18273843900488</v>
+        <v>-1.970651200362227</v>
       </c>
       <c r="D96" t="n">
         <v>36.33333333333331</v>
@@ -2011,7 +2011,7 @@
         <v>-0.1418835999864001</v>
       </c>
       <c r="C97" t="n">
-        <v>1.071707480845816</v>
+        <v>0.7877670485654562</v>
       </c>
       <c r="D97" t="n">
         <v>36.66666666666665</v>
@@ -2028,7 +2028,7 @@
         <v>-0.1406110841952284</v>
       </c>
       <c r="C98" t="n">
-        <v>8.429622909985028</v>
+        <v>-0.6270074441517863</v>
       </c>
       <c r="D98" t="n">
         <v>36.99999999999999</v>
@@ -2045,7 +2045,7 @@
         <v>-0.1393611913578923</v>
       </c>
       <c r="C99" t="n">
-        <v>-7.631646225549048</v>
+        <v>-1.797831946740644</v>
       </c>
       <c r="D99" t="n">
         <v>37.33333333333332</v>
@@ -2062,7 +2062,7 @@
         <v>-0.1381333234952109</v>
       </c>
       <c r="C100" t="n">
-        <v>-6.381714098331486</v>
+        <v>-0.9922523949999231</v>
       </c>
       <c r="D100" t="n">
         <v>37.66666666666666</v>
@@ -2079,7 +2079,7 @@
         <v>-0.1369269035187273</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.1476960282066102</v>
+        <v>-1.949340902815038</v>
       </c>
       <c r="D101" t="n">
         <v>37.99999999999999</v>
@@ -2096,7 +2096,7 @@
         <v>-0.135741374326372</v>
       </c>
       <c r="C102" t="n">
-        <v>2.0405868313469</v>
+        <v>-0.4402241884768046</v>
       </c>
       <c r="D102" t="n">
         <v>38.33333333333333</v>
@@ -2113,7 +2113,7 @@
         <v>-0.134576197944682</v>
       </c>
       <c r="C103" t="n">
-        <v>1.241380062193912</v>
+        <v>-1.768132825221528</v>
       </c>
       <c r="D103" t="n">
         <v>38.66666666666666</v>
@@ -2130,7 +2130,7 @@
         <v>-0.133430854714689</v>
       </c>
       <c r="C104" t="n">
-        <v>-17.56252575742201</v>
+        <v>0.5507174241024586</v>
       </c>
       <c r="D104" t="n">
         <v>39</v>
@@ -2147,7 +2147,7 @@
         <v>-0.1323048425192326</v>
       </c>
       <c r="C105" t="n">
-        <v>12.15977644845316</v>
+        <v>-0.5976479136161288</v>
       </c>
       <c r="D105" t="n">
         <v>39.33333333333334</v>
@@ -2164,7 +2164,7 @@
         <v>-0.1311976760488989</v>
       </c>
       <c r="C106" t="n">
-        <v>-20.91009177219303</v>
+        <v>-0.4994980972351186</v>
       </c>
       <c r="D106" t="n">
         <v>39.66666666666667</v>
@@ -2181,7 +2181,7 @@
         <v>-0.130108886104594</v>
       </c>
       <c r="C107" t="n">
-        <v>1.308768865187631</v>
+        <v>2.239420637255989</v>
       </c>
       <c r="D107" t="n">
         <v>40.00000000000001</v>
@@ -2198,7 +2198,7 @@
         <v>-0.1290380189345655</v>
       </c>
       <c r="C108" t="n">
-        <v>23.21250061839828</v>
+        <v>-0.3346127016243372</v>
       </c>
       <c r="D108" t="n">
         <v>40.33333333333334</v>
@@ -2215,7 +2215,7 @@
         <v>-0.1279846356038519</v>
       </c>
       <c r="C109" t="n">
-        <v>-13.97245515005216</v>
+        <v>-1.177181204749559</v>
       </c>
       <c r="D109" t="n">
         <v>40.66666666666668</v>
@@ -2232,7 +2232,7 @@
         <v>-0.126948311394429</v>
       </c>
       <c r="C110" t="n">
-        <v>7.785726693052311</v>
+        <v>-0.9830451605921553</v>
       </c>
       <c r="D110" t="n">
         <v>41.00000000000001</v>
@@ -2249,7 +2249,7 @@
         <v>-0.1259286352341462</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.6119503967147466</v>
+        <v>1.987437897728796</v>
       </c>
       <c r="D111" t="n">
         <v>41.33333333333335</v>
@@ -2266,7 +2266,7 @@
         <v>-0.1249252091531901</v>
       </c>
       <c r="C112" t="n">
-        <v>3.461331080765376</v>
+        <v>0.6703852474079213</v>
       </c>
       <c r="D112" t="n">
         <v>41.66666666666669</v>
@@ -2283,7 +2283,7 @@
         <v>-0.123937647766013</v>
       </c>
       <c r="C113" t="n">
-        <v>11.98012987194579</v>
+        <v>-2.094483560528261</v>
       </c>
       <c r="D113" t="n">
         <v>42.00000000000002</v>
@@ -2300,7 +2300,7 @@
         <v>-0.1229655777780181</v>
       </c>
       <c r="C114" t="n">
-        <v>-9.978074622690201</v>
+        <v>2.600998387258187</v>
       </c>
       <c r="D114" t="n">
         <v>42.33333333333336</v>
@@ -2317,7 +2317,7 @@
         <v>-0.1220086375148384</v>
       </c>
       <c r="C115" t="n">
-        <v>-14.35326002327747</v>
+        <v>0.2557404135568504</v>
       </c>
       <c r="D115" t="n">
         <v>42.66666666666669</v>
@@ -2334,7 +2334,7 @@
         <v>-0.1210664764739278</v>
       </c>
       <c r="C116" t="n">
-        <v>-8.105283128379142</v>
+        <v>-2.399898556558583</v>
       </c>
       <c r="D116" t="n">
         <v>43.00000000000003</v>
@@ -2351,7 +2351,7 @@
         <v>-0.1201387548962742</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.791200617723007</v>
+        <v>2.902399357803461</v>
       </c>
       <c r="D117" t="n">
         <v>43.33333333333336</v>
@@ -2368,7 +2368,7 @@
         <v>-0.1192251433580935</v>
       </c>
       <c r="C118" t="n">
-        <v>29.19789912606711</v>
+        <v>-1.482249042372132</v>
       </c>
       <c r="D118" t="n">
         <v>43.6666666666667</v>
@@ -2385,7 +2385,7 @@
         <v>-0.1183253223806133</v>
       </c>
       <c r="C119" t="n">
-        <v>9.027828265476273</v>
+        <v>2.435956853386415</v>
       </c>
       <c r="D119" t="n">
         <v>44.00000000000004</v>
@@ -2402,7 +2402,7 @@
         <v>-0.1174389820577488</v>
       </c>
       <c r="C120" t="n">
-        <v>11.67840130980494</v>
+        <v>1.280147019499054</v>
       </c>
       <c r="D120" t="n">
         <v>44.33333333333337</v>
@@ -2419,7 +2419,7 @@
         <v>-0.1165658217001777</v>
       </c>
       <c r="C121" t="n">
-        <v>-7.256454566320826</v>
+        <v>0.09104946623892829</v>
       </c>
       <c r="D121" t="n">
         <v>44.66666666666671</v>
@@ -2436,7 +2436,7 @@
         <v>-0.1157055494951322</v>
       </c>
       <c r="C122" t="n">
-        <v>17.01229970479153</v>
+        <v>0.2876832679817198</v>
       </c>
       <c r="D122" t="n">
         <v>45.00000000000004</v>
@@ -2453,7 +2453,7 @@
         <v>-0.1148578821814397</v>
       </c>
       <c r="C123" t="n">
-        <v>2.510269173337747</v>
+        <v>-0.2218279875137341</v>
       </c>
       <c r="D123" t="n">
         <v>45.33333333333338</v>
@@ -2470,7 +2470,7 @@
         <v>-0.1140225447383472</v>
       </c>
       <c r="C124" t="n">
-        <v>18.6748783611929</v>
+        <v>2.872716894084533</v>
       </c>
       <c r="D124" t="n">
         <v>45.66666666666671</v>
@@ -2487,7 +2487,7 @@
         <v>-0.1131992700881881</v>
       </c>
       <c r="C125" t="n">
-        <v>-5.777374694237551</v>
+        <v>1.626755924023655</v>
       </c>
       <c r="D125" t="n">
         <v>46.00000000000005</v>
@@ -2504,7 +2504,7 @@
         <v>-0.112387798811568</v>
       </c>
       <c r="C126" t="n">
-        <v>10.83931995182002</v>
+        <v>-1.007352053049999</v>
       </c>
       <c r="D126" t="n">
         <v>46.33333333333339</v>
@@ -2521,7 +2521,7 @@
         <v>-0.111587878874829</v>
       </c>
       <c r="C127" t="n">
-        <v>-2.008925679349886</v>
+        <v>0.7052056386878576</v>
       </c>
       <c r="D127" t="n">
         <v>46.66666666666672</v>
@@ -2538,7 +2538,7 @@
         <v>-0.1107992653691099</v>
       </c>
       <c r="C128" t="n">
-        <v>-11.97926081689911</v>
+        <v>1.103524983192528</v>
       </c>
       <c r="D128" t="n">
         <v>47.00000000000006</v>
@@ -2555,7 +2555,7 @@
         <v>-0.1100217202604057</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.1875417100445702</v>
+        <v>0.5936741658229039</v>
       </c>
       <c r="D129" t="n">
         <v>47.33333333333339</v>
@@ -2572,7 +2572,7 @@
         <v>-0.1092550121497737</v>
       </c>
       <c r="C130" t="n">
-        <v>-5.795677506993798</v>
+        <v>2.623705723723106</v>
       </c>
       <c r="D130" t="n">
         <v>47.66666666666673</v>
@@ -2589,7 +2589,7 @@
         <v>-0.1084989160440841</v>
       </c>
       <c r="C131" t="n">
-        <v>13.81601722352207</v>
+        <v>-2.308506298721113</v>
       </c>
       <c r="D131" t="n">
         <v>48.00000000000006</v>
@@ -2606,7 +2606,7 @@
         <v>-0.1077532131355809</v>
       </c>
       <c r="C132" t="n">
-        <v>7.213176913182451</v>
+        <v>0.02902153892637216</v>
       </c>
       <c r="D132" t="n">
         <v>48.3333333333334</v>
@@ -2623,7 +2623,7 @@
         <v>-0.107017690590979</v>
       </c>
       <c r="C133" t="n">
-        <v>-17.69182877275398</v>
+        <v>1.447817588170437</v>
       </c>
       <c r="D133" t="n">
         <v>48.66666666666674</v>
@@ -2640,7 +2640,7 @@
         <v>-0.1062921413488027</v>
       </c>
       <c r="C134" t="n">
-        <v>15.83591846288664</v>
+        <v>-0.1908997678629021</v>
       </c>
       <c r="D134" t="n">
         <v>49.00000000000007</v>
@@ -2657,7 +2657,7 @@
         <v>-0.1055763639251381</v>
       </c>
       <c r="C135" t="n">
-        <v>-22.33739092545784</v>
+        <v>0.4876806343718272</v>
       </c>
       <c r="D135" t="n">
         <v>49.33333333333341</v>
@@ -2674,7 +2674,7 @@
         <v>-0.1048701622270016</v>
       </c>
       <c r="C136" t="n">
-        <v>10.46900736341695</v>
+        <v>0.8706395162307672</v>
       </c>
       <c r="D136" t="n">
         <v>49.66666666666674</v>
@@ -2691,7 +2691,7 @@
         <v>-0.1041733453733258</v>
       </c>
       <c r="C137" t="n">
-        <v>3.865799876771234</v>
+        <v>0.8359854058444398</v>
       </c>
       <c r="D137" t="n">
         <v>50.00000000000008</v>
@@ -2708,7 +2708,7 @@
         <v>-0.1034857275228802</v>
       </c>
       <c r="C138" t="n">
-        <v>5.006612737560317</v>
+        <v>1.902135419878505</v>
       </c>
       <c r="D138" t="n">
         <v>50.33333333333341</v>
@@ -2725,7 +2725,7 @@
         <v>-0.1028071277090135</v>
       </c>
       <c r="C139" t="n">
-        <v>-25.74522819360618</v>
+        <v>-2.042996057073196</v>
       </c>
       <c r="D139" t="n">
         <v>50.66666666666675</v>
@@ -2742,7 +2742,7 @@
         <v>-0.1021373696810031</v>
       </c>
       <c r="C140" t="n">
-        <v>8.200463171241609</v>
+        <v>0.6292845368384405</v>
       </c>
       <c r="D140" t="n">
         <v>51.00000000000009</v>
@@ -2759,7 +2759,7 @@
         <v>-0.1014762817512178</v>
       </c>
       <c r="C141" t="n">
-        <v>-19.92286511052225</v>
+        <v>-1.099427984940121</v>
       </c>
       <c r="D141" t="n">
         <v>51.33333333333342</v>
@@ -2776,7 +2776,7 @@
         <v>-0.1008236966485327</v>
       </c>
       <c r="C142" t="n">
-        <v>1.834411239304245</v>
+        <v>-1.745295169682777</v>
       </c>
       <c r="D142" t="n">
         <v>51.66666666666676</v>
@@ -2793,7 +2793,7 @@
         <v>-0.1001794513772722</v>
       </c>
       <c r="C143" t="n">
-        <v>-11.00647606027724</v>
+        <v>1.222420116935609</v>
       </c>
       <c r="D143" t="n">
         <v>52.00000000000009</v>
@@ -2810,7 +2810,7 @@
         <v>-0.09954338708132582</v>
       </c>
       <c r="C144" t="n">
-        <v>9.55140716267897</v>
+        <v>-0.6738803927860317</v>
       </c>
       <c r="D144" t="n">
         <v>52.33333333333343</v>
@@ -2827,7 +2827,7 @@
         <v>-0.09891534891363563</v>
       </c>
       <c r="C145" t="n">
-        <v>6.785803236871743</v>
+        <v>0.4699478713273493</v>
       </c>
       <c r="D145" t="n">
         <v>52.66666666666676</v>
@@ -2844,7 +2844,7 @@
         <v>-0.09829518591060094</v>
       </c>
       <c r="C146" t="n">
-        <v>-11.57458223095637</v>
+        <v>-0.5695851776267773</v>
       </c>
       <c r="D146" t="n">
         <v>53.0000000000001</v>
@@ -2861,7 +2861,7 @@
         <v>-0.09768275087088796</v>
       </c>
       <c r="C147" t="n">
-        <v>-8.032630895953844</v>
+        <v>0.1314481660874662</v>
       </c>
       <c r="D147" t="n">
         <v>53.33333333333344</v>
@@ -2878,7 +2878,7 @@
         <v>-0.09707790023919927</v>
       </c>
       <c r="C148" t="n">
-        <v>11.08381692981857</v>
+        <v>0.6286593030290533</v>
       </c>
       <c r="D148" t="n">
         <v>53.66666666666677</v>
@@ -2895,7 +2895,7 @@
         <v>-0.09648049399389436</v>
       </c>
       <c r="C149" t="n">
-        <v>8.999711660161665</v>
+        <v>0.1098545187692253</v>
       </c>
       <c r="D149" t="n">
         <v>54.00000000000011</v>
@@ -2912,7 +2912,7 @@
         <v>-0.09589039553901557</v>
       </c>
       <c r="C150" t="n">
-        <v>-5.030975534304162</v>
+        <v>0.3853155055453499</v>
       </c>
       <c r="D150" t="n">
         <v>54.33333333333344</v>
@@ -2929,7 +2929,7 @@
         <v>-0.09530747160012254</v>
       </c>
       <c r="C151" t="n">
-        <v>-9.094676158737911</v>
+        <v>2.584009720887479</v>
       </c>
       <c r="D151" t="n">
         <v>54.66666666666678</v>
@@ -2946,7 +2946,7 @@
         <v>-0.09473159212397775</v>
       </c>
       <c r="C152" t="n">
-        <v>5.281717782671421</v>
+        <v>-0.4104060540485079</v>
       </c>
       <c r="D152" t="n">
         <v>55.00000000000011</v>
@@ -2963,7 +2963,7 @@
         <v>-0.09416263018177062</v>
       </c>
       <c r="C153" t="n">
-        <v>5.413095348593288</v>
+        <v>-1.399349498179163</v>
       </c>
       <c r="D153" t="n">
         <v>55.33333333333345</v>
@@ -2980,7 +2980,7 @@
         <v>-0.09360046187589433</v>
       </c>
       <c r="C154" t="n">
-        <v>-23.67147677008825</v>
+        <v>-0.1322967572314155</v>
       </c>
       <c r="D154" t="n">
         <v>55.66666666666679</v>
@@ -2997,7 +2997,7 @@
         <v>-0.09304496624996261</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.352632026536412</v>
+        <v>1.596771471745797</v>
       </c>
       <c r="D155" t="n">
         <v>56.00000000000012</v>
@@ -3014,7 +3014,7 @@
         <v>-0.092496025202081</v>
       </c>
       <c r="C156" t="n">
-        <v>-3.109702573545746</v>
+        <v>3.35992731745182</v>
       </c>
       <c r="D156" t="n">
         <v>56.33333333333346</v>
@@ -3031,7 +3031,7 @@
         <v>-0.09195352340105956</v>
       </c>
       <c r="C157" t="n">
-        <v>5.30236193530709</v>
+        <v>-1.734558533350537</v>
       </c>
       <c r="D157" t="n">
         <v>56.66666666666679</v>
@@ -3048,7 +3048,7 @@
         <v>-0.0914173482057663</v>
       </c>
       <c r="C158" t="n">
-        <v>-9.147055828625525</v>
+        <v>-0.02405571280860386</v>
       </c>
       <c r="D158" t="n">
         <v>57.00000000000013</v>
@@ -3065,7 +3065,7 @@
         <v>-0.09088738958699594</v>
       </c>
       <c r="C159" t="n">
-        <v>15.89968801377699</v>
+        <v>-0.01570720654171964</v>
       </c>
       <c r="D159" t="n">
         <v>57.33333333333346</v>
@@ -3082,7 +3082,7 @@
         <v>-0.09036354005233704</v>
       </c>
       <c r="C160" t="n">
-        <v>-6.375515646860094</v>
+        <v>-0.3358956344777653</v>
       </c>
       <c r="D160" t="n">
         <v>57.6666666666668</v>
@@ -3099,7 +3099,7 @@
         <v>-0.08984569457336988</v>
       </c>
       <c r="C161" t="n">
-        <v>-2.584238185169852</v>
+        <v>1.152530511435543</v>
       </c>
       <c r="D161" t="n">
         <v>58.00000000000014</v>
@@ -3116,7 +3116,7 @@
         <v>-0.08933375051557846</v>
       </c>
       <c r="C162" t="n">
-        <v>12.75466805519227</v>
+        <v>-1.640474930486107</v>
       </c>
       <c r="D162" t="n">
         <v>58.33333333333347</v>
@@ -3133,7 +3133,7 @@
         <v>-0.08882760757042263</v>
       </c>
       <c r="C163" t="n">
-        <v>33.41166116190061</v>
+        <v>0.07278756320465618</v>
       </c>
       <c r="D163" t="n">
         <v>58.66666666666681</v>
@@ -3150,7 +3150,7 @@
         <v>-0.08832716768985449</v>
       </c>
       <c r="C164" t="n">
-        <v>2.308993099938561</v>
+        <v>-1.455909292686556</v>
       </c>
       <c r="D164" t="n">
         <v>59.00000000000014</v>
@@ -3167,7 +3167,7 @@
         <v>-0.08783233502306587</v>
       </c>
       <c r="C165" t="n">
-        <v>26.2282284498051</v>
+        <v>0.2134965284963073</v>
       </c>
       <c r="D165" t="n">
         <v>59.33333333333348</v>
@@ -3184,7 +3184,7 @@
         <v>-0.08734301585521109</v>
       </c>
       <c r="C166" t="n">
-        <v>24.50644091947061</v>
+        <v>2.319997546117975</v>
       </c>
       <c r="D166" t="n">
         <v>59.66666666666681</v>
@@ -3201,7 +3201,7 @@
         <v>-0.08685911854820461</v>
       </c>
       <c r="C167" t="n">
-        <v>-8.090704300237576</v>
+        <v>1.089969607626244</v>
       </c>
       <c r="D167" t="n">
         <v>60.00000000000015</v>
@@ -3218,7 +3218,7 @@
         <v>-0.08638055348365015</v>
       </c>
       <c r="C168" t="n">
-        <v>6.130229653874721</v>
+        <v>1.813086572293287</v>
       </c>
       <c r="D168" t="n">
         <v>60.33333333333348</v>
@@ -3235,7 +3235,7 @@
         <v>-0.08590723300729053</v>
       </c>
       <c r="C169" t="n">
-        <v>1.986650911052493</v>
+        <v>-1.062893787222038</v>
       </c>
       <c r="D169" t="n">
         <v>60.66666666666682</v>
@@ -3252,7 +3252,7 @@
         <v>-0.08543907137577378</v>
       </c>
       <c r="C170" t="n">
-        <v>-24.56791085785835</v>
+        <v>-0.02887576749935761</v>
       </c>
       <c r="D170" t="n">
         <v>61.00000000000016</v>
@@ -3269,7 +3269,7 @@
         <v>-0.08497598470452772</v>
       </c>
       <c r="C171" t="n">
-        <v>1.013667179765434</v>
+        <v>-2.659681114935665</v>
       </c>
       <c r="D171" t="n">
         <v>61.33333333333349</v>
@@ -3286,7 +3286,7 @@
         <v>-0.08451789091797934</v>
       </c>
       <c r="C172" t="n">
-        <v>15.66386187300122</v>
+        <v>-0.7963981000525564</v>
       </c>
       <c r="D172" t="n">
         <v>61.66666666666683</v>
@@ -3303,7 +3303,7 @@
         <v>-0.08406470970084001</v>
       </c>
       <c r="C173" t="n">
-        <v>7.912933990916827</v>
+        <v>1.845523892329311</v>
       </c>
       <c r="D173" t="n">
         <v>62.00000000000016</v>
@@ -3320,7 +3320,7 @@
         <v>-0.08361636245122384</v>
       </c>
       <c r="C174" t="n">
-        <v>10.61263138493359</v>
+        <v>0.6434157669373235</v>
       </c>
       <c r="D174" t="n">
         <v>62.3333333333335</v>
@@ -3337,7 +3337,7 @@
         <v>-0.08317277223527242</v>
       </c>
       <c r="C175" t="n">
-        <v>3.43873121402612</v>
+        <v>-1.505563831263316</v>
       </c>
       <c r="D175" t="n">
         <v>62.66666666666683</v>
@@ -3354,7 +3354,7 @@
         <v>-0.08273386374301595</v>
       </c>
       <c r="C176" t="n">
-        <v>-7.907744056630236</v>
+        <v>0.1436418299203979</v>
       </c>
       <c r="D176" t="n">
         <v>63.00000000000017</v>
@@ -3371,7 +3371,7 @@
         <v>-0.08229956324584009</v>
       </c>
       <c r="C177" t="n">
-        <v>-14.09241532262149</v>
+        <v>-1.7898246743448</v>
       </c>
       <c r="D177" t="n">
         <v>63.33333333333351</v>
@@ -3388,7 +3388,7 @@
         <v>-0.08186979855517507</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.67524119239215</v>
+        <v>-0.286894785214372</v>
       </c>
       <c r="D178" t="n">
         <v>63.66666666666684</v>
@@ -3405,7 +3405,7 @@
         <v>-0.08144449898249206</v>
       </c>
       <c r="C179" t="n">
-        <v>-4.493010127909201</v>
+        <v>-0.841588995107486</v>
       </c>
       <c r="D179" t="n">
         <v>64.00000000000017</v>
@@ -3422,7 +3422,7 @@
         <v>-0.08102359530052183</v>
       </c>
       <c r="C180" t="n">
-        <v>7.229871754288069</v>
+        <v>2.230379162383542</v>
       </c>
       <c r="D180" t="n">
         <v>64.3333333333335</v>
@@ -3439,7 +3439,7 @@
         <v>-0.08060701970573803</v>
       </c>
       <c r="C181" t="n">
-        <v>14.64040032320099</v>
+        <v>-1.922536262938138</v>
       </c>
       <c r="D181" t="n">
         <v>64.66666666666683</v>
@@ -3456,7 +3456,7 @@
         <v>-0.08019470578187793</v>
       </c>
       <c r="C182" t="n">
-        <v>-9.518923587050722</v>
+        <v>-3.190270067377696</v>
       </c>
       <c r="D182" t="n">
         <v>65.00000000000016</v>
@@ -3473,7 +3473,7 @@
         <v>-0.07978658846472797</v>
       </c>
       <c r="C183" t="n">
-        <v>7.398333990058291</v>
+        <v>0.487441749797199</v>
       </c>
       <c r="D183" t="n">
         <v>65.33333333333348</v>
@@ -3490,7 +3490,7 @@
         <v>-0.07938260400776187</v>
       </c>
       <c r="C184" t="n">
-        <v>17.72826081891844</v>
+        <v>0.0900695564482703</v>
       </c>
       <c r="D184" t="n">
         <v>65.66666666666681</v>
@@ -3507,7 +3507,7 @@
         <v>-0.07898268994912883</v>
       </c>
       <c r="C185" t="n">
-        <v>-13.24852787922464</v>
+        <v>-0.1842392091357397</v>
       </c>
       <c r="D185" t="n">
         <v>66.00000000000014</v>
@@ -3524,7 +3524,7 @@
         <v>-0.07858678507932382</v>
       </c>
       <c r="C186" t="n">
-        <v>-3.182619730904207</v>
+        <v>-0.2027492895749674</v>
       </c>
       <c r="D186" t="n">
         <v>66.33333333333347</v>
@@ -3541,7 +3541,7 @@
         <v>-0.07819482940992373</v>
       </c>
       <c r="C187" t="n">
-        <v>-25.02810053823623</v>
+        <v>1.706951739524811</v>
       </c>
       <c r="D187" t="n">
         <v>66.6666666666668</v>
@@ -3558,7 +3558,7 @@
         <v>-0.07780676414346033</v>
       </c>
       <c r="C188" t="n">
-        <v>-16.52870262363513</v>
+        <v>0.02604937709520527</v>
       </c>
       <c r="D188" t="n">
         <v>67.00000000000013</v>
@@ -3575,7 +3575,7 @@
         <v>-0.07742253164387591</v>
       </c>
       <c r="C189" t="n">
-        <v>-5.989853312757077</v>
+        <v>1.375877471454714</v>
       </c>
       <c r="D189" t="n">
         <v>67.33333333333346</v>
@@ -3592,7 +3592,7 @@
         <v>-0.07704207540795949</v>
       </c>
       <c r="C190" t="n">
-        <v>21.37142433535337</v>
+        <v>-0.09494023093066062</v>
       </c>
       <c r="D190" t="n">
         <v>67.66666666666679</v>
@@ -3609,7 +3609,7 @@
         <v>-0.0766653400377777</v>
       </c>
       <c r="C191" t="n">
-        <v>-2.448477722373809</v>
+        <v>2.211076048109135</v>
       </c>
       <c r="D191" t="n">
         <v>68.00000000000011</v>
@@ -3626,7 +3626,7 @@
         <v>-0.07629227121370263</v>
       </c>
       <c r="C192" t="n">
-        <v>-3.803266112067831</v>
+        <v>2.143258456526837</v>
       </c>
       <c r="D192" t="n">
         <v>68.33333333333344</v>
@@ -3643,7 +3643,7 @@
         <v>-0.07592281566829229</v>
       </c>
       <c r="C193" t="n">
-        <v>-27.4726747386776</v>
+        <v>0.4968201755527843</v>
       </c>
       <c r="D193" t="n">
         <v>68.66666666666677</v>
@@ -3660,7 +3660,7 @@
         <v>-0.07555692116096679</v>
       </c>
       <c r="C194" t="n">
-        <v>-6.534628751240689</v>
+        <v>-1.056491990016184</v>
       </c>
       <c r="D194" t="n">
         <v>69.0000000000001</v>
@@ -3677,7 +3677,7 @@
         <v>-0.07519453645335261</v>
       </c>
       <c r="C195" t="n">
-        <v>10.61706581262479</v>
+        <v>2.102314487010517</v>
       </c>
       <c r="D195" t="n">
         <v>69.33333333333343</v>
@@ -3694,7 +3694,7 @@
         <v>-0.0748356112854367</v>
       </c>
       <c r="C196" t="n">
-        <v>-20.5820813757764</v>
+        <v>-0.02617327016150739</v>
       </c>
       <c r="D196" t="n">
         <v>69.66666666666676</v>
@@ -3711,7 +3711,7 @@
         <v>-0.07448009635221808</v>
       </c>
       <c r="C197" t="n">
-        <v>-13.50073654165317</v>
+        <v>-1.503361504790973</v>
       </c>
       <c r="D197" t="n">
         <v>70.00000000000009</v>
@@ -3728,7 +3728,7 @@
         <v>-0.07412794328122629</v>
       </c>
       <c r="C198" t="n">
-        <v>5.590934272068353</v>
+        <v>-0.5989252115182353</v>
       </c>
       <c r="D198" t="n">
         <v>70.33333333333341</v>
@@ -3745,7 +3745,7 @@
         <v>-0.07377910461049453</v>
       </c>
       <c r="C199" t="n">
-        <v>0.1253695332243296</v>
+        <v>0.06798090297024828</v>
       </c>
       <c r="D199" t="n">
         <v>70.66666666666674</v>
@@ -3762,7 +3762,7 @@
         <v>-0.07343353376735706</v>
       </c>
       <c r="C200" t="n">
-        <v>-8.825076642499425</v>
+        <v>1.032484732604189</v>
       </c>
       <c r="D200" t="n">
         <v>71.00000000000007</v>
@@ -3779,7 +3779,7 @@
         <v>-0.07309118504755929</v>
       </c>
       <c r="C201" t="n">
-        <v>8.582337452352931</v>
+        <v>2.27616747123102</v>
       </c>
       <c r="D201" t="n">
         <v>71.3333333333334</v>
@@ -3796,7 +3796,7 @@
         <v>-0.07275201359524885</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.1912696240756304</v>
+        <v>-2.261822549478438</v>
       </c>
       <c r="D202" t="n">
         <v>71.66666666666673</v>
@@ -3813,7 +3813,7 @@
         <v>-0.0724159753833078</v>
       </c>
       <c r="C203" t="n">
-        <v>13.15877031302716</v>
+        <v>-1.181360285904702</v>
       </c>
       <c r="D203" t="n">
         <v>72.00000000000006</v>
@@ -3830,7 +3830,7 @@
         <v>-0.07208302719432425</v>
       </c>
       <c r="C204" t="n">
-        <v>-28.29363287617343</v>
+        <v>1.997164830235306</v>
       </c>
       <c r="D204" t="n">
         <v>72.33333333333339</v>
@@ -3847,7 +3847,7 @@
         <v>-0.07175312660203303</v>
       </c>
       <c r="C205" t="n">
-        <v>14.4883369269578</v>
+        <v>-0.7564127591876968</v>
       </c>
       <c r="D205" t="n">
         <v>72.66666666666671</v>
@@ -3864,7 +3864,7 @@
         <v>-0.0714262319533816</v>
       </c>
       <c r="C206" t="n">
-        <v>10.48802322259507</v>
+        <v>1.163713863666089</v>
       </c>
       <c r="D206" t="n">
         <v>73.00000000000004</v>
@@ -3881,7 +3881,7 @@
         <v>-0.07110230235083748</v>
       </c>
       <c r="C207" t="n">
-        <v>-34.33178870551774</v>
+        <v>0.2442105437376085</v>
       </c>
       <c r="D207" t="n">
         <v>73.33333333333337</v>
@@ -3898,7 +3898,7 @@
         <v>-0.07078129763556262</v>
       </c>
       <c r="C208" t="n">
-        <v>13.4350621119047</v>
+        <v>0.7612988184250753</v>
       </c>
       <c r="D208" t="n">
         <v>73.6666666666667</v>
@@ -3915,7 +3915,7 @@
         <v>-0.07046317837054517</v>
       </c>
       <c r="C209" t="n">
-        <v>-12.44547233831963</v>
+        <v>-1.731794008468569</v>
       </c>
       <c r="D209" t="n">
         <v>74.00000000000003</v>
@@ -3932,7 +3932,7 @@
         <v>-0.07014790582468322</v>
       </c>
       <c r="C210" t="n">
-        <v>3.203650218641087</v>
+        <v>1.055933316027676</v>
       </c>
       <c r="D210" t="n">
         <v>74.33333333333336</v>
@@ -3949,7 +3949,7 @@
         <v>-0.06983544195691138</v>
       </c>
       <c r="C211" t="n">
-        <v>-1.111041288684191</v>
+        <v>0.7772472553829175</v>
       </c>
       <c r="D211" t="n">
         <v>74.66666666666669</v>
@@ -3966,7 +3966,7 @@
         <v>-0.06952574940098089</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.3535202641701289</v>
+        <v>-0.09466089289753654</v>
       </c>
       <c r="D212" t="n">
         <v>75.00000000000001</v>
@@ -3983,7 +3983,7 @@
         <v>-0.06921879145055243</v>
       </c>
       <c r="C213" t="n">
-        <v>-31.23666554638839</v>
+        <v>1.979026462335696</v>
       </c>
       <c r="D213" t="n">
         <v>75.33333333333334</v>
@@ -4000,7 +4000,7 @@
         <v>-0.06891453204464426</v>
       </c>
       <c r="C214" t="n">
-        <v>6.179563858039273</v>
+        <v>-0.7804566881973187</v>
       </c>
       <c r="D214" t="n">
         <v>75.66666666666667</v>
@@ -4017,7 +4017,7 @@
         <v>-0.06861293575357763</v>
       </c>
       <c r="C215" t="n">
-        <v>7.088728358656226</v>
+        <v>0.537381460526376</v>
       </c>
       <c r="D215" t="n">
         <v>76</v>
@@ -4034,7 +4034,7 @@
         <v>-0.06831396776514964</v>
       </c>
       <c r="C216" t="n">
-        <v>7.654454236012953</v>
+        <v>-0.6294066853047298</v>
       </c>
       <c r="D216" t="n">
         <v>76.33333333333333</v>
@@ -4051,7 +4051,7 @@
         <v>-0.06801759387130346</v>
       </c>
       <c r="C217" t="n">
-        <v>3.174259895456998</v>
+        <v>-0.5056960298088597</v>
       </c>
       <c r="D217" t="n">
         <v>76.66666666666666</v>
@@ -4068,7 +4068,7 @@
         <v>-0.06772378045506855</v>
       </c>
       <c r="C218" t="n">
-        <v>20.46378636979398</v>
+        <v>-0.7329587367858039</v>
       </c>
       <c r="D218" t="n">
         <v>76.99999999999999</v>
@@ -4085,7 +4085,7 @@
         <v>-0.06743249447779931</v>
       </c>
       <c r="C219" t="n">
-        <v>-24.94175747928148</v>
+        <v>-1.148716550218978</v>
       </c>
       <c r="D219" t="n">
         <v>77.33333333333331</v>
@@ -4102,7 +4102,7 @@
         <v>-0.0671437034668827</v>
       </c>
       <c r="C220" t="n">
-        <v>-7.521882281730541</v>
+        <v>1.657914698185778</v>
       </c>
       <c r="D220" t="n">
         <v>77.66666666666664</v>
@@ -4119,7 +4119,7 @@
         <v>-0.06685737550351689</v>
       </c>
       <c r="C221" t="n">
-        <v>2.629810611602352</v>
+        <v>0.5806840144891794</v>
       </c>
       <c r="D221" t="n">
         <v>77.99999999999997</v>
@@ -4136,7 +4136,7 @@
         <v>-0.06657347921115786</v>
       </c>
       <c r="C222" t="n">
-        <v>-15.74541161083835</v>
+        <v>1.783759483255835</v>
       </c>
       <c r="D222" t="n">
         <v>78.3333333333333</v>
@@ -4153,7 +4153,7 @@
         <v>-0.0662919837439091</v>
       </c>
       <c r="C223" t="n">
-        <v>15.30045729220319</v>
+        <v>-1.529947870253181</v>
       </c>
       <c r="D223" t="n">
         <v>78.66666666666663</v>
@@ -4170,7 +4170,7 @@
         <v>-0.06601285877532348</v>
       </c>
       <c r="C224" t="n">
-        <v>13.53424371955407</v>
+        <v>-0.06630157844165296</v>
       </c>
       <c r="D224" t="n">
         <v>78.99999999999996</v>
@@ -4187,7 +4187,7 @@
         <v>-0.06573607448768826</v>
       </c>
       <c r="C225" t="n">
-        <v>-7.892125121962636</v>
+        <v>-0.4428549339791061</v>
       </c>
       <c r="D225" t="n">
         <v>79.33333333333329</v>
@@ -4204,7 +4204,7 @@
         <v>-0.06546160156122482</v>
       </c>
       <c r="C226" t="n">
-        <v>14.14537383236029</v>
+        <v>0.8405967616795351</v>
       </c>
       <c r="D226" t="n">
         <v>79.66666666666661</v>
@@ -4221,7 +4221,7 @@
         <v>-0.06518941116375743</v>
       </c>
       <c r="C227" t="n">
-        <v>-1.661250535498311</v>
+        <v>0.3515679363986237</v>
       </c>
       <c r="D227" t="n">
         <v>79.99999999999994</v>
@@ -4238,7 +4238,7 @@
         <v>-0.0649194749408224</v>
       </c>
       <c r="C228" t="n">
-        <v>24.62074129499297</v>
+        <v>-0.8971205873654071</v>
       </c>
       <c r="D228" t="n">
         <v>80.33333333333327</v>
@@ -4255,7 +4255,7 @@
         <v>-0.06465176500549319</v>
       </c>
       <c r="C229" t="n">
-        <v>-1.472656521389581</v>
+        <v>-1.623068639209123</v>
       </c>
       <c r="D229" t="n">
         <v>80.6666666666666</v>
@@ -4272,7 +4272,7 @@
         <v>-0.06438625392905806</v>
       </c>
       <c r="C230" t="n">
-        <v>-3.088986085372653</v>
+        <v>-0.2089163437426578</v>
       </c>
       <c r="D230" t="n">
         <v>80.99999999999993</v>
@@ -4289,7 +4289,7 @@
         <v>-0.06412291473149878</v>
       </c>
       <c r="C231" t="n">
-        <v>-16.1030737985111</v>
+        <v>0.5021251458065308</v>
       </c>
       <c r="D231" t="n">
         <v>81.33333333333326</v>
@@ -4306,7 +4306,7 @@
         <v>-0.0638617208723673</v>
       </c>
       <c r="C232" t="n">
-        <v>-14.20046206063807</v>
+        <v>-0.3663998611896204</v>
       </c>
       <c r="D232" t="n">
         <v>81.66666666666659</v>
@@ -4323,7 +4323,7 @@
         <v>-0.06360264624194656</v>
       </c>
       <c r="C233" t="n">
-        <v>26.42136559292521</v>
+        <v>-1.466702172745045</v>
       </c>
       <c r="D233" t="n">
         <v>81.99999999999991</v>
@@ -4340,7 +4340,7 @@
         <v>-0.0633456651524682</v>
       </c>
       <c r="C234" t="n">
-        <v>8.79584029757325</v>
+        <v>2.284534334346972</v>
       </c>
       <c r="D234" t="n">
         <v>82.33333333333324</v>
@@ -4357,7 +4357,7 @@
         <v>-0.06309075232967132</v>
       </c>
       <c r="C235" t="n">
-        <v>-11.75710190843574</v>
+        <v>-1.814150087865073</v>
       </c>
       <c r="D235" t="n">
         <v>82.66666666666657</v>
@@ -4374,7 +4374,7 @@
         <v>-0.0628378829044749</v>
       </c>
       <c r="C236" t="n">
-        <v>1.308364406519559</v>
+        <v>0.7093002973806506</v>
       </c>
       <c r="D236" t="n">
         <v>82.9999999999999</v>
@@ -4391,7 +4391,7 @@
         <v>-0.06258703240492025</v>
       </c>
       <c r="C237" t="n">
-        <v>-2.823344606579212</v>
+        <v>1.182130505174882</v>
       </c>
       <c r="D237" t="n">
         <v>83.33333333333323</v>
@@ -4408,7 +4408,7 @@
         <v>-0.0623381767482698</v>
       </c>
       <c r="C238" t="n">
-        <v>-10.9898992054168</v>
+        <v>-0.313343524598622</v>
       </c>
       <c r="D238" t="n">
         <v>83.66666666666656</v>
@@ -4425,7 +4425,7 @@
         <v>-0.06209129223327636</v>
       </c>
       <c r="C239" t="n">
-        <v>16.29793716972927</v>
+        <v>0.02651556350201645</v>
       </c>
       <c r="D239" t="n">
         <v>83.99999999999989</v>
@@ -4442,7 +4442,7 @@
         <v>-0.06184635553273665</v>
       </c>
       <c r="C240" t="n">
-        <v>17.68506964971402</v>
+        <v>-1.209561123976528</v>
       </c>
       <c r="D240" t="n">
         <v>84.33333333333321</v>
@@ -4459,7 +4459,7 @@
         <v>-0.06160334368601639</v>
       </c>
       <c r="C241" t="n">
-        <v>-22.98057379284364</v>
+        <v>0.2758574668328038</v>
       </c>
       <c r="D241" t="n">
         <v>84.66666666666654</v>
@@ -4476,7 +4476,7 @@
         <v>-0.06136223409198749</v>
       </c>
       <c r="C242" t="n">
-        <v>19.7952186415896</v>
+        <v>-0.2087631409831374</v>
       </c>
       <c r="D242" t="n">
         <v>84.99999999999987</v>
@@ -4493,7 +4493,7 @@
         <v>-0.06112300450196528</v>
       </c>
       <c r="C243" t="n">
-        <v>14.64051462156522</v>
+        <v>-1.391937865471391</v>
       </c>
       <c r="D243" t="n">
         <v>85.3333333333332</v>
@@ -4510,7 +4510,7 @@
         <v>-0.06088563301287309</v>
       </c>
       <c r="C244" t="n">
-        <v>-10.611553594822</v>
+        <v>0.9035896635655263</v>
       </c>
       <c r="D244" t="n">
         <v>85.66666666666653</v>
@@ -4527,7 +4527,7 @@
         <v>-0.06065009806059152</v>
       </c>
       <c r="C245" t="n">
-        <v>-12.50029986482559</v>
+        <v>-1.034223090587602</v>
       </c>
       <c r="D245" t="n">
         <v>85.99999999999986</v>
@@ -4544,7 +4544,7 @@
         <v>-0.06041637841333625</v>
       </c>
       <c r="C246" t="n">
-        <v>0.02142072131073292</v>
+        <v>1.084647643510834</v>
       </c>
       <c r="D246" t="n">
         <v>86.33333333333319</v>
@@ -4561,7 +4561,7 @@
         <v>-0.06018445316540522</v>
       </c>
       <c r="C247" t="n">
-        <v>-19.697301639957</v>
+        <v>-0.02738113882014659</v>
       </c>
       <c r="D247" t="n">
         <v>86.66666666666652</v>
@@ -4578,7 +4578,7 @@
         <v>-0.05995430173086902</v>
       </c>
       <c r="C248" t="n">
-        <v>-6.585749185109307</v>
+        <v>-1.642655899342572</v>
       </c>
       <c r="D248" t="n">
         <v>86.99999999999984</v>
@@ -4595,7 +4595,7 @@
         <v>-0.05972590383744603</v>
       </c>
       <c r="C249" t="n">
-        <v>11.69480742982159</v>
+        <v>0.9520711831646622</v>
       </c>
       <c r="D249" t="n">
         <v>87.33333333333317</v>
@@ -4612,7 +4612,7 @@
         <v>-0.0594992395206333</v>
       </c>
       <c r="C250" t="n">
-        <v>-12.57480798744928</v>
+        <v>2.752720195089296</v>
       </c>
       <c r="D250" t="n">
         <v>87.6666666666665</v>
@@ -4629,7 +4629,7 @@
         <v>-0.05927428911786592</v>
       </c>
       <c r="C251" t="n">
-        <v>-17.7135759973944</v>
+        <v>0.5375408780437283</v>
       </c>
       <c r="D251" t="n">
         <v>87.99999999999983</v>
@@ -4646,7 +4646,7 @@
         <v>-0.05905103326276162</v>
       </c>
       <c r="C252" t="n">
-        <v>-8.81879470080321</v>
+        <v>-3.645520955009943</v>
       </c>
       <c r="D252" t="n">
         <v>88.33333333333316</v>
@@ -4663,7 +4663,7 @@
         <v>-0.05882945287964958</v>
       </c>
       <c r="C253" t="n">
-        <v>-3.467273825047414</v>
+        <v>-0.5058302762290623</v>
       </c>
       <c r="D253" t="n">
         <v>88.66666666666649</v>
@@ -4680,7 +4680,7 @@
         <v>-0.05860952917811346</v>
       </c>
       <c r="C254" t="n">
-        <v>-19.35655070006533</v>
+        <v>2.177552053320596</v>
       </c>
       <c r="D254" t="n">
         <v>88.99999999999982</v>
@@ -4697,7 +4697,7 @@
         <v>-0.05839124364763393</v>
       </c>
       <c r="C255" t="n">
-        <v>17.79726291533052</v>
+        <v>0.9522499677536871</v>
       </c>
       <c r="D255" t="n">
         <v>89.33333333333314</v>
@@ -4714,7 +4714,7 @@
         <v>-0.05817457805252957</v>
       </c>
       <c r="C256" t="n">
-        <v>5.68420402318452</v>
+        <v>1.725488387530277</v>
       </c>
       <c r="D256" t="n">
         <v>89.66666666666647</v>
@@ -4731,7 +4731,7 @@
         <v>-0.0579595144265852</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.9571782682232879</v>
+        <v>3.274685196396149</v>
       </c>
       <c r="D257" t="n">
         <v>89.9999999999998</v>
@@ -4748,7 +4748,7 @@
         <v>-0.05774603506853282</v>
       </c>
       <c r="C258" t="n">
-        <v>-15.15950048478271</v>
+        <v>0.274310483860063</v>
       </c>
       <c r="D258" t="n">
         <v>90.33333333333313</v>
@@ -4765,7 +4765,7 @@
         <v>-0.05753412253672252</v>
       </c>
       <c r="C259" t="n">
-        <v>1.443429919469054</v>
+        <v>0.5136270363568656</v>
       </c>
       <c r="D259" t="n">
         <v>90.66666666666646</v>
@@ -4782,7 +4782,7 @@
         <v>-0.05732375964471714</v>
       </c>
       <c r="C260" t="n">
-        <v>14.92462233388824</v>
+        <v>-0.484538635429999</v>
       </c>
       <c r="D260" t="n">
         <v>90.99999999999979</v>
@@ -4799,7 +4799,7 @@
         <v>-0.05711492945647478</v>
       </c>
       <c r="C261" t="n">
-        <v>20.59868362200586</v>
+        <v>-1.626367015878714</v>
       </c>
       <c r="D261" t="n">
         <v>91.33333333333312</v>
@@ -4816,7 +4816,7 @@
         <v>-0.05690761528188659</v>
       </c>
       <c r="C262" t="n">
-        <v>-8.360275492993878</v>
+        <v>-0.239378432749163</v>
       </c>
       <c r="D262" t="n">
         <v>91.66666666666644</v>
@@ -4833,7 +4833,7 @@
         <v>-0.05670180067221509</v>
       </c>
       <c r="C263" t="n">
-        <v>-7.505389307180394</v>
+        <v>1.278337442337488</v>
       </c>
       <c r="D263" t="n">
         <v>91.99999999999977</v>
@@ -4850,7 +4850,7 @@
         <v>-0.056497469415973</v>
       </c>
       <c r="C264" t="n">
-        <v>9.084713691597699</v>
+        <v>0.06191896379732498</v>
       </c>
       <c r="D264" t="n">
         <v>92.3333333333331</v>
@@ -4867,7 +4867,7 @@
         <v>-0.05629460553430476</v>
       </c>
       <c r="C265" t="n">
-        <v>-18.3007875841995</v>
+        <v>-0.005480573177010228</v>
       </c>
       <c r="D265" t="n">
         <v>92.66666666666643</v>
@@ -4884,7 +4884,7 @@
         <v>-0.05609319327723483</v>
       </c>
       <c r="C266" t="n">
-        <v>2.341125787269448</v>
+        <v>-1.521383800720741</v>
       </c>
       <c r="D266" t="n">
         <v>92.99999999999976</v>
@@ -4901,7 +4901,7 @@
         <v>-0.05589321711927653</v>
       </c>
       <c r="C267" t="n">
-        <v>5.950072769975577</v>
+        <v>3.663693320577295</v>
       </c>
       <c r="D267" t="n">
         <v>93.33333333333309</v>
@@ -4918,7 +4918,7 @@
         <v>-0.05569466175555249</v>
       </c>
       <c r="C268" t="n">
-        <v>-9.003560656862192</v>
+        <v>-2.327696168276361</v>
       </c>
       <c r="D268" t="n">
         <v>93.66666666666642</v>
@@ -4935,7 +4935,7 @@
         <v>-0.05549751209794351</v>
       </c>
       <c r="C269" t="n">
-        <v>-4.292868129400176</v>
+        <v>-0.7703985212756379</v>
       </c>
       <c r="D269" t="n">
         <v>93.99999999999974</v>
@@ -4952,7 +4952,7 @@
         <v>-0.05530175327118059</v>
       </c>
       <c r="C270" t="n">
-        <v>-3.208644487027414</v>
+        <v>-0.2768370767248598</v>
       </c>
       <c r="D270" t="n">
         <v>94.33333333333307</v>
@@ -4969,7 +4969,7 @@
         <v>-0.05510737060916426</v>
       </c>
       <c r="C271" t="n">
-        <v>-31.0530014089245</v>
+        <v>1.600724843679927</v>
       </c>
       <c r="D271" t="n">
         <v>94.6666666666664</v>
@@ -4986,7 +4986,7 @@
         <v>-0.05491434965122721</v>
       </c>
       <c r="C272" t="n">
-        <v>5.233046029112757</v>
+        <v>-0.2197368647975964</v>
       </c>
       <c r="D272" t="n">
         <v>94.99999999999973</v>
@@ -5003,7 +5003,7 @@
         <v>-0.05472267613868098</v>
       </c>
       <c r="C273" t="n">
-        <v>7.931821117793334</v>
+        <v>-0.4190341942576197</v>
       </c>
       <c r="D273" t="n">
         <v>95.33333333333306</v>
@@ -5020,7 +5020,7 @@
         <v>-0.05453233601110696</v>
       </c>
       <c r="C274" t="n">
-        <v>-25.16398218863606</v>
+        <v>0.2682986436266219</v>
       </c>
       <c r="D274" t="n">
         <v>95.66666666666639</v>
@@ -5037,7 +5037,7 @@
         <v>-0.05434331540314474</v>
       </c>
       <c r="C275" t="n">
-        <v>3.598189640394594</v>
+        <v>-2.862706739249006</v>
       </c>
       <c r="D275" t="n">
         <v>95.99999999999972</v>
@@ -5054,7 +5054,7 @@
         <v>-0.05415560064093938</v>
       </c>
       <c r="C276" t="n">
-        <v>17.20051268772704</v>
+        <v>1.62420705031127</v>
       </c>
       <c r="D276" t="n">
         <v>96.33333333333304</v>
@@ -5071,7 +5071,7 @@
         <v>-0.05396917823892977</v>
       </c>
       <c r="C277" t="n">
-        <v>-7.894016147741695</v>
+        <v>0.5500451725706625</v>
       </c>
       <c r="D277" t="n">
         <v>96.66666666666637</v>
@@ -5088,7 +5088,7 @@
         <v>-0.05378403489663697</v>
       </c>
       <c r="C278" t="n">
-        <v>-4.038206979572351</v>
+        <v>0.5537540302943853</v>
       </c>
       <c r="D278" t="n">
         <v>96.9999999999997</v>
@@ -5105,7 +5105,7 @@
         <v>-0.05360015749545255</v>
       </c>
       <c r="C279" t="n">
-        <v>-13.868872524572</v>
+        <v>-0.3873152805599602</v>
       </c>
       <c r="D279" t="n">
         <v>97.33333333333303</v>
@@ -5122,7 +5122,7 @@
         <v>-0.05341753309552644</v>
       </c>
       <c r="C280" t="n">
-        <v>5.182718691912214</v>
+        <v>0.6241601117108075</v>
       </c>
       <c r="D280" t="n">
         <v>97.66666666666636</v>
@@ -5139,7 +5139,7 @@
         <v>-0.05323614893281103</v>
       </c>
       <c r="C281" t="n">
-        <v>12.81305463975286</v>
+        <v>0.5085374818108903</v>
       </c>
       <c r="D281" t="n">
         <v>97.99999999999969</v>
@@ -5156,7 +5156,7 @@
         <v>-0.05305599241600589</v>
       </c>
       <c r="C282" t="n">
-        <v>-3.928823301506782</v>
+        <v>0.1596082149121685</v>
       </c>
       <c r="D282" t="n">
         <v>98.33333333333302</v>
@@ -5173,7 +5173,7 @@
         <v>-0.05287705112367291</v>
       </c>
       <c r="C283" t="n">
-        <v>-7.428839078690544</v>
+        <v>0.5788241556397224</v>
       </c>
       <c r="D283" t="n">
         <v>98.66666666666634</v>
@@ -5190,7 +5190,7 @@
         <v>-0.0526993128014368</v>
       </c>
       <c r="C284" t="n">
-        <v>5.698446288593459</v>
+        <v>1.57515851952121</v>
       </c>
       <c r="D284" t="n">
         <v>98.99999999999967</v>
@@ -5207,7 +5207,7 @@
         <v>-0.05252276535910028</v>
       </c>
       <c r="C285" t="n">
-        <v>-5.883020858914733</v>
+        <v>1.200987217672264</v>
       </c>
       <c r="D285" t="n">
         <v>99.333333333333</v>
@@ -5224,7 +5224,7 @@
         <v>-0.05234739686790135</v>
       </c>
       <c r="C286" t="n">
-        <v>-31.6105107055314</v>
+        <v>-2.675047404964062</v>
       </c>
       <c r="D286" t="n">
         <v>99.66666666666633</v>
@@ -5241,7 +5241,7 @@
         <v>-0.0521731955579412</v>
       </c>
       <c r="C287" t="n">
-        <v>-10.7692958960638</v>
+        <v>-0.7198639347489006</v>
       </c>
       <c r="D287" t="n">
         <v>99.99999999999966</v>
@@ -5258,7 +5258,7 @@
         <v>-0.0520001498153988</v>
       </c>
       <c r="C288" t="n">
-        <v>18.16613661347674</v>
+        <v>0.8337811571077509</v>
       </c>
       <c r="D288" t="n">
         <v>100.333333333333</v>
@@ -5275,7 +5275,7 @@
         <v>-0.05182824818005827</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.06809408986691778</v>
+        <v>0.6696218187544218</v>
       </c>
       <c r="D289" t="n">
         <v>100.6666666666663</v>
@@ -5292,7 +5292,7 @@
         <v>-0.05165747934280773</v>
       </c>
       <c r="C290" t="n">
-        <v>-22.80834770594583</v>
+        <v>-3.714503175407572</v>
       </c>
       <c r="D290" t="n">
         <v>100.9999999999996</v>
@@ -5309,7 +5309,7 @@
         <v>-0.05148783214295349</v>
       </c>
       <c r="C291" t="n">
-        <v>6.984630013559581</v>
+        <v>-2.954287356389159</v>
       </c>
       <c r="D291" t="n">
         <v>101.333333333333</v>
@@ -5326,7 +5326,7 @@
         <v>-0.05131929556605996</v>
       </c>
       <c r="C292" t="n">
-        <v>-5.189887123861354</v>
+        <v>-0.7745707280255374</v>
       </c>
       <c r="D292" t="n">
         <v>101.6666666666663</v>
@@ -5343,7 +5343,7 @@
         <v>-0.05115185874140593</v>
       </c>
       <c r="C293" t="n">
-        <v>14.72396911781789</v>
+        <v>-1.233349080552216</v>
       </c>
       <c r="D293" t="n">
         <v>101.9999999999996</v>
@@ -5360,7 +5360,7 @@
         <v>-0.05098551093959713</v>
       </c>
       <c r="C294" t="n">
-        <v>-22.70017144238227</v>
+        <v>3.155824558270524</v>
       </c>
       <c r="D294" t="n">
         <v>102.333333333333</v>
@@ -5377,7 +5377,7 @@
         <v>-0.05082024157049148</v>
       </c>
       <c r="C295" t="n">
-        <v>0.5759384115990542</v>
+        <v>1.457609786033572</v>
       </c>
       <c r="D295" t="n">
         <v>102.6666666666663</v>
@@ -5394,7 +5394,7 @@
         <v>-0.05065604018072634</v>
       </c>
       <c r="C296" t="n">
-        <v>-19.33201900032327</v>
+        <v>-0.4772746252551769</v>
       </c>
       <c r="D296" t="n">
         <v>102.9999999999996</v>
@@ -5411,7 +5411,7 @@
         <v>-0.05049289645157273</v>
       </c>
       <c r="C297" t="n">
-        <v>-4.089071289911772</v>
+        <v>-0.891718681236398</v>
       </c>
       <c r="D297" t="n">
         <v>103.3333333333329</v>
@@ -5428,7 +5428,7 @@
         <v>-0.0503308001969458</v>
       </c>
       <c r="C298" t="n">
-        <v>-7.433032472354171</v>
+        <v>-0.2010922384224614</v>
       </c>
       <c r="D298" t="n">
         <v>103.6666666666663</v>
@@ -5445,7 +5445,7 @@
         <v>-0.05016974136101737</v>
       </c>
       <c r="C299" t="n">
-        <v>-4.4690144729243</v>
+        <v>1.889924907799013</v>
       </c>
       <c r="D299" t="n">
         <v>103.9999999999996</v>
@@ -5462,7 +5462,7 @@
         <v>-0.05000971001626908</v>
       </c>
       <c r="C300" t="n">
-        <v>-11.88560504136558</v>
+        <v>0.815158811524725</v>
       </c>
       <c r="D300" t="n">
         <v>104.3333333333329</v>
@@ -5479,7 +5479,7 @@
         <v>-0.04985069636151707</v>
       </c>
       <c r="C301" t="n">
-        <v>28.69383017707651</v>
+        <v>0.7740351293664389</v>
       </c>
       <c r="D301" t="n">
         <v>104.6666666666663</v>
@@ -5493,13 +5493,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>-9.160702795706319</v>
+        <v>-0.9447018136433787</v>
       </c>
       <c r="C302" t="n">
-        <v>-8.19427811101832</v>
+        <v>1.099509538873008</v>
       </c>
       <c r="D302" t="n">
-        <v>0.5815578263842047</v>
+        <v>7.274872515776066</v>
       </c>
       <c r="E302" t="n">
         <v>0</v>
@@ -5510,13 +5510,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>-4.030467494336884</v>
+        <v>-4.809270484433337</v>
       </c>
       <c r="C303" t="n">
-        <v>12.98187141750805</v>
+        <v>0.7356073894354722</v>
       </c>
       <c r="D303" t="n">
-        <v>2.52489514369707</v>
+        <v>34.34071838146496</v>
       </c>
       <c r="E303" t="n">
         <v>0</v>
@@ -5527,13 +5527,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>7.271365812688064</v>
+        <v>-2.624442166030644</v>
       </c>
       <c r="C304" t="n">
-        <v>-16.97413026790196</v>
+        <v>1.543487387501727</v>
       </c>
       <c r="D304" t="n">
-        <v>69.9399346670457</v>
+        <v>7.810466317209485</v>
       </c>
       <c r="E304" t="n">
         <v>0</v>
@@ -5544,13 +5544,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>4.586816240101754</v>
+        <v>-3.557132092864256</v>
       </c>
       <c r="C305" t="n">
-        <v>2.498298852864764</v>
+        <v>-1.22936880025668</v>
       </c>
       <c r="D305" t="n">
-        <v>18.28746941411586</v>
+        <v>67.62365880120119</v>
       </c>
       <c r="E305" t="n">
         <v>0</v>
@@ -5561,13 +5561,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.3706534833209592</v>
+        <v>-4.544874211547957</v>
       </c>
       <c r="C306" t="n">
-        <v>25.09802998494388</v>
+        <v>2.344053917204064</v>
       </c>
       <c r="D306" t="n">
-        <v>80.80491880352564</v>
+        <v>86.35861196384759</v>
       </c>
       <c r="E306" t="n">
         <v>0</v>
@@ -5578,13 +5578,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>1.623231200518243</v>
+        <v>-0.4475656494709188</v>
       </c>
       <c r="C307" t="n">
-        <v>3.446756852104045</v>
+        <v>-0.331889416067952</v>
       </c>
       <c r="D307" t="n">
-        <v>66.00276428194076</v>
+        <v>90.56121901434648</v>
       </c>
       <c r="E307" t="n">
         <v>0</v>
@@ -5595,13 +5595,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>-9.218249096250116</v>
+        <v>-2.234265088950513</v>
       </c>
       <c r="C308" t="n">
-        <v>-3.881795485363909</v>
+        <v>-1.120156729761447</v>
       </c>
       <c r="D308" t="n">
-        <v>33.4055695402945</v>
+        <v>57.95795872354081</v>
       </c>
       <c r="E308" t="n">
         <v>0</v>
@@ -5612,13 +5612,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>-1.717656775484651</v>
+        <v>3.575262732517089</v>
       </c>
       <c r="C309" t="n">
-        <v>-5.091479125919705</v>
+        <v>-0.4804628868812415</v>
       </c>
       <c r="D309" t="n">
-        <v>20.48353754804012</v>
+        <v>97.78350331346631</v>
       </c>
       <c r="E309" t="n">
         <v>0</v>
@@ -5629,13 +5629,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>-6.519161701356002</v>
+        <v>2.40512719330443</v>
       </c>
       <c r="C310" t="n">
-        <v>10.68762633118467</v>
+        <v>-0.009852718438196462</v>
       </c>
       <c r="D310" t="n">
-        <v>29.25269080341759</v>
+        <v>15.87656678679056</v>
       </c>
       <c r="E310" t="n">
         <v>0</v>
@@ -5646,13 +5646,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>3.608671958021086</v>
+        <v>3.104185894662967</v>
       </c>
       <c r="C311" t="n">
-        <v>1.378988538323483</v>
+        <v>1.2501056733729</v>
       </c>
       <c r="D311" t="n">
-        <v>27.66848715163935</v>
+        <v>18.18401378675575</v>
       </c>
       <c r="E311" t="n">
         <v>0</v>
@@ -5663,13 +5663,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>-6.198108418209527</v>
+        <v>2.255179465010495</v>
       </c>
       <c r="C312" t="n">
-        <v>29.30895555317147</v>
+        <v>1.084573753445738</v>
       </c>
       <c r="D312" t="n">
-        <v>36.42556735682893</v>
+        <v>60.40248943183034</v>
       </c>
       <c r="E312" t="n">
         <v>0</v>
@@ -5680,13 +5680,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>6.405705328192049</v>
+        <v>-4.933140849183775</v>
       </c>
       <c r="C313" t="n">
-        <v>-34.61277574634641</v>
+        <v>0.06290051143287201</v>
       </c>
       <c r="D313" t="n">
-        <v>44.7258856004775</v>
+        <v>29.34276594854919</v>
       </c>
       <c r="E313" t="n">
         <v>0</v>
@@ -5697,13 +5697,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>7.476830886493946</v>
+        <v>-2.208774911585636</v>
       </c>
       <c r="C314" t="n">
-        <v>-27.74238844990441</v>
+        <v>0.5934818164937496</v>
       </c>
       <c r="D314" t="n">
-        <v>79.4198212434377</v>
+        <v>92.22739257669443</v>
       </c>
       <c r="E314" t="n">
         <v>0</v>
@@ -5714,13 +5714,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>-2.355374474298522</v>
+        <v>-1.733021760341752</v>
       </c>
       <c r="C315" t="n">
-        <v>-11.18617803680854</v>
+        <v>-0.4384244260097603</v>
       </c>
       <c r="D315" t="n">
-        <v>54.32406087631273</v>
+        <v>58.08457222853794</v>
       </c>
       <c r="E315" t="n">
         <v>0</v>
@@ -5731,13 +5731,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.4992694884341056</v>
+        <v>-4.684589993686663</v>
       </c>
       <c r="C316" t="n">
-        <v>7.963668092633725</v>
+        <v>0.183292077818578</v>
       </c>
       <c r="D316" t="n">
-        <v>18.63769180394576</v>
+        <v>39.13381690693254</v>
       </c>
       <c r="E316" t="n">
         <v>0</v>
@@ -5748,13 +5748,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>-6.61524542142746</v>
+        <v>0.9809470304240628</v>
       </c>
       <c r="C317" t="n">
-        <v>-26.16394101190826</v>
+        <v>0.4304002118151402</v>
       </c>
       <c r="D317" t="n">
-        <v>21.13480875942076</v>
+        <v>85.84552690609991</v>
       </c>
       <c r="E317" t="n">
         <v>0</v>
@@ -5765,13 +5765,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>-8.383441425874851</v>
+        <v>0.8495355468881414</v>
       </c>
       <c r="C318" t="n">
-        <v>3.742447777161942</v>
+        <v>-1.721405939888427</v>
       </c>
       <c r="D318" t="n">
-        <v>39.49398724210138</v>
+        <v>51.00626967243673</v>
       </c>
       <c r="E318" t="n">
         <v>0</v>
@@ -5782,13 +5782,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>-7.708232691221122</v>
+        <v>2.764785918296077</v>
       </c>
       <c r="C319" t="n">
-        <v>-1.097271026448198</v>
+        <v>0.4038747378942844</v>
       </c>
       <c r="D319" t="n">
-        <v>89.34326899942953</v>
+        <v>95.18123278871917</v>
       </c>
       <c r="E319" t="n">
         <v>0</v>
@@ -5799,13 +5799,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>9.168339601922938</v>
+        <v>-1.727686970067306</v>
       </c>
       <c r="C320" t="n">
-        <v>-0.7779933419972167</v>
+        <v>1.643100338340219</v>
       </c>
       <c r="D320" t="n">
-        <v>93.1615181550781</v>
+        <v>6.40918562794327</v>
       </c>
       <c r="E320" t="n">
         <v>0</v>
@@ -5816,13 +5816,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>-9.086240254879117</v>
+        <v>1.810686518542254</v>
       </c>
       <c r="C321" t="n">
-        <v>-0.7057019013116133</v>
+        <v>-0.4537164645614666</v>
       </c>
       <c r="D321" t="n">
-        <v>18.67809777757386</v>
+        <v>18.77658975843258</v>
       </c>
       <c r="E321" t="n">
         <v>0</v>
@@ -5833,13 +5833,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>-7.707997253959082</v>
+        <v>3.430128621366839</v>
       </c>
       <c r="C322" t="n">
-        <v>-1.036041016731133</v>
+        <v>1.674527441105738</v>
       </c>
       <c r="D322" t="n">
-        <v>14.75616264292051</v>
+        <v>8.176116287277168</v>
       </c>
       <c r="E322" t="n">
         <v>0</v>
@@ -5850,13 +5850,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.4408172011870253</v>
+        <v>1.462756754940292</v>
       </c>
       <c r="C323" t="n">
-        <v>-21.62587518312057</v>
+        <v>-2.344154684283012</v>
       </c>
       <c r="D323" t="n">
-        <v>85.26855361851902</v>
+        <v>34.14467719284423</v>
       </c>
       <c r="E323" t="n">
         <v>0</v>
@@ -5867,13 +5867,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>1.378432450986789</v>
+        <v>4.03084427068117</v>
       </c>
       <c r="C324" t="n">
-        <v>7.064662794873584</v>
+        <v>-0.09979100513578487</v>
       </c>
       <c r="D324" t="n">
-        <v>21.18108695503575</v>
+        <v>44.34184501462047</v>
       </c>
       <c r="E324" t="n">
         <v>0</v>
@@ -5884,13 +5884,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>3.622953353949779</v>
+        <v>4.41830797450055</v>
       </c>
       <c r="C325" t="n">
-        <v>-49.37073272102339</v>
+        <v>1.477309790149775</v>
       </c>
       <c r="D325" t="n">
-        <v>4.564397650468321</v>
+        <v>98.460068188403</v>
       </c>
       <c r="E325" t="n">
         <v>0</v>
@@ -5901,13 +5901,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>1.677525035817656</v>
+        <v>1.912161075740768</v>
       </c>
       <c r="C326" t="n">
-        <v>1.07269412093865</v>
+        <v>0.1384288996403029</v>
       </c>
       <c r="D326" t="n">
-        <v>95.28702606987108</v>
+        <v>50.59174029906782</v>
       </c>
       <c r="E326" t="n">
         <v>0</v>
@@ -5918,13 +5918,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>-6.214068755656235</v>
+        <v>-1.842010663415282</v>
       </c>
       <c r="C327" t="n">
-        <v>0.3866499568080144</v>
+        <v>-0.8638512258230548</v>
       </c>
       <c r="D327" t="n">
-        <v>55.2680103086719</v>
+        <v>49.47404888686133</v>
       </c>
       <c r="E327" t="n">
         <v>0</v>
@@ -5935,13 +5935,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>2.723673552736434</v>
+        <v>-4.305822490404604</v>
       </c>
       <c r="C328" t="n">
-        <v>7.231339657725357</v>
+        <v>1.021939989265093</v>
       </c>
       <c r="D328" t="n">
-        <v>27.40148621972558</v>
+        <v>4.703235593543498</v>
       </c>
       <c r="E328" t="n">
         <v>0</v>
@@ -5952,13 +5952,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>-7.751619449170586</v>
+        <v>-2.137557774805469</v>
       </c>
       <c r="C329" t="n">
-        <v>-19.39044702494493</v>
+        <v>-0.2039856982212314</v>
       </c>
       <c r="D329" t="n">
-        <v>38.90627454583233</v>
+        <v>95.64289706560561</v>
       </c>
       <c r="E329" t="n">
         <v>0</v>
@@ -5969,13 +5969,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>0.6758574154455683</v>
+        <v>-0.7915454380657714</v>
       </c>
       <c r="C330" t="n">
-        <v>22.04494397663893</v>
+        <v>-1.542111514159615</v>
       </c>
       <c r="D330" t="n">
-        <v>52.59385946686048</v>
+        <v>28.04621081000121</v>
       </c>
       <c r="E330" t="n">
         <v>0</v>
@@ -5986,13 +5986,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>8.272067412830278</v>
+        <v>1.75881345143881</v>
       </c>
       <c r="C331" t="n">
-        <v>12.76726861825341</v>
+        <v>0.8813013682486144</v>
       </c>
       <c r="D331" t="n">
-        <v>24.13882823066595</v>
+        <v>92.67000719540579</v>
       </c>
       <c r="E331" t="n">
         <v>0</v>
@@ -6003,13 +6003,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>0.2346333799363958</v>
+        <v>-4.749116986210082</v>
       </c>
       <c r="C332" t="n">
-        <v>4.101093488513243</v>
+        <v>0.1861018915865316</v>
       </c>
       <c r="D332" t="n">
-        <v>26.63916098256697</v>
+        <v>9.974629657123192</v>
       </c>
       <c r="E332" t="n">
         <v>0</v>
@@ -6020,13 +6020,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>9.424618183195903</v>
+        <v>4.429827881270207</v>
       </c>
       <c r="C333" t="n">
-        <v>20.42733733216005</v>
+        <v>0.7389226926090942</v>
       </c>
       <c r="D333" t="n">
-        <v>79.7455400533093</v>
+        <v>74.8737194903415</v>
       </c>
       <c r="E333" t="n">
         <v>0</v>
@@ -6037,13 +6037,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>3.965854408096785</v>
+        <v>0.670635526955472</v>
       </c>
       <c r="C334" t="n">
-        <v>-3.185417378136435</v>
+        <v>0.1877533933316045</v>
       </c>
       <c r="D334" t="n">
-        <v>33.34374577941018</v>
+        <v>68.83233992934035</v>
       </c>
       <c r="E334" t="n">
         <v>0</v>
@@ -6054,13 +6054,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>-4.885937035575543</v>
+        <v>4.091266359335666</v>
       </c>
       <c r="C335" t="n">
-        <v>3.815046335648731</v>
+        <v>-0.9438825704835381</v>
       </c>
       <c r="D335" t="n">
-        <v>22.3666478809698</v>
+        <v>30.91554608581547</v>
       </c>
       <c r="E335" t="n">
         <v>0</v>
@@ -6071,13 +6071,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>-6.588647088718636</v>
+        <v>-1.294335393872632</v>
       </c>
       <c r="C336" t="n">
-        <v>7.762246938236785</v>
+        <v>0.5789308562461883</v>
       </c>
       <c r="D336" t="n">
-        <v>39.81644419883035</v>
+        <v>13.46797908272447</v>
       </c>
       <c r="E336" t="n">
         <v>0</v>
@@ -6088,13 +6088,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>-4.172724139201098</v>
+        <v>-3.231777630339815</v>
       </c>
       <c r="C337" t="n">
-        <v>12.09620830776703</v>
+        <v>2.458157703084453</v>
       </c>
       <c r="D337" t="n">
-        <v>80.57544016366556</v>
+        <v>83.75371579677703</v>
       </c>
       <c r="E337" t="n">
         <v>0</v>
@@ -6105,13 +6105,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>-8.386474165875768</v>
+        <v>-3.818578912826109</v>
       </c>
       <c r="C338" t="n">
-        <v>-23.54703371458231</v>
+        <v>-0.5475487949934177</v>
       </c>
       <c r="D338" t="n">
-        <v>80.90151209008927</v>
+        <v>94.88834969894354</v>
       </c>
       <c r="E338" t="n">
         <v>0</v>
@@ -6122,13 +6122,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>7.574152896243877</v>
+        <v>-3.535650782549621</v>
       </c>
       <c r="C339" t="n">
-        <v>-11.78350557008071</v>
+        <v>1.382370701847776</v>
       </c>
       <c r="D339" t="n">
-        <v>67.7752658531051</v>
+        <v>64.73085138769228</v>
       </c>
       <c r="E339" t="n">
         <v>0</v>
@@ -6139,13 +6139,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>1.618560195637729</v>
+        <v>1.796588536216131</v>
       </c>
       <c r="C340" t="n">
-        <v>-16.12771176256979</v>
+        <v>2.013732074712152</v>
       </c>
       <c r="D340" t="n">
-        <v>30.47150129826402</v>
+        <v>77.23561225819589</v>
       </c>
       <c r="E340" t="n">
         <v>0</v>
@@ -6156,13 +6156,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>9.728449711068812</v>
+        <v>0.02314584981315626</v>
       </c>
       <c r="C341" t="n">
-        <v>14.83079126080816</v>
+        <v>1.368694995691385</v>
       </c>
       <c r="D341" t="n">
-        <v>46.15868234489007</v>
+        <v>52.61241267909511</v>
       </c>
       <c r="E341" t="n">
         <v>0</v>
@@ -6173,13 +6173,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>-5.843709386146239</v>
+        <v>-3.938914275940244</v>
       </c>
       <c r="C342" t="n">
-        <v>1.525390094843033</v>
+        <v>-0.2093367280947405</v>
       </c>
       <c r="D342" t="n">
-        <v>0.4351311885376519</v>
+        <v>62.87674119442993</v>
       </c>
       <c r="E342" t="n">
         <v>0</v>
@@ -6190,13 +6190,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>4.091427859128821</v>
+        <v>-4.87182065688815</v>
       </c>
       <c r="C343" t="n">
-        <v>-8.016590318142107</v>
+        <v>1.160378562896994</v>
       </c>
       <c r="D343" t="n">
-        <v>70.42901697378433</v>
+        <v>91.2468461029675</v>
       </c>
       <c r="E343" t="n">
         <v>0</v>
@@ -6207,13 +6207,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>2.606852350012286</v>
+        <v>-3.223687858300553</v>
       </c>
       <c r="C344" t="n">
-        <v>-5.711807847081218</v>
+        <v>-0.9972464769862199</v>
       </c>
       <c r="D344" t="n">
-        <v>26.4668310433283</v>
+        <v>31.89404389374602</v>
       </c>
       <c r="E344" t="n">
         <v>0</v>
@@ -6224,13 +6224,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>-9.255936518323512</v>
+        <v>2.983318356281087</v>
       </c>
       <c r="C345" t="n">
-        <v>9.023209155095174</v>
+        <v>-1.569515415787919</v>
       </c>
       <c r="D345" t="n">
-        <v>18.73560336032279</v>
+        <v>24.69426419131013</v>
       </c>
       <c r="E345" t="n">
         <v>0</v>
@@ -6241,13 +6241,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>-7.803284764571703</v>
+        <v>-3.493689693289129</v>
       </c>
       <c r="C346" t="n">
-        <v>8.343993622048629</v>
+        <v>-0.4219445366688888</v>
       </c>
       <c r="D346" t="n">
-        <v>93.37177575316201</v>
+        <v>57.16859672084011</v>
       </c>
       <c r="E346" t="n">
         <v>0</v>
@@ -6258,13 +6258,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>2.513676265802898</v>
+        <v>-2.629354151480379</v>
       </c>
       <c r="C347" t="n">
-        <v>-8.962957406620035</v>
+        <v>1.146007696067272</v>
       </c>
       <c r="D347" t="n">
-        <v>44.76480855445581</v>
+        <v>83.21779280053735</v>
       </c>
       <c r="E347" t="n">
         <v>0</v>
@@ -6275,13 +6275,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>-9.860189203237352</v>
+        <v>2.045011353672599</v>
       </c>
       <c r="C348" t="n">
-        <v>23.70545121424402</v>
+        <v>-0.8442908550516677</v>
       </c>
       <c r="D348" t="n">
-        <v>93.46322703978464</v>
+        <v>5.780491656344278</v>
       </c>
       <c r="E348" t="n">
         <v>0</v>
@@ -6292,13 +6292,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>-5.434738595349444</v>
+        <v>2.267489094012252</v>
       </c>
       <c r="C349" t="n">
-        <v>36.44522192510976</v>
+        <v>-0.2060290579804587</v>
       </c>
       <c r="D349" t="n">
-        <v>13.03807231134538</v>
+        <v>58.85823486912602</v>
       </c>
       <c r="E349" t="n">
         <v>0</v>
@@ -6309,13 +6309,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>5.010516114724144</v>
+        <v>4.233372890515593</v>
       </c>
       <c r="C350" t="n">
-        <v>7.234945909079443</v>
+        <v>0.04333852456784371</v>
       </c>
       <c r="D350" t="n">
-        <v>26.3920218427161</v>
+        <v>84.17210011393044</v>
       </c>
       <c r="E350" t="n">
         <v>0</v>
@@ -6326,13 +6326,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>0.4686444499831861</v>
+        <v>3.692132375736685</v>
       </c>
       <c r="C351" t="n">
-        <v>-17.01838897700827</v>
+        <v>0.3897752407137887</v>
       </c>
       <c r="D351" t="n">
-        <v>76.95557965730522</v>
+        <v>1.776117000976052</v>
       </c>
       <c r="E351" t="n">
         <v>0</v>
@@ -6343,13 +6343,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>-2.707493973110524</v>
+        <v>-4.911302940266483</v>
       </c>
       <c r="C352" t="n">
-        <v>-11.71380754293682</v>
+        <v>2.060965851494757</v>
       </c>
       <c r="D352" t="n">
-        <v>69.6252251347137</v>
+        <v>42.78310909113535</v>
       </c>
       <c r="E352" t="n">
         <v>0</v>
@@ -6360,13 +6360,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>6.270455857810347</v>
+        <v>-4.403435401542515</v>
       </c>
       <c r="C353" t="n">
-        <v>-9.661109498047381</v>
+        <v>-1.598124201383598</v>
       </c>
       <c r="D353" t="n">
-        <v>28.11182512403255</v>
+        <v>27.23030562305844</v>
       </c>
       <c r="E353" t="n">
         <v>0</v>
@@ -6377,13 +6377,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>-6.521450156822652</v>
+        <v>0.2057084851280413</v>
       </c>
       <c r="C354" t="n">
-        <v>-8.634839277038964</v>
+        <v>-0.3359694529031003</v>
       </c>
       <c r="D354" t="n">
-        <v>6.739398135070451</v>
+        <v>79.24289165234836</v>
       </c>
       <c r="E354" t="n">
         <v>0</v>
@@ -6394,13 +6394,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.2273157710436955</v>
+        <v>1.320772547390378</v>
       </c>
       <c r="C355" t="n">
-        <v>-19.52507923078747</v>
+        <v>1.427670344765147</v>
       </c>
       <c r="D355" t="n">
-        <v>12.70215115857672</v>
+        <v>77.79962429598991</v>
       </c>
       <c r="E355" t="n">
         <v>0</v>
@@ -6411,13 +6411,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>0.2323600625784277</v>
+        <v>-3.769756471848071</v>
       </c>
       <c r="C356" t="n">
-        <v>11.37121518856247</v>
+        <v>2.632519908112045</v>
       </c>
       <c r="D356" t="n">
-        <v>22.16554617117895</v>
+        <v>60.44388267560549</v>
       </c>
       <c r="E356" t="n">
         <v>0</v>
@@ -6428,13 +6428,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>6.7615626425311</v>
+        <v>-2.967630467455403</v>
       </c>
       <c r="C357" t="n">
-        <v>9.133735644813441</v>
+        <v>-0.5041452279845089</v>
       </c>
       <c r="D357" t="n">
-        <v>27.19844935118923</v>
+        <v>30.63746127140574</v>
       </c>
       <c r="E357" t="n">
         <v>0</v>
@@ -6445,13 +6445,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>6.915036176547183</v>
+        <v>0.684604695611668</v>
       </c>
       <c r="C358" t="n">
-        <v>-6.020673769165796</v>
+        <v>0.4582458363615842</v>
       </c>
       <c r="D358" t="n">
-        <v>88.09246863526167</v>
+        <v>44.79816055223073</v>
       </c>
       <c r="E358" t="n">
         <v>0</v>
@@ -6462,13 +6462,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>8.902999568614621</v>
+        <v>3.271080295798924</v>
       </c>
       <c r="C359" t="n">
-        <v>16.80311512419576</v>
+        <v>-0.6680613535340854</v>
       </c>
       <c r="D359" t="n">
-        <v>5.674442204031783</v>
+        <v>55.29007290801695</v>
       </c>
       <c r="E359" t="n">
         <v>0</v>
@@ -6479,13 +6479,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>-5.2187611630586</v>
+        <v>3.557110526468168</v>
       </c>
       <c r="C360" t="n">
-        <v>1.653829619323915</v>
+        <v>1.888301034486403</v>
       </c>
       <c r="D360" t="n">
-        <v>78.2602464630901</v>
+        <v>51.62541396818218</v>
       </c>
       <c r="E360" t="n">
         <v>0</v>
@@ -6496,13 +6496,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>-8.102230229340986</v>
+        <v>-2.656585019013961</v>
       </c>
       <c r="C361" t="n">
-        <v>5.627194771552013</v>
+        <v>2.829073497759737</v>
       </c>
       <c r="D361" t="n">
-        <v>9.301017399393785</v>
+        <v>45.63719503516632</v>
       </c>
       <c r="E361" t="n">
         <v>0</v>
@@ -6513,13 +6513,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>3.663719471884107</v>
+        <v>4.888334950016993</v>
       </c>
       <c r="C362" t="n">
-        <v>-12.33330987012027</v>
+        <v>0.1353256439974757</v>
       </c>
       <c r="D362" t="n">
-        <v>53.80413558186861</v>
+        <v>46.14198140361739</v>
       </c>
       <c r="E362" t="n">
         <v>0</v>
@@ -6530,13 +6530,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>7.669693822779774</v>
+        <v>3.332278663274828</v>
       </c>
       <c r="C363" t="n">
-        <v>23.94702248332669</v>
+        <v>-1.973273601681058</v>
       </c>
       <c r="D363" t="n">
-        <v>16.6756241250789</v>
+        <v>18.33702671327068</v>
       </c>
       <c r="E363" t="n">
         <v>0</v>
@@ -6547,13 +6547,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>-6.235996043417233</v>
+        <v>-1.120468122278777</v>
       </c>
       <c r="C364" t="n">
-        <v>4.78337856887606</v>
+        <v>-0.6764047811261662</v>
       </c>
       <c r="D364" t="n">
-        <v>71.39813866255417</v>
+        <v>19.21144470836138</v>
       </c>
       <c r="E364" t="n">
         <v>0</v>
@@ -6564,13 +6564,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>0.5520309403263184</v>
+        <v>-2.764728782072776</v>
       </c>
       <c r="C365" t="n">
-        <v>2.84792401763184</v>
+        <v>0.8782783414596906</v>
       </c>
       <c r="D365" t="n">
-        <v>57.51725602169117</v>
+        <v>80.16882060878071</v>
       </c>
       <c r="E365" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>6.58880167303635</v>
+        <v>-2.142902084878259</v>
       </c>
       <c r="C366" t="n">
-        <v>-11.93909756316884</v>
+        <v>-1.441231730340633</v>
       </c>
       <c r="D366" t="n">
-        <v>14.8278760318073</v>
+        <v>71.75945332059516</v>
       </c>
       <c r="E366" t="n">
         <v>0</v>
@@ -6598,13 +6598,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>1.519585441786557</v>
+        <v>-1.673499508918115</v>
       </c>
       <c r="C367" t="n">
-        <v>0.3412785869682011</v>
+        <v>-1.865947309454668</v>
       </c>
       <c r="D367" t="n">
-        <v>18.10796037485909</v>
+        <v>5.629247338326304</v>
       </c>
       <c r="E367" t="n">
         <v>0</v>
@@ -6615,13 +6615,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>-2.755604409494527</v>
+        <v>3.239158771146597</v>
       </c>
       <c r="C368" t="n">
-        <v>29.71709263403022</v>
+        <v>0.3508849190372985</v>
       </c>
       <c r="D368" t="n">
-        <v>25.02007919420445</v>
+        <v>11.94864798391245</v>
       </c>
       <c r="E368" t="n">
         <v>0</v>
@@ -6632,13 +6632,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>8.736385564936334</v>
+        <v>-1.205917761360378</v>
       </c>
       <c r="C369" t="n">
-        <v>-6.014590925586162</v>
+        <v>0.9164419573342002</v>
       </c>
       <c r="D369" t="n">
-        <v>63.39071541461176</v>
+        <v>35.56209663409917</v>
       </c>
       <c r="E369" t="n">
         <v>0</v>
@@ -6649,13 +6649,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>7.857944212134374</v>
+        <v>-4.970182134815603</v>
       </c>
       <c r="C370" t="n">
-        <v>-8.424166718768447</v>
+        <v>-1.319610857746738</v>
       </c>
       <c r="D370" t="n">
-        <v>92.45295769878071</v>
+        <v>57.01922906587911</v>
       </c>
       <c r="E370" t="n">
         <v>0</v>
@@ -6666,13 +6666,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>-2.728992738660456</v>
+        <v>3.761064033736151</v>
       </c>
       <c r="C371" t="n">
-        <v>13.22839530384772</v>
+        <v>-2.282566936058174</v>
       </c>
       <c r="D371" t="n">
-        <v>47.93030163960707</v>
+        <v>75.40938856391605</v>
       </c>
       <c r="E371" t="n">
         <v>0</v>
@@ -6683,13 +6683,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>1.125819209970441</v>
+        <v>4.091508987295326</v>
       </c>
       <c r="C372" t="n">
-        <v>2.11825130913985</v>
+        <v>-0.6179256591838111</v>
       </c>
       <c r="D372" t="n">
-        <v>10.90725125160776</v>
+        <v>78.53441936166908</v>
       </c>
       <c r="E372" t="n">
         <v>0</v>
@@ -6700,13 +6700,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.9828571135171416</v>
+        <v>2.772412636416163</v>
       </c>
       <c r="C373" t="n">
-        <v>-15.39260630231638</v>
+        <v>-0.08283711402305016</v>
       </c>
       <c r="D373" t="n">
-        <v>14.62202679985196</v>
+        <v>26.2967707400187</v>
       </c>
       <c r="E373" t="n">
         <v>0</v>
@@ -6717,13 +6717,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>2.730346029976952</v>
+        <v>2.055528640930513</v>
       </c>
       <c r="C374" t="n">
-        <v>-10.48809766860745</v>
+        <v>-0.2411194230282945</v>
       </c>
       <c r="D374" t="n">
-        <v>43.08222727221263</v>
+        <v>71.22475615155166</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -6734,13 +6734,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>8.891857510818475</v>
+        <v>-1.120531586536858</v>
       </c>
       <c r="C375" t="n">
-        <v>8.774742332263486</v>
+        <v>-1.937719703219955</v>
       </c>
       <c r="D375" t="n">
-        <v>60.05945774640455</v>
+        <v>62.45001987265284</v>
       </c>
       <c r="E375" t="n">
         <v>0</v>
@@ -6751,13 +6751,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>7.032108465023978</v>
+        <v>4.416464607611344</v>
       </c>
       <c r="C376" t="n">
-        <v>25.00084520734094</v>
+        <v>0.9257102764659066</v>
       </c>
       <c r="D376" t="n">
-        <v>81.17866875556963</v>
+        <v>42.31035101625512</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
@@ -6768,13 +6768,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>0.3305064121740298</v>
+        <v>-2.444993327143799</v>
       </c>
       <c r="C377" t="n">
-        <v>-30.73523459916282</v>
+        <v>1.930493154661917</v>
       </c>
       <c r="D377" t="n">
-        <v>63.49816505318595</v>
+        <v>19.52634274750956</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -6785,13 +6785,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>-9.084406430872169</v>
+        <v>4.248162693601181</v>
       </c>
       <c r="C378" t="n">
-        <v>19.76845337675172</v>
+        <v>-2.461465382078131</v>
       </c>
       <c r="D378" t="n">
-        <v>74.61305541581321</v>
+        <v>31.11045984713638</v>
       </c>
       <c r="E378" t="n">
         <v>0</v>
@@ -6802,13 +6802,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>4.252224524979875</v>
+        <v>3.68277836024413</v>
       </c>
       <c r="C379" t="n">
-        <v>-11.23956293414017</v>
+        <v>-0.07128438010772697</v>
       </c>
       <c r="D379" t="n">
-        <v>19.2263197896823</v>
+        <v>1.141243825404259</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -6819,13 +6819,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>-3.13675998220758</v>
+        <v>-2.625840957195811</v>
       </c>
       <c r="C380" t="n">
-        <v>7.368385118625611</v>
+        <v>0.6881459206647378</v>
       </c>
       <c r="D380" t="n">
-        <v>90.59870453323927</v>
+        <v>90.8640609928421</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -6836,13 +6836,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>-7.902403964503404</v>
+        <v>-3.643103394369094</v>
       </c>
       <c r="C381" t="n">
-        <v>7.373815693472807</v>
+        <v>0.09253303607943053</v>
       </c>
       <c r="D381" t="n">
-        <v>64.52172674227424</v>
+        <v>41.42276247532251</v>
       </c>
       <c r="E381" t="n">
         <v>0</v>
@@ -6853,13 +6853,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>-5.00156161168837</v>
+        <v>1.902842578688783</v>
       </c>
       <c r="C382" t="n">
-        <v>-12.62700192597435</v>
+        <v>-0.08600609447671559</v>
       </c>
       <c r="D382" t="n">
-        <v>11.04649932127622</v>
+        <v>89.02561345865558</v>
       </c>
       <c r="E382" t="n">
         <v>0</v>
@@ -6870,13 +6870,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>-4.461621797267837</v>
+        <v>0.2336608505947302</v>
       </c>
       <c r="C383" t="n">
-        <v>-0.9113202735375125</v>
+        <v>2.064401921483523</v>
       </c>
       <c r="D383" t="n">
-        <v>63.86800003720457</v>
+        <v>49.09736648175497</v>
       </c>
       <c r="E383" t="n">
         <v>0</v>
@@ -6887,13 +6887,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>-6.042785719145098</v>
+        <v>-3.609069247557577</v>
       </c>
       <c r="C384" t="n">
-        <v>3.396897820108734</v>
+        <v>-2.167239255687491</v>
       </c>
       <c r="D384" t="n">
-        <v>79.38411726090717</v>
+        <v>64.30102891690794</v>
       </c>
       <c r="E384" t="n">
         <v>0</v>
@@ -6904,13 +6904,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>-4.141565722821881</v>
+        <v>2.319313405212911</v>
       </c>
       <c r="C385" t="n">
-        <v>-2.593349218415824</v>
+        <v>1.85766914922101</v>
       </c>
       <c r="D385" t="n">
-        <v>42.11467290427463</v>
+        <v>54.93575816583734</v>
       </c>
       <c r="E385" t="n">
         <v>0</v>
@@ -6921,13 +6921,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>8.764051502358651</v>
+        <v>4.449167045482714</v>
       </c>
       <c r="C386" t="n">
-        <v>20.52204954358581</v>
+        <v>-1.043695456305159</v>
       </c>
       <c r="D386" t="n">
-        <v>45.13201777446033</v>
+        <v>39.02959806611499</v>
       </c>
       <c r="E386" t="n">
         <v>0</v>
@@ -6938,13 +6938,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>-5.041019708102789</v>
+        <v>-1.936063249103714</v>
       </c>
       <c r="C387" t="n">
-        <v>11.24575018652195</v>
+        <v>1.585984472210384</v>
       </c>
       <c r="D387" t="n">
-        <v>33.49332376320196</v>
+        <v>94.97560296568565</v>
       </c>
       <c r="E387" t="n">
         <v>0</v>
@@ -6955,13 +6955,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>-8.954734414839676</v>
+        <v>-2.867134360201649</v>
       </c>
       <c r="C388" t="n">
-        <v>7.568766795534884</v>
+        <v>1.146940070271512</v>
       </c>
       <c r="D388" t="n">
-        <v>90.67153374508064</v>
+        <v>88.41828585880891</v>
       </c>
       <c r="E388" t="n">
         <v>0</v>
@@ -6972,13 +6972,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>8.12578978347117</v>
+        <v>1.870699280868521</v>
       </c>
       <c r="C389" t="n">
-        <v>14.83490678846215</v>
+        <v>1.369898783706958</v>
       </c>
       <c r="D389" t="n">
-        <v>84.3280960013123</v>
+        <v>29.52539771982937</v>
       </c>
       <c r="E389" t="n">
         <v>0</v>
@@ -6989,13 +6989,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>-9.438598230146047</v>
+        <v>2.545163762523469</v>
       </c>
       <c r="C390" t="n">
-        <v>0.380799704824085</v>
+        <v>-3.84474056872773</v>
       </c>
       <c r="D390" t="n">
-        <v>60.0885352282846</v>
+        <v>9.256006072541078</v>
       </c>
       <c r="E390" t="n">
         <v>0</v>
@@ -7006,13 +7006,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>-6.842727084859139</v>
+        <v>2.574374351611127</v>
       </c>
       <c r="C391" t="n">
-        <v>7.444085951300622</v>
+        <v>-0.9710968153667636</v>
       </c>
       <c r="D391" t="n">
-        <v>28.54231424344247</v>
+        <v>14.63185282505709</v>
       </c>
       <c r="E391" t="n">
         <v>0</v>
@@ -7023,13 +7023,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>8.786776871840626</v>
+        <v>4.62994730289194</v>
       </c>
       <c r="C392" t="n">
-        <v>-3.392956281908482</v>
+        <v>-0.5960174315689528</v>
       </c>
       <c r="D392" t="n">
-        <v>13.94745109580116</v>
+        <v>93.70156046775936</v>
       </c>
       <c r="E392" t="n">
         <v>0</v>
@@ -7040,13 +7040,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>0.002704814968936375</v>
+        <v>0.9940079598683003</v>
       </c>
       <c r="C393" t="n">
-        <v>-0.07438732207265275</v>
+        <v>1.212436112200521</v>
       </c>
       <c r="D393" t="n">
-        <v>2.575563092726196</v>
+        <v>94.36846576919895</v>
       </c>
       <c r="E393" t="n">
         <v>0</v>
@@ -7057,13 +7057,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>-1.699621607330776</v>
+        <v>2.382463520683268</v>
       </c>
       <c r="C394" t="n">
-        <v>-26.8502569847783</v>
+        <v>-2.870613435708947</v>
       </c>
       <c r="D394" t="n">
-        <v>93.86503121835682</v>
+        <v>25.92625770391178</v>
       </c>
       <c r="E394" t="n">
         <v>0</v>
@@ -7074,13 +7074,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>9.35349263311242</v>
+        <v>-0.3236881552847386</v>
       </c>
       <c r="C395" t="n">
-        <v>4.796928289810694</v>
+        <v>-0.4666810552901097</v>
       </c>
       <c r="D395" t="n">
-        <v>46.00683953779434</v>
+        <v>84.30205623867049</v>
       </c>
       <c r="E395" t="n">
         <v>0</v>
@@ -7091,13 +7091,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>-5.645823340362764</v>
+        <v>2.33283226008774</v>
       </c>
       <c r="C396" t="n">
-        <v>-1.476718635808083</v>
+        <v>-0.4492093956025656</v>
       </c>
       <c r="D396" t="n">
-        <v>43.64519666377397</v>
+        <v>77.37821799723208</v>
       </c>
       <c r="E396" t="n">
         <v>0</v>
@@ -7108,13 +7108,13 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>-9.540547773670845</v>
+        <v>1.824308665704272</v>
       </c>
       <c r="C397" t="n">
-        <v>7.934753416867352</v>
+        <v>-0.2696903911073605</v>
       </c>
       <c r="D397" t="n">
-        <v>32.3708626641307</v>
+        <v>91.05058465206579</v>
       </c>
       <c r="E397" t="n">
         <v>0</v>
@@ -7125,13 +7125,13 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>1.243889583853022</v>
+        <v>-0.9433006841124865</v>
       </c>
       <c r="C398" t="n">
-        <v>19.44152970827622</v>
+        <v>-0.07891588497159319</v>
       </c>
       <c r="D398" t="n">
-        <v>66.82717904767173</v>
+        <v>15.00906923402223</v>
       </c>
       <c r="E398" t="n">
         <v>0</v>
@@ -7142,13 +7142,13 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>4.815958483370888</v>
+        <v>-3.532840520474801</v>
       </c>
       <c r="C399" t="n">
-        <v>0.7521605534468563</v>
+        <v>-0.4117263798534623</v>
       </c>
       <c r="D399" t="n">
-        <v>3.788371707461358</v>
+        <v>80.60549797774146</v>
       </c>
       <c r="E399" t="n">
         <v>0</v>
@@ -7159,13 +7159,13 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>-1.239124263949041</v>
+        <v>4.416533718549802</v>
       </c>
       <c r="C400" t="n">
-        <v>-6.68526852268019</v>
+        <v>0.291475813586203</v>
       </c>
       <c r="D400" t="n">
-        <v>34.61188315135158</v>
+        <v>17.20987269052205</v>
       </c>
       <c r="E400" t="n">
         <v>0</v>
@@ -7176,13 +7176,13 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>-1.08466604832601</v>
+        <v>0.0249122285869543</v>
       </c>
       <c r="C401" t="n">
-        <v>-1.103108282299672</v>
+        <v>-0.8208873110131663</v>
       </c>
       <c r="D401" t="n">
-        <v>31.40818097798462</v>
+        <v>79.69995762663856</v>
       </c>
       <c r="E401" t="n">
         <v>0</v>
@@ -7193,13 +7193,13 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>-2.832189933029268</v>
+        <v>4.926578387331839</v>
       </c>
       <c r="C402" t="n">
-        <v>1.988372905851065</v>
+        <v>1.44553131235466</v>
       </c>
       <c r="D402" t="n">
-        <v>92.84717168218579</v>
+        <v>56.82753043406692</v>
       </c>
       <c r="E402" t="n">
         <v>0</v>
@@ -7210,13 +7210,13 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>-9.646392700785164</v>
+        <v>0.6778085467281318</v>
       </c>
       <c r="C403" t="n">
-        <v>-20.98063530879472</v>
+        <v>1.606548145909983</v>
       </c>
       <c r="D403" t="n">
-        <v>18.29755312448055</v>
+        <v>70.16156279379047</v>
       </c>
       <c r="E403" t="n">
         <v>0</v>
@@ -7227,13 +7227,13 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>2.832797899162511</v>
+        <v>-4.307818739035008</v>
       </c>
       <c r="C404" t="n">
-        <v>27.54262649443876</v>
+        <v>0.2726106145084941</v>
       </c>
       <c r="D404" t="n">
-        <v>43.41614499816625</v>
+        <v>88.85609135043183</v>
       </c>
       <c r="E404" t="n">
         <v>0</v>
@@ -7244,13 +7244,13 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>-1.195342507860676</v>
+        <v>3.789028724753255</v>
       </c>
       <c r="C405" t="n">
-        <v>2.949221054972213</v>
+        <v>-1.470213562122126</v>
       </c>
       <c r="D405" t="n">
-        <v>11.29545786959142</v>
+        <v>89.21158216310384</v>
       </c>
       <c r="E405" t="n">
         <v>0</v>
@@ -7261,13 +7261,13 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>-4.985459426111771</v>
+        <v>0.7982590183245266</v>
       </c>
       <c r="C406" t="n">
-        <v>-6.72605429518876</v>
+        <v>-3.081135957341303</v>
       </c>
       <c r="D406" t="n">
-        <v>28.33824096728259</v>
+        <v>68.95306018602506</v>
       </c>
       <c r="E406" t="n">
         <v>0</v>
@@ -7278,13 +7278,13 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>-1.395996651728211</v>
+        <v>2.827085898559986</v>
       </c>
       <c r="C407" t="n">
-        <v>-11.82195791068125</v>
+        <v>0.9475650390970713</v>
       </c>
       <c r="D407" t="n">
-        <v>11.47698082524238</v>
+        <v>71.66515002088641</v>
       </c>
       <c r="E407" t="n">
         <v>0</v>
@@ -7295,13 +7295,13 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>0.07155391843895131</v>
+        <v>4.830414705126541</v>
       </c>
       <c r="C408" t="n">
-        <v>23.87367831849815</v>
+        <v>-2.629336036296991</v>
       </c>
       <c r="D408" t="n">
-        <v>13.67156368391111</v>
+        <v>88.31948105742312</v>
       </c>
       <c r="E408" t="n">
         <v>0</v>
@@ -7312,13 +7312,13 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>-1.206673418922712</v>
+        <v>3.226239954527719</v>
       </c>
       <c r="C409" t="n">
-        <v>-6.546751526146863</v>
+        <v>-0.6300254984737421</v>
       </c>
       <c r="D409" t="n">
-        <v>34.0931426802884</v>
+        <v>95.12611027872391</v>
       </c>
       <c r="E409" t="n">
         <v>0</v>
@@ -7329,13 +7329,13 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>8.018031849517072</v>
+        <v>0.4776199860482251</v>
       </c>
       <c r="C410" t="n">
-        <v>6.231323134239119</v>
+        <v>1.669562757109816</v>
       </c>
       <c r="D410" t="n">
-        <v>86.99371755760416</v>
+        <v>40.85841702621793</v>
       </c>
       <c r="E410" t="n">
         <v>0</v>
@@ -7346,13 +7346,13 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>-3.631314284263514</v>
+        <v>-2.727126736526808</v>
       </c>
       <c r="C411" t="n">
-        <v>-2.390802518494638</v>
+        <v>-0.4580808727328076</v>
       </c>
       <c r="D411" t="n">
-        <v>58.87526663026807</v>
+        <v>63.93692958314106</v>
       </c>
       <c r="E411" t="n">
         <v>0</v>
@@ -7363,13 +7363,13 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>5.444295270006407</v>
+        <v>0.7565877282081148</v>
       </c>
       <c r="C412" t="n">
-        <v>-11.34917274674626</v>
+        <v>-2.144674380693687</v>
       </c>
       <c r="D412" t="n">
-        <v>38.79630749452436</v>
+        <v>25.72599389229397</v>
       </c>
       <c r="E412" t="n">
         <v>0</v>
@@ -7380,13 +7380,13 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>-5.640678705594475</v>
+        <v>0.9002241651636913</v>
       </c>
       <c r="C413" t="n">
-        <v>-12.36566579153555</v>
+        <v>-1.335265610831357</v>
       </c>
       <c r="D413" t="n">
-        <v>88.65933414835141</v>
+        <v>49.24577150370083</v>
       </c>
       <c r="E413" t="n">
         <v>0</v>
@@ -7397,13 +7397,13 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>9.253234255015411</v>
+        <v>-1.485535549046214</v>
       </c>
       <c r="C414" t="n">
-        <v>-4.339313843273885</v>
+        <v>0.5100155888549125</v>
       </c>
       <c r="D414" t="n">
-        <v>35.86113141815216</v>
+        <v>86.67744847253556</v>
       </c>
       <c r="E414" t="n">
         <v>0</v>
@@ -7414,13 +7414,13 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>-5.830515784604938</v>
+        <v>1.203285294428211</v>
       </c>
       <c r="C415" t="n">
-        <v>18.34832923948397</v>
+        <v>1.149024583147821</v>
       </c>
       <c r="D415" t="n">
-        <v>83.52337228726505</v>
+        <v>51.75024850445291</v>
       </c>
       <c r="E415" t="n">
         <v>0</v>
@@ -7431,13 +7431,13 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>9.281028465261745</v>
+        <v>-0.4586606069714971</v>
       </c>
       <c r="C416" t="n">
-        <v>13.57006160398805</v>
+        <v>-1.140321047098723</v>
       </c>
       <c r="D416" t="n">
-        <v>78.3030681931719</v>
+        <v>51.20812270132684</v>
       </c>
       <c r="E416" t="n">
         <v>0</v>
@@ -7448,13 +7448,13 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>8.7064812707073</v>
+        <v>3.839144932442517</v>
       </c>
       <c r="C417" t="n">
-        <v>-4.933140085157447</v>
+        <v>0.6612536825823554</v>
       </c>
       <c r="D417" t="n">
-        <v>97.10811476086857</v>
+        <v>18.86867754739636</v>
       </c>
       <c r="E417" t="n">
         <v>0</v>
@@ -7465,13 +7465,13 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>8.859141551904784</v>
+        <v>-2.243343232624694</v>
       </c>
       <c r="C418" t="n">
-        <v>-15.56460489722531</v>
+        <v>-3.113536161180718</v>
       </c>
       <c r="D418" t="n">
-        <v>90.32669418718964</v>
+        <v>42.19248954443372</v>
       </c>
       <c r="E418" t="n">
         <v>0</v>
@@ -7482,13 +7482,13 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>-6.976250767206857</v>
+        <v>-1.18503219034729</v>
       </c>
       <c r="C419" t="n">
-        <v>2.202530119802759</v>
+        <v>0.7402032537786454</v>
       </c>
       <c r="D419" t="n">
-        <v>11.90770967537124</v>
+        <v>31.80746069787542</v>
       </c>
       <c r="E419" t="n">
         <v>0</v>
@@ -7499,13 +7499,13 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>-6.319505117803481</v>
+        <v>-4.814541855413981</v>
       </c>
       <c r="C420" t="n">
-        <v>-11.39192332151924</v>
+        <v>0.3789142157190781</v>
       </c>
       <c r="D420" t="n">
-        <v>3.626410321163887</v>
+        <v>85.57924977756932</v>
       </c>
       <c r="E420" t="n">
         <v>0</v>
@@ -7516,13 +7516,13 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>-5.381605418578941</v>
+        <v>-1.428120613128293</v>
       </c>
       <c r="C421" t="n">
-        <v>0.6831010713356136</v>
+        <v>-1.359802868480529</v>
       </c>
       <c r="D421" t="n">
-        <v>22.39503006064729</v>
+        <v>56.47722847920787</v>
       </c>
       <c r="E421" t="n">
         <v>0</v>
@@ -7533,13 +7533,13 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>-5.297825321928493</v>
+        <v>4.235607972463399</v>
       </c>
       <c r="C422" t="n">
-        <v>4.89269579309007</v>
+        <v>-0.2381252606787712</v>
       </c>
       <c r="D422" t="n">
-        <v>34.52457545785176</v>
+        <v>40.97423296119368</v>
       </c>
       <c r="E422" t="n">
         <v>0</v>
@@ -7550,13 +7550,13 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>-3.940559936732506</v>
+        <v>-3.920515982618412</v>
       </c>
       <c r="C423" t="n">
-        <v>-1.704890485278383</v>
+        <v>-0.3614939434316966</v>
       </c>
       <c r="D423" t="n">
-        <v>63.61998449505539</v>
+        <v>81.88839028593777</v>
       </c>
       <c r="E423" t="n">
         <v>0</v>
@@ -7567,13 +7567,13 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>5.05276249947207</v>
+        <v>2.255141627196262</v>
       </c>
       <c r="C424" t="n">
-        <v>-1.690202020658262</v>
+        <v>-1.930189708143416</v>
       </c>
       <c r="D424" t="n">
-        <v>19.80905817500439</v>
+        <v>48.9916086009763</v>
       </c>
       <c r="E424" t="n">
         <v>0</v>
@@ -7584,13 +7584,13 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>8.151988230428973</v>
+        <v>-2.021512904644561</v>
       </c>
       <c r="C425" t="n">
-        <v>25.79985604923991</v>
+        <v>-1.9335150524048</v>
       </c>
       <c r="D425" t="n">
-        <v>47.98016951380563</v>
+        <v>22.77727685603268</v>
       </c>
       <c r="E425" t="n">
         <v>0</v>
@@ -7601,13 +7601,13 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>-2.109139271121292</v>
+        <v>0.4209694068128176</v>
       </c>
       <c r="C426" t="n">
-        <v>-5.446819017085318</v>
+        <v>0.5397307866994652</v>
       </c>
       <c r="D426" t="n">
-        <v>25.17250189507989</v>
+        <v>89.82891897716094</v>
       </c>
       <c r="E426" t="n">
         <v>0</v>
@@ -7618,13 +7618,13 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>-0.4647789482733202</v>
+        <v>-1.4994045614552</v>
       </c>
       <c r="C427" t="n">
-        <v>-14.3207191223978</v>
+        <v>-0.2167104932202619</v>
       </c>
       <c r="D427" t="n">
-        <v>98.58211176955869</v>
+        <v>79.5165633366822</v>
       </c>
       <c r="E427" t="n">
         <v>0</v>
@@ -7635,13 +7635,13 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>3.279008965411341</v>
+        <v>-0.3408923814313622</v>
       </c>
       <c r="C428" t="n">
-        <v>-9.378819595635832</v>
+        <v>2.841030310857832</v>
       </c>
       <c r="D428" t="n">
-        <v>69.67724320548375</v>
+        <v>8.703287638723323</v>
       </c>
       <c r="E428" t="n">
         <v>0</v>
@@ -7652,13 +7652,13 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>5.349951172526278</v>
+        <v>3.093715627236346</v>
       </c>
       <c r="C429" t="n">
-        <v>-6.167109523767067</v>
+        <v>-3.730095136394311</v>
       </c>
       <c r="D429" t="n">
-        <v>67.54449384305687</v>
+        <v>27.0721161909462</v>
       </c>
       <c r="E429" t="n">
         <v>0</v>
@@ -7669,13 +7669,13 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>9.730906662386772</v>
+        <v>2.362333964612664</v>
       </c>
       <c r="C430" t="n">
-        <v>11.46792159940401</v>
+        <v>2.46815302935579</v>
       </c>
       <c r="D430" t="n">
-        <v>64.57057002430888</v>
+        <v>4.894079957996434</v>
       </c>
       <c r="E430" t="n">
         <v>0</v>
@@ -7686,13 +7686,13 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>-7.570436314308699</v>
+        <v>-1.066756530378887</v>
       </c>
       <c r="C431" t="n">
-        <v>11.54192128179716</v>
+        <v>-1.193283994761259</v>
       </c>
       <c r="D431" t="n">
-        <v>89.09991233206152</v>
+        <v>63.05759630632092</v>
       </c>
       <c r="E431" t="n">
         <v>0</v>
@@ -7703,13 +7703,13 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>-3.539875409196194</v>
+        <v>-3.471836339500316</v>
       </c>
       <c r="C432" t="n">
-        <v>24.09337885597688</v>
+        <v>0.8383999337149817</v>
       </c>
       <c r="D432" t="n">
-        <v>20.08744139263765</v>
+        <v>77.82644334301109</v>
       </c>
       <c r="E432" t="n">
         <v>0</v>
@@ -7720,13 +7720,13 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>-6.047733170108083</v>
+        <v>-1.881186615014992</v>
       </c>
       <c r="C433" t="n">
-        <v>15.66091573971607</v>
+        <v>1.429009125118455</v>
       </c>
       <c r="D433" t="n">
-        <v>78.35393662772641</v>
+        <v>55.2054719841116</v>
       </c>
       <c r="E433" t="n">
         <v>0</v>
@@ -7737,13 +7737,13 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>7.229340218665335</v>
+        <v>-4.219805995295337</v>
       </c>
       <c r="C434" t="n">
-        <v>-18.11265552808595</v>
+        <v>-0.3005958895287222</v>
       </c>
       <c r="D434" t="n">
-        <v>24.76972269854635</v>
+        <v>31.69490721172468</v>
       </c>
       <c r="E434" t="n">
         <v>0</v>
@@ -7754,13 +7754,13 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>-6.905097968378553</v>
+        <v>2.981192949665265</v>
       </c>
       <c r="C435" t="n">
-        <v>14.22929605447894</v>
+        <v>-0.8918485477211107</v>
       </c>
       <c r="D435" t="n">
-        <v>76.72369483984237</v>
+        <v>59.18636597378858</v>
       </c>
       <c r="E435" t="n">
         <v>0</v>
@@ -7771,13 +7771,13 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>-4.269768341811202</v>
+        <v>-0.3341838558812436</v>
       </c>
       <c r="C436" t="n">
-        <v>12.54540264255138</v>
+        <v>-1.308545556290255</v>
       </c>
       <c r="D436" t="n">
-        <v>18.96417231360257</v>
+        <v>41.8505931649615</v>
       </c>
       <c r="E436" t="n">
         <v>0</v>
@@ -7788,13 +7788,13 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>0.2407129035821143</v>
+        <v>0.9008336447060579</v>
       </c>
       <c r="C437" t="n">
-        <v>-21.10359392831128</v>
+        <v>-0.7685935522140426</v>
       </c>
       <c r="D437" t="n">
-        <v>46.413975827786</v>
+        <v>56.95413098449276</v>
       </c>
       <c r="E437" t="n">
         <v>0</v>
@@ -7805,13 +7805,13 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>-4.427361548889293</v>
+        <v>-4.049887118037875</v>
       </c>
       <c r="C438" t="n">
-        <v>-14.20361230373351</v>
+        <v>0.3383250673070961</v>
       </c>
       <c r="D438" t="n">
-        <v>90.69474648273722</v>
+        <v>26.61865251318669</v>
       </c>
       <c r="E438" t="n">
         <v>0</v>
@@ -7822,13 +7822,13 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>6.526614147429818</v>
+        <v>3.923047313968869</v>
       </c>
       <c r="C439" t="n">
-        <v>-5.154009036978778</v>
+        <v>2.560133928435562</v>
       </c>
       <c r="D439" t="n">
-        <v>3.102020515917292</v>
+        <v>77.09599325829497</v>
       </c>
       <c r="E439" t="n">
         <v>0</v>
@@ -7839,13 +7839,13 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>9.072508190925785</v>
+        <v>-0.3564808770097763</v>
       </c>
       <c r="C440" t="n">
-        <v>20.15025603471986</v>
+        <v>0.6832598916575989</v>
       </c>
       <c r="D440" t="n">
-        <v>11.78134317675939</v>
+        <v>58.71571876560229</v>
       </c>
       <c r="E440" t="n">
         <v>0</v>
@@ -7856,13 +7856,13 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>8.350003875046117</v>
+        <v>-1.018829635218619</v>
       </c>
       <c r="C441" t="n">
-        <v>-1.812196602201084</v>
+        <v>0.2125371377960619</v>
       </c>
       <c r="D441" t="n">
-        <v>1.939123278419574</v>
+        <v>48.78334066545232</v>
       </c>
       <c r="E441" t="n">
         <v>0</v>
@@ -7873,13 +7873,13 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>-2.725285302647984</v>
+        <v>3.506123012248812</v>
       </c>
       <c r="C442" t="n">
-        <v>15.70790819910553</v>
+        <v>0.3332624924248648</v>
       </c>
       <c r="D442" t="n">
-        <v>97.88989569073878</v>
+        <v>30.68374571103031</v>
       </c>
       <c r="E442" t="n">
         <v>0</v>
@@ -7890,13 +7890,13 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>-3.719902161591227</v>
+        <v>4.132476287735205</v>
       </c>
       <c r="C443" t="n">
-        <v>17.35324168541774</v>
+        <v>1.386723747640417</v>
       </c>
       <c r="D443" t="n">
-        <v>30.0944740653274</v>
+        <v>54.15940576601446</v>
       </c>
       <c r="E443" t="n">
         <v>0</v>
@@ -7907,13 +7907,13 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>4.047417004001474</v>
+        <v>2.340192272109682</v>
       </c>
       <c r="C444" t="n">
-        <v>1.788764859732282</v>
+        <v>2.191242148412357</v>
       </c>
       <c r="D444" t="n">
-        <v>0.3474025783624879</v>
+        <v>87.60744957600964</v>
       </c>
       <c r="E444" t="n">
         <v>0</v>
@@ -7924,13 +7924,13 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>-0.7371388968287356</v>
+        <v>2.685064289579973</v>
       </c>
       <c r="C445" t="n">
-        <v>8.51081085883834</v>
+        <v>1.61377607164286</v>
       </c>
       <c r="D445" t="n">
-        <v>98.7911086228853</v>
+        <v>74.6050188371544</v>
       </c>
       <c r="E445" t="n">
         <v>0</v>
@@ -7941,13 +7941,13 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>9.596443770057622</v>
+        <v>-1.379596901551483</v>
       </c>
       <c r="C446" t="n">
-        <v>-21.46754667139794</v>
+        <v>-0.2226969625912716</v>
       </c>
       <c r="D446" t="n">
-        <v>50.24507561016273</v>
+        <v>28.64618771712419</v>
       </c>
       <c r="E446" t="n">
         <v>0</v>
@@ -7958,13 +7958,13 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>-2.360937577032436</v>
+        <v>1.33783072890965</v>
       </c>
       <c r="C447" t="n">
-        <v>27.39131155577843</v>
+        <v>2.996375898923134</v>
       </c>
       <c r="D447" t="n">
-        <v>39.27185147399166</v>
+        <v>79.25786031982165</v>
       </c>
       <c r="E447" t="n">
         <v>0</v>
@@ -7975,13 +7975,13 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>9.395036815995372</v>
+        <v>0.3748124866696934</v>
       </c>
       <c r="C448" t="n">
-        <v>17.58281396297184</v>
+        <v>1.716333760588213</v>
       </c>
       <c r="D448" t="n">
-        <v>47.38403560604561</v>
+        <v>1.635339526121515</v>
       </c>
       <c r="E448" t="n">
         <v>0</v>
@@ -7992,13 +7992,13 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>-4.705797499209488</v>
+        <v>2.705573428608076</v>
       </c>
       <c r="C449" t="n">
-        <v>-6.925969085549013</v>
+        <v>-0.579731659198842</v>
       </c>
       <c r="D449" t="n">
-        <v>53.60793868914633</v>
+        <v>81.67175291184287</v>
       </c>
       <c r="E449" t="n">
         <v>0</v>
@@ -8009,13 +8009,13 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>7.548377122288549</v>
+        <v>4.312470761168981</v>
       </c>
       <c r="C450" t="n">
-        <v>2.036460166281586</v>
+        <v>1.471162206553117</v>
       </c>
       <c r="D450" t="n">
-        <v>2.074839147667218</v>
+        <v>3.011730541272983</v>
       </c>
       <c r="E450" t="n">
         <v>0</v>
@@ -8026,13 +8026,13 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>0.09980346687165564</v>
+        <v>-4.526057362597838</v>
       </c>
       <c r="C451" t="n">
-        <v>-3.411603063126449</v>
+        <v>-1.681877310479649</v>
       </c>
       <c r="D451" t="n">
-        <v>82.2723233294233</v>
+        <v>68.09458326386853</v>
       </c>
       <c r="E451" t="n">
         <v>0</v>
@@ -8043,13 +8043,13 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>-2.360608815777367</v>
+        <v>-0.9700113732357263</v>
       </c>
       <c r="C452" t="n">
-        <v>15.4567209513084</v>
+        <v>-1.406729381619243</v>
       </c>
       <c r="D452" t="n">
-        <v>26.17982374570533</v>
+        <v>28.30780864277796</v>
       </c>
       <c r="E452" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>8.535211325398532</v>
+        <v>3.915433066672415</v>
       </c>
       <c r="C453" t="n">
-        <v>-6.803739578649811</v>
+        <v>-0.7504244969222782</v>
       </c>
       <c r="D453" t="n">
-        <v>33.87226935418665</v>
+        <v>90.68690144575898</v>
       </c>
       <c r="E453" t="n">
         <v>0</v>
@@ -8077,13 +8077,13 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>2.812928306518234</v>
+        <v>-0.7862465910292036</v>
       </c>
       <c r="C454" t="n">
-        <v>2.211472750555686</v>
+        <v>-1.926632237686135</v>
       </c>
       <c r="D454" t="n">
-        <v>55.65633552016354</v>
+        <v>60.63013439617818</v>
       </c>
       <c r="E454" t="n">
         <v>0</v>
@@ -8094,13 +8094,13 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>-9.248524333048731</v>
+        <v>2.908982265575167</v>
       </c>
       <c r="C455" t="n">
-        <v>-15.09637043789644</v>
+        <v>-1.854835890728964</v>
       </c>
       <c r="D455" t="n">
-        <v>29.68714320811731</v>
+        <v>17.76406179963953</v>
       </c>
       <c r="E455" t="n">
         <v>0</v>
@@ -8111,13 +8111,13 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>-0.4889846090445609</v>
+        <v>2.048076238690251</v>
       </c>
       <c r="C456" t="n">
-        <v>-4.442871109667522</v>
+        <v>0.3838031475579555</v>
       </c>
       <c r="D456" t="n">
-        <v>1.930984987171058</v>
+        <v>9.008955761243232</v>
       </c>
       <c r="E456" t="n">
         <v>0</v>
@@ -8128,13 +8128,13 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>-1.412661351383189</v>
+        <v>4.819488442765717</v>
       </c>
       <c r="C457" t="n">
-        <v>5.75885182032539</v>
+        <v>-1.672547867422963</v>
       </c>
       <c r="D457" t="n">
-        <v>55.50869476501028</v>
+        <v>33.80117208330255</v>
       </c>
       <c r="E457" t="n">
         <v>0</v>
@@ -8145,13 +8145,13 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>-2.423453171329362</v>
+        <v>2.552002063836831</v>
       </c>
       <c r="C458" t="n">
-        <v>3.25799920935151</v>
+        <v>-1.170182380178403</v>
       </c>
       <c r="D458" t="n">
-        <v>30.90772432034844</v>
+        <v>72.84055927673798</v>
       </c>
       <c r="E458" t="n">
         <v>0</v>
@@ -8162,13 +8162,13 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>0.7909812573878483</v>
+        <v>2.121533161451166</v>
       </c>
       <c r="C459" t="n">
-        <v>21.19007430860347</v>
+        <v>1.085837692811765</v>
       </c>
       <c r="D459" t="n">
-        <v>80.24821254797818</v>
+        <v>18.85699155152439</v>
       </c>
       <c r="E459" t="n">
         <v>0</v>
@@ -8179,13 +8179,13 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>-9.958692032910239</v>
+        <v>-3.94048221093143</v>
       </c>
       <c r="C460" t="n">
-        <v>-6.801290318543806</v>
+        <v>1.140184236058303</v>
       </c>
       <c r="D460" t="n">
-        <v>16.44640752832051</v>
+        <v>3.908334599292107</v>
       </c>
       <c r="E460" t="n">
         <v>0</v>
@@ -8196,13 +8196,13 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>-8.552101301650001</v>
+        <v>-2.035614089037892</v>
       </c>
       <c r="C461" t="n">
-        <v>-6.730821543252205</v>
+        <v>-1.597833183686362</v>
       </c>
       <c r="D461" t="n">
-        <v>43.35378229297955</v>
+        <v>76.88601122682275</v>
       </c>
       <c r="E461" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>-5.580292650568262</v>
+        <v>-0.1957986403345613</v>
       </c>
       <c r="C462" t="n">
-        <v>11.68514566489193</v>
+        <v>-1.029156105659922</v>
       </c>
       <c r="D462" t="n">
-        <v>43.54893627942626</v>
+        <v>64.91405324893206</v>
       </c>
       <c r="E462" t="n">
         <v>0</v>
@@ -8230,13 +8230,13 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>1.969460279646981</v>
+        <v>-4.691366096738109</v>
       </c>
       <c r="C463" t="n">
-        <v>2.800414233160382</v>
+        <v>3.971586676482275</v>
       </c>
       <c r="D463" t="n">
-        <v>10.70639313656983</v>
+        <v>67.48171814465381</v>
       </c>
       <c r="E463" t="n">
         <v>0</v>
@@ -8247,13 +8247,13 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>6.691805556768266</v>
+        <v>-4.266967724771068</v>
       </c>
       <c r="C464" t="n">
-        <v>3.42213273948164</v>
+        <v>-2.392163609824593</v>
       </c>
       <c r="D464" t="n">
-        <v>7.67227049200333</v>
+        <v>51.6017868082569</v>
       </c>
       <c r="E464" t="n">
         <v>0</v>
@@ -8264,13 +8264,13 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>6.754221350623578</v>
+        <v>3.656626028060211</v>
       </c>
       <c r="C465" t="n">
-        <v>20.57456036441249</v>
+        <v>-1.11141578955494</v>
       </c>
       <c r="D465" t="n">
-        <v>68.31134725103051</v>
+        <v>39.65859783160008</v>
       </c>
       <c r="E465" t="n">
         <v>0</v>
@@ -8281,13 +8281,13 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>1.156122767574574</v>
+        <v>-4.607635063855286</v>
       </c>
       <c r="C466" t="n">
-        <v>-7.780182268596036</v>
+        <v>-0.3816549983826008</v>
       </c>
       <c r="D466" t="n">
-        <v>24.61616044209596</v>
+        <v>33.48686811123611</v>
       </c>
       <c r="E466" t="n">
         <v>0</v>
@@ -8298,13 +8298,13 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>5.764128700572968</v>
+        <v>2.624585303803267</v>
       </c>
       <c r="C467" t="n">
-        <v>-20.39472061204879</v>
+        <v>0.7655023542868094</v>
       </c>
       <c r="D467" t="n">
-        <v>62.73483920800366</v>
+        <v>58.41177344067332</v>
       </c>
       <c r="E467" t="n">
         <v>0</v>
@@ -8315,13 +8315,13 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>-0.1870707603498296</v>
+        <v>2.455748076538326</v>
       </c>
       <c r="C468" t="n">
-        <v>-3.716753818758662</v>
+        <v>0.08317692099694796</v>
       </c>
       <c r="D468" t="n">
-        <v>14.38449603194729</v>
+        <v>9.713313158074721</v>
       </c>
       <c r="E468" t="n">
         <v>0</v>
@@ -8332,13 +8332,13 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>5.106868153282864</v>
+        <v>-1.073690144656635</v>
       </c>
       <c r="C469" t="n">
-        <v>9.06940505164107</v>
+        <v>0.6153105901069011</v>
       </c>
       <c r="D469" t="n">
-        <v>45.30979741724369</v>
+        <v>75.41583513235256</v>
       </c>
       <c r="E469" t="n">
         <v>0</v>
@@ -8349,13 +8349,13 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>2.628523748137324</v>
+        <v>-4.101814426881266</v>
       </c>
       <c r="C470" t="n">
-        <v>11.8020043582037</v>
+        <v>1.014364984535632</v>
       </c>
       <c r="D470" t="n">
-        <v>13.78813040675903</v>
+        <v>29.46186822297121</v>
       </c>
       <c r="E470" t="n">
         <v>0</v>
@@ -8366,13 +8366,13 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>-5.914438475947095</v>
+        <v>0.2460922153435767</v>
       </c>
       <c r="C471" t="n">
-        <v>12.28619915617219</v>
+        <v>1.478779218808995</v>
       </c>
       <c r="D471" t="n">
-        <v>51.2770444263702</v>
+        <v>56.51303318499805</v>
       </c>
       <c r="E471" t="n">
         <v>0</v>
@@ -8383,13 +8383,13 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>-1.533743021842257</v>
+        <v>0.2708770639311995</v>
       </c>
       <c r="C472" t="n">
-        <v>3.902920619554152</v>
+        <v>-2.495090369576246</v>
       </c>
       <c r="D472" t="n">
-        <v>90.61653463402244</v>
+        <v>90.01350748512247</v>
       </c>
       <c r="E472" t="n">
         <v>0</v>
@@ -8400,13 +8400,13 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>5.613066745274228</v>
+        <v>-0.3825342017813487</v>
       </c>
       <c r="C473" t="n">
-        <v>6.282095480165935</v>
+        <v>-0.9373471896840329</v>
       </c>
       <c r="D473" t="n">
-        <v>99.4718892618953</v>
+        <v>49.68242856398722</v>
       </c>
       <c r="E473" t="n">
         <v>0</v>
@@ -8417,13 +8417,13 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>-7.669990020905974</v>
+        <v>-1.608700993035619</v>
       </c>
       <c r="C474" t="n">
-        <v>0.4372286396044274</v>
+        <v>-0.09572179975452855</v>
       </c>
       <c r="D474" t="n">
-        <v>25.35811082355733</v>
+        <v>96.93968509508586</v>
       </c>
       <c r="E474" t="n">
         <v>0</v>
@@ -8434,13 +8434,13 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.4283022402486942</v>
+        <v>-1.567586855008829</v>
       </c>
       <c r="C475" t="n">
-        <v>-1.587280405388128</v>
+        <v>0.504312150622809</v>
       </c>
       <c r="D475" t="n">
-        <v>28.63510930031976</v>
+        <v>38.30129730996278</v>
       </c>
       <c r="E475" t="n">
         <v>0</v>
@@ -8451,13 +8451,13 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>6.175558342594915</v>
+        <v>-3.94412717613958</v>
       </c>
       <c r="C476" t="n">
-        <v>2.986227860378904</v>
+        <v>0.9389224207627649</v>
       </c>
       <c r="D476" t="n">
-        <v>50.81664662226756</v>
+        <v>86.89197993444864</v>
       </c>
       <c r="E476" t="n">
         <v>0</v>
@@ -8468,13 +8468,13 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>2.785462493198859</v>
+        <v>-4.957850012938346</v>
       </c>
       <c r="C477" t="n">
-        <v>-8.666347515253619</v>
+        <v>-0.9256268254425777</v>
       </c>
       <c r="D477" t="n">
-        <v>20.2820255562826</v>
+        <v>20.75675726573056</v>
       </c>
       <c r="E477" t="n">
         <v>0</v>
@@ -8485,13 +8485,13 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>-9.832530882059469</v>
+        <v>-1.661899756992665</v>
       </c>
       <c r="C478" t="n">
-        <v>-6.905275201771019</v>
+        <v>0.4580200416262414</v>
       </c>
       <c r="D478" t="n">
-        <v>1.190371959302461</v>
+        <v>81.75255082966103</v>
       </c>
       <c r="E478" t="n">
         <v>0</v>
@@ -8502,13 +8502,13 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>5.683359738575259</v>
+        <v>1.100804629296883</v>
       </c>
       <c r="C479" t="n">
-        <v>-10.93662562188774</v>
+        <v>-2.133068569439956</v>
       </c>
       <c r="D479" t="n">
-        <v>15.55876380104531</v>
+        <v>74.78265398821291</v>
       </c>
       <c r="E479" t="n">
         <v>0</v>
@@ -8519,13 +8519,13 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>1.588833488430264</v>
+        <v>-1.746759321878169</v>
       </c>
       <c r="C480" t="n">
-        <v>-15.50653968365646</v>
+        <v>-1.334575549751662</v>
       </c>
       <c r="D480" t="n">
-        <v>10.85996755657641</v>
+        <v>92.41961668971967</v>
       </c>
       <c r="E480" t="n">
         <v>0</v>
@@ -8536,13 +8536,13 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>8.552690013479097</v>
+        <v>0.7212295694463435</v>
       </c>
       <c r="C481" t="n">
-        <v>24.55669913890029</v>
+        <v>0.2705502315839112</v>
       </c>
       <c r="D481" t="n">
-        <v>15.662325171087</v>
+        <v>73.40424379212318</v>
       </c>
       <c r="E481" t="n">
         <v>0</v>
@@ -8553,13 +8553,13 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>-9.531764744684406</v>
+        <v>-0.08653245138747501</v>
       </c>
       <c r="C482" t="n">
-        <v>-14.20989269985967</v>
+        <v>0.4135140196726752</v>
       </c>
       <c r="D482" t="n">
-        <v>5.210273948988597</v>
+        <v>93.78367026229164</v>
       </c>
       <c r="E482" t="n">
         <v>0</v>
@@ -8570,13 +8570,13 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>2.232395094069277</v>
+        <v>-4.455550117773415</v>
       </c>
       <c r="C483" t="n">
-        <v>-15.16196830300305</v>
+        <v>-1.514440007881603</v>
       </c>
       <c r="D483" t="n">
-        <v>13.80658610670459</v>
+        <v>32.49381881100368</v>
       </c>
       <c r="E483" t="n">
         <v>0</v>
@@ -8587,13 +8587,13 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>-4.736151533203159</v>
+        <v>-1.788315444576003</v>
       </c>
       <c r="C484" t="n">
-        <v>13.09959632966024</v>
+        <v>-2.01171561504907</v>
       </c>
       <c r="D484" t="n">
-        <v>37.73600922305356</v>
+        <v>74.18888610959317</v>
       </c>
       <c r="E484" t="n">
         <v>0</v>
@@ -8604,13 +8604,13 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>-9.76109121400793</v>
+        <v>3.562447283809689</v>
       </c>
       <c r="C485" t="n">
-        <v>15.6157858412962</v>
+        <v>1.191402720424094</v>
       </c>
       <c r="D485" t="n">
-        <v>47.23046268922859</v>
+        <v>25.16326108131374</v>
       </c>
       <c r="E485" t="n">
         <v>0</v>
@@ -8621,13 +8621,13 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>-4.09166490360527</v>
+        <v>4.009523355857993</v>
       </c>
       <c r="C486" t="n">
-        <v>-3.083988904029184</v>
+        <v>0.9471120858097493</v>
       </c>
       <c r="D486" t="n">
-        <v>68.2868193904805</v>
+        <v>36.26901159286341</v>
       </c>
       <c r="E486" t="n">
         <v>0</v>
@@ -8638,13 +8638,13 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>7.283348303919361</v>
+        <v>4.168016237894744</v>
       </c>
       <c r="C487" t="n">
-        <v>-11.4065181280489</v>
+        <v>-1.367624732191189</v>
       </c>
       <c r="D487" t="n">
-        <v>32.95082657267486</v>
+        <v>62.62796674763553</v>
       </c>
       <c r="E487" t="n">
         <v>0</v>
@@ -8655,13 +8655,13 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>5.552921528503115</v>
+        <v>-1.831380748400285</v>
       </c>
       <c r="C488" t="n">
-        <v>-13.56467364935747</v>
+        <v>-0.5191161369989459</v>
       </c>
       <c r="D488" t="n">
-        <v>66.44997387501232</v>
+        <v>4.895189875270367</v>
       </c>
       <c r="E488" t="n">
         <v>0</v>
@@ -8672,13 +8672,13 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>9.781447572369576</v>
+        <v>-2.924698364493197</v>
       </c>
       <c r="C489" t="n">
-        <v>9.298429215932401</v>
+        <v>-0.8380730953181228</v>
       </c>
       <c r="D489" t="n">
-        <v>84.59226203734015</v>
+        <v>92.05565400793782</v>
       </c>
       <c r="E489" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>-1.391912710894911</v>
+        <v>-2.398244004813846</v>
       </c>
       <c r="C490" t="n">
-        <v>2.402028336203557</v>
+        <v>-1.68790350635868</v>
       </c>
       <c r="D490" t="n">
-        <v>13.14545339668649</v>
+        <v>11.72464325280729</v>
       </c>
       <c r="E490" t="n">
         <v>0</v>
@@ -8706,13 +8706,13 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>-0.3319182003968955</v>
+        <v>4.351454719566183</v>
       </c>
       <c r="C491" t="n">
-        <v>21.15163020988007</v>
+        <v>2.143505289244786</v>
       </c>
       <c r="D491" t="n">
-        <v>86.49027691679765</v>
+        <v>28.57677754079304</v>
       </c>
       <c r="E491" t="n">
         <v>0</v>
@@ -8723,13 +8723,13 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>-9.57118618636434</v>
+        <v>-1.825312533224865</v>
       </c>
       <c r="C492" t="n">
-        <v>-7.282924016657716</v>
+        <v>2.056773420099034</v>
       </c>
       <c r="D492" t="n">
-        <v>98.07365693415201</v>
+        <v>24.11770878954058</v>
       </c>
       <c r="E492" t="n">
         <v>0</v>
@@ -8740,13 +8740,13 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>6.530224507062282</v>
+        <v>-4.3789455571027</v>
       </c>
       <c r="C493" t="n">
-        <v>-12.08436087699351</v>
+        <v>0.6666538003469213</v>
       </c>
       <c r="D493" t="n">
-        <v>93.89121640143313</v>
+        <v>13.38102817763681</v>
       </c>
       <c r="E493" t="n">
         <v>0</v>
@@ -8757,13 +8757,13 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>0.5567358001349536</v>
+        <v>-4.47516801251496</v>
       </c>
       <c r="C494" t="n">
-        <v>13.6724490144486</v>
+        <v>-1.47069090497348</v>
       </c>
       <c r="D494" t="n">
-        <v>71.23266377764415</v>
+        <v>16.07850505994865</v>
       </c>
       <c r="E494" t="n">
         <v>0</v>
@@ -8774,13 +8774,13 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>3.864280596427323</v>
+        <v>1.144442189557864</v>
       </c>
       <c r="C495" t="n">
-        <v>-11.12103869699763</v>
+        <v>-0.6678743640172797</v>
       </c>
       <c r="D495" t="n">
-        <v>97.86861960343452</v>
+        <v>72.29014181639636</v>
       </c>
       <c r="E495" t="n">
         <v>0</v>
@@ -8791,13 +8791,13 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>-2.683552910568851</v>
+        <v>-0.3200126755227846</v>
       </c>
       <c r="C496" t="n">
-        <v>-3.438964463331786</v>
+        <v>-0.5922833789920787</v>
       </c>
       <c r="D496" t="n">
-        <v>36.22638013152286</v>
+        <v>23.38087271384127</v>
       </c>
       <c r="E496" t="n">
         <v>0</v>
@@ -8808,13 +8808,13 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>-6.931341089545143</v>
+        <v>4.620735767266853</v>
       </c>
       <c r="C497" t="n">
-        <v>10.93493996591451</v>
+        <v>0.1638597370920252</v>
       </c>
       <c r="D497" t="n">
-        <v>39.32214955363236</v>
+        <v>26.40260794097483</v>
       </c>
       <c r="E497" t="n">
         <v>0</v>
@@ -8825,13 +8825,13 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>-6.566461147667992</v>
+        <v>-3.170392334356087</v>
       </c>
       <c r="C498" t="n">
-        <v>-6.27677291253417</v>
+        <v>0.1955950819301506</v>
       </c>
       <c r="D498" t="n">
-        <v>31.96787326972207</v>
+        <v>37.16245060860837</v>
       </c>
       <c r="E498" t="n">
         <v>0</v>
@@ -8842,13 +8842,13 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>-3.511877960349484</v>
+        <v>-4.104365443598262</v>
       </c>
       <c r="C499" t="n">
-        <v>17.6275428355998</v>
+        <v>1.052095256851544</v>
       </c>
       <c r="D499" t="n">
-        <v>63.22829888619539</v>
+        <v>11.09666924562299</v>
       </c>
       <c r="E499" t="n">
         <v>0</v>
@@ -8859,13 +8859,13 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>-3.529054541046357</v>
+        <v>3.865972313365516</v>
       </c>
       <c r="C500" t="n">
-        <v>7.529403663392031</v>
+        <v>-2.253935233920856</v>
       </c>
       <c r="D500" t="n">
-        <v>93.70394779676329</v>
+        <v>3.063090262101009</v>
       </c>
       <c r="E500" t="n">
         <v>0</v>
@@ -8876,13 +8876,13 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>7.389632612943174</v>
+        <v>4.286537968222364</v>
       </c>
       <c r="C501" t="n">
-        <v>30.12926429885647</v>
+        <v>-0.1311265015165191</v>
       </c>
       <c r="D501" t="n">
-        <v>60.62813004504616</v>
+        <v>27.53491987529277</v>
       </c>
       <c r="E501" t="n">
         <v>0</v>
@@ -8893,13 +8893,13 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>6.933127093705501</v>
+        <v>-4.684151923421363</v>
       </c>
       <c r="C502" t="n">
-        <v>0.5902652202182708</v>
+        <v>-1.124586617964951</v>
       </c>
       <c r="D502" t="n">
-        <v>48.08357254934658</v>
+        <v>88.83241688661295</v>
       </c>
       <c r="E502" t="n">
         <v>0</v>
@@ -8910,13 +8910,13 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>-9.400026966229621</v>
+        <v>-4.451603139980582</v>
       </c>
       <c r="C503" t="n">
-        <v>-9.180442519230837</v>
+        <v>0.5619103902397455</v>
       </c>
       <c r="D503" t="n">
-        <v>82.60704281291211</v>
+        <v>66.27208615002277</v>
       </c>
       <c r="E503" t="n">
         <v>0</v>
@@ -8927,13 +8927,13 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>-1.869497422305304</v>
+        <v>-0.249478138137345</v>
       </c>
       <c r="C504" t="n">
-        <v>16.76336195926478</v>
+        <v>-2.464216353249412</v>
       </c>
       <c r="D504" t="n">
-        <v>42.45406859022389</v>
+        <v>20.76181883209146</v>
       </c>
       <c r="E504" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>8.358414170956305</v>
+        <v>1.388562099650167</v>
       </c>
       <c r="C505" t="n">
-        <v>20.21141967793028</v>
+        <v>-1.320792498823494</v>
       </c>
       <c r="D505" t="n">
-        <v>83.74015863310566</v>
+        <v>98.67889558219889</v>
       </c>
       <c r="E505" t="n">
         <v>0</v>
@@ -8961,13 +8961,13 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>3.723352154974538</v>
+        <v>2.980163511510995</v>
       </c>
       <c r="C506" t="n">
-        <v>-4.886455139883992</v>
+        <v>-3.123756754342139</v>
       </c>
       <c r="D506" t="n">
-        <v>33.31569985506327</v>
+        <v>13.29658093592163</v>
       </c>
       <c r="E506" t="n">
         <v>0</v>
@@ -8978,13 +8978,13 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>5.66024513962325</v>
+        <v>-2.444683738515857</v>
       </c>
       <c r="C507" t="n">
-        <v>4.208578286100192</v>
+        <v>-1.742091015894403</v>
       </c>
       <c r="D507" t="n">
-        <v>16.00770034638273</v>
+        <v>31.06884400777453</v>
       </c>
       <c r="E507" t="n">
         <v>0</v>
@@ -8995,13 +8995,13 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>-7.276219802128323</v>
+        <v>-1.097730061377412</v>
       </c>
       <c r="C508" t="n">
-        <v>15.05833919675388</v>
+        <v>0.02085571260840879</v>
       </c>
       <c r="D508" t="n">
-        <v>61.48455176555599</v>
+        <v>44.71263379461207</v>
       </c>
       <c r="E508" t="n">
         <v>0</v>
@@ -9012,13 +9012,13 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>-8.522306578049699</v>
+        <v>2.209147196127157</v>
       </c>
       <c r="C509" t="n">
-        <v>-2.843017860251393</v>
+        <v>1.478195875560004</v>
       </c>
       <c r="D509" t="n">
-        <v>35.65817191713327</v>
+        <v>68.08094672734458</v>
       </c>
       <c r="E509" t="n">
         <v>0</v>
@@ -9029,13 +9029,13 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>1.08927412552265</v>
+        <v>-0.431590790298003</v>
       </c>
       <c r="C510" t="n">
-        <v>-25.12170994967437</v>
+        <v>1.826174950480663</v>
       </c>
       <c r="D510" t="n">
-        <v>0.1089773994142451</v>
+        <v>18.26057055248322</v>
       </c>
       <c r="E510" t="n">
         <v>0</v>
@@ -9046,13 +9046,13 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>8.914269340240718</v>
+        <v>4.572545130770177</v>
       </c>
       <c r="C511" t="n">
-        <v>-8.416271551699765</v>
+        <v>2.49155123099672</v>
       </c>
       <c r="D511" t="n">
-        <v>14.38928342492506</v>
+        <v>42.5029973452089</v>
       </c>
       <c r="E511" t="n">
         <v>0</v>
@@ -9063,13 +9063,13 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>2.186683553012719</v>
+        <v>-1.013287270120785</v>
       </c>
       <c r="C512" t="n">
-        <v>-19.85900844588741</v>
+        <v>2.799011086023711</v>
       </c>
       <c r="D512" t="n">
-        <v>90.93516953334692</v>
+        <v>24.36520328153339</v>
       </c>
       <c r="E512" t="n">
         <v>0</v>
@@ -9080,13 +9080,13 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>5.556049315160838</v>
+        <v>0.1791582138851062</v>
       </c>
       <c r="C513" t="n">
-        <v>-25.50007797100511</v>
+        <v>0.3424612695987435</v>
       </c>
       <c r="D513" t="n">
-        <v>60.41897248790722</v>
+        <v>50.30463906912912</v>
       </c>
       <c r="E513" t="n">
         <v>0</v>
@@ -9097,13 +9097,13 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>-6.691288515213203</v>
+        <v>2.463724540919261</v>
       </c>
       <c r="C514" t="n">
-        <v>13.55316644561913</v>
+        <v>-0.8613548220960183</v>
       </c>
       <c r="D514" t="n">
-        <v>58.55215306058192</v>
+        <v>14.64365702646583</v>
       </c>
       <c r="E514" t="n">
         <v>0</v>
@@ -9114,13 +9114,13 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>3.955250943262161</v>
+        <v>4.845148669256838</v>
       </c>
       <c r="C515" t="n">
-        <v>-10.3168577310837</v>
+        <v>0.6420914686909782</v>
       </c>
       <c r="D515" t="n">
-        <v>86.32675614396052</v>
+        <v>47.79075099825049</v>
       </c>
       <c r="E515" t="n">
         <v>0</v>
@@ -9131,13 +9131,13 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>-1.372001296991739</v>
+        <v>3.171380241975173</v>
       </c>
       <c r="C516" t="n">
-        <v>26.76458113323179</v>
+        <v>0.6458949783468597</v>
       </c>
       <c r="D516" t="n">
-        <v>2.356794161886577</v>
+        <v>18.54894280560469</v>
       </c>
       <c r="E516" t="n">
         <v>0</v>
@@ -9148,13 +9148,13 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>-0.3081274495659336</v>
+        <v>4.645803341906111</v>
       </c>
       <c r="C517" t="n">
-        <v>29.27648844498299</v>
+        <v>-1.386489093153159</v>
       </c>
       <c r="D517" t="n">
-        <v>41.84863114537273</v>
+        <v>22.78851665589623</v>
       </c>
       <c r="E517" t="n">
         <v>0</v>
@@ -9165,13 +9165,13 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>4.351118201643814</v>
+        <v>-4.800917706812355</v>
       </c>
       <c r="C518" t="n">
-        <v>-11.160896526128</v>
+        <v>-0.03056620297070367</v>
       </c>
       <c r="D518" t="n">
-        <v>69.00594221542555</v>
+        <v>78.12149808301419</v>
       </c>
       <c r="E518" t="n">
         <v>0</v>
@@ -9182,13 +9182,13 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>-5.42586080814621</v>
+        <v>1.074207168982459</v>
       </c>
       <c r="C519" t="n">
-        <v>13.19572491027566</v>
+        <v>1.871914798183298</v>
       </c>
       <c r="D519" t="n">
-        <v>61.43643529797927</v>
+        <v>98.25488363070198</v>
       </c>
       <c r="E519" t="n">
         <v>0</v>
@@ -9199,13 +9199,13 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>3.895734720408722</v>
+        <v>1.009256157539773</v>
       </c>
       <c r="C520" t="n">
-        <v>2.640049893093874</v>
+        <v>-2.086380645232566</v>
       </c>
       <c r="D520" t="n">
-        <v>16.60767869355277</v>
+        <v>84.51430387743487</v>
       </c>
       <c r="E520" t="n">
         <v>0</v>
@@ -9216,13 +9216,13 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>2.21136339312994</v>
+        <v>3.760581592979724</v>
       </c>
       <c r="C521" t="n">
-        <v>20.03943694711757</v>
+        <v>0.3594542353509951</v>
       </c>
       <c r="D521" t="n">
-        <v>44.77869065568269</v>
+        <v>90.56214108915771</v>
       </c>
       <c r="E521" t="n">
         <v>0</v>
@@ -9233,13 +9233,13 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>1.315055543834491</v>
+        <v>0.9349741033248886</v>
       </c>
       <c r="C522" t="n">
-        <v>-1.703986156750943</v>
+        <v>0.8886290746424947</v>
       </c>
       <c r="D522" t="n">
-        <v>88.53290655035849</v>
+        <v>59.87986783098952</v>
       </c>
       <c r="E522" t="n">
         <v>0</v>
@@ -9250,13 +9250,13 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>-5.618257869836507</v>
+        <v>1.579303523177592</v>
       </c>
       <c r="C523" t="n">
-        <v>5.760565029747113</v>
+        <v>-1.523781089169916</v>
       </c>
       <c r="D523" t="n">
-        <v>8.559819503971566</v>
+        <v>30.78377991844993</v>
       </c>
       <c r="E523" t="n">
         <v>0</v>
@@ -9267,13 +9267,13 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>-6.8794520093965</v>
+        <v>0.1309290877007987</v>
       </c>
       <c r="C524" t="n">
-        <v>-12.15584448719551</v>
+        <v>0.1462748623052903</v>
       </c>
       <c r="D524" t="n">
-        <v>58.13863566646535</v>
+        <v>71.24116387825833</v>
       </c>
       <c r="E524" t="n">
         <v>0</v>
@@ -9284,13 +9284,13 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>8.037003244840943</v>
+        <v>4.229387233210311</v>
       </c>
       <c r="C525" t="n">
-        <v>3.417053972543954</v>
+        <v>0.6188031280942141</v>
       </c>
       <c r="D525" t="n">
-        <v>7.252691466625349</v>
+        <v>93.88430404188372</v>
       </c>
       <c r="E525" t="n">
         <v>0</v>
@@ -9301,13 +9301,13 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.8755374898365389</v>
+        <v>-1.927565990824625</v>
       </c>
       <c r="C526" t="n">
-        <v>-15.00103696597034</v>
+        <v>2.578651340890929</v>
       </c>
       <c r="D526" t="n">
-        <v>69.96674534363811</v>
+        <v>74.69818426438842</v>
       </c>
       <c r="E526" t="n">
         <v>0</v>
@@ -9318,13 +9318,13 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>8.308595228331374</v>
+        <v>1.219497355831445</v>
       </c>
       <c r="C527" t="n">
-        <v>9.208671518187202</v>
+        <v>-0.1877708999679726</v>
       </c>
       <c r="D527" t="n">
-        <v>97.49489635184928</v>
+        <v>63.07293840445458</v>
       </c>
       <c r="E527" t="n">
         <v>0</v>
@@ -9335,13 +9335,13 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>7.790636677558336</v>
+        <v>-3.68863493575473</v>
       </c>
       <c r="C528" t="n">
-        <v>7.528359199838633</v>
+        <v>-0.8422407821019533</v>
       </c>
       <c r="D528" t="n">
-        <v>44.50695257006942</v>
+        <v>28.80320462367709</v>
       </c>
       <c r="E528" t="n">
         <v>0</v>
@@ -9352,13 +9352,13 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>-1.08249193131847</v>
+        <v>2.17635310151004</v>
       </c>
       <c r="C529" t="n">
-        <v>-11.05174064589824</v>
+        <v>-2.740191270609557</v>
       </c>
       <c r="D529" t="n">
-        <v>6.259198176408043</v>
+        <v>9.950985615735931</v>
       </c>
       <c r="E529" t="n">
         <v>0</v>
@@ -9369,13 +9369,13 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>9.692476932521195</v>
+        <v>4.615528857129567</v>
       </c>
       <c r="C530" t="n">
-        <v>2.922922194781904</v>
+        <v>1.398547883481797</v>
       </c>
       <c r="D530" t="n">
-        <v>22.67029651236824</v>
+        <v>59.35865847876298</v>
       </c>
       <c r="E530" t="n">
         <v>0</v>
@@ -9386,13 +9386,13 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>-2.556217453460004</v>
+        <v>-4.614272495137975</v>
       </c>
       <c r="C531" t="n">
-        <v>-1.234725047842403</v>
+        <v>0.3400376867064097</v>
       </c>
       <c r="D531" t="n">
-        <v>37.38236037711285</v>
+        <v>37.66841709363636</v>
       </c>
       <c r="E531" t="n">
         <v>0</v>
@@ -9403,13 +9403,13 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>8.742484131464686</v>
+        <v>4.528167174616009</v>
       </c>
       <c r="C532" t="n">
-        <v>-17.09777965756916</v>
+        <v>0.86609779194373</v>
       </c>
       <c r="D532" t="n">
-        <v>47.87027208337886</v>
+        <v>41.84820691099226</v>
       </c>
       <c r="E532" t="n">
         <v>0</v>
@@ -9420,13 +9420,13 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>1.019819705553575</v>
+        <v>-0.1249842861799353</v>
       </c>
       <c r="C533" t="n">
-        <v>-14.12570393386977</v>
+        <v>0.3980989199571923</v>
       </c>
       <c r="D533" t="n">
-        <v>94.56296151406373</v>
+        <v>15.59458279568953</v>
       </c>
       <c r="E533" t="n">
         <v>0</v>
@@ -9437,13 +9437,13 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>5.846432707477685</v>
+        <v>1.333314334624712</v>
       </c>
       <c r="C534" t="n">
-        <v>-13.59178765290176</v>
+        <v>-1.700013104835762</v>
       </c>
       <c r="D534" t="n">
-        <v>62.89748697627001</v>
+        <v>1.632131786981939</v>
       </c>
       <c r="E534" t="n">
         <v>0</v>
@@ -9454,13 +9454,13 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>-8.020524964746619</v>
+        <v>-3.895397573401813</v>
       </c>
       <c r="C535" t="n">
-        <v>7.382303062614483</v>
+        <v>0.8649678722717908</v>
       </c>
       <c r="D535" t="n">
-        <v>6.085400466042179</v>
+        <v>38.01780901330438</v>
       </c>
       <c r="E535" t="n">
         <v>0</v>
@@ -9471,13 +9471,13 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>8.079312503045212</v>
+        <v>-1.9019824887437</v>
       </c>
       <c r="C536" t="n">
-        <v>-24.0987518060299</v>
+        <v>-0.2841198501339477</v>
       </c>
       <c r="D536" t="n">
-        <v>84.57320850218716</v>
+        <v>86.03495373090857</v>
       </c>
       <c r="E536" t="n">
         <v>0</v>
@@ -9488,13 +9488,13 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>-1.436159423201479</v>
+        <v>4.01998603133867</v>
       </c>
       <c r="C537" t="n">
-        <v>5.566872626778832</v>
+        <v>1.749084097095192</v>
       </c>
       <c r="D537" t="n">
-        <v>65.79853870955937</v>
+        <v>39.52888896665922</v>
       </c>
       <c r="E537" t="n">
         <v>0</v>
@@ -9505,13 +9505,13 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>7.331474664942004</v>
+        <v>-4.866618589806592</v>
       </c>
       <c r="C538" t="n">
-        <v>0.1514060727163269</v>
+        <v>0.1271691695139907</v>
       </c>
       <c r="D538" t="n">
-        <v>17.40188543464603</v>
+        <v>26.08869558444298</v>
       </c>
       <c r="E538" t="n">
         <v>0</v>
@@ -9522,13 +9522,13 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>6.613299726629357</v>
+        <v>3.975020958767354</v>
       </c>
       <c r="C539" t="n">
-        <v>-6.803889715682999</v>
+        <v>1.769273572824659</v>
       </c>
       <c r="D539" t="n">
-        <v>6.477008119206273</v>
+        <v>95.49884510804286</v>
       </c>
       <c r="E539" t="n">
         <v>0</v>
@@ -9539,13 +9539,13 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>4.602461762356215</v>
+        <v>3.837814599721405</v>
       </c>
       <c r="C540" t="n">
-        <v>12.00453587731431</v>
+        <v>-0.1107893186260753</v>
       </c>
       <c r="D540" t="n">
-        <v>78.13667915320359</v>
+        <v>21.40957117133346</v>
       </c>
       <c r="E540" t="n">
         <v>0</v>
@@ -9556,13 +9556,13 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>5.44600780563356</v>
+        <v>-3.04057136565565</v>
       </c>
       <c r="C541" t="n">
-        <v>-5.115536784003098</v>
+        <v>1.643319095993775</v>
       </c>
       <c r="D541" t="n">
-        <v>61.38161252530043</v>
+        <v>93.38977119919628</v>
       </c>
       <c r="E541" t="n">
         <v>0</v>
@@ -9573,13 +9573,13 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>-4.288600581406343</v>
+        <v>-0.9116553403160621</v>
       </c>
       <c r="C542" t="n">
-        <v>-5.872000523052975</v>
+        <v>1.530755738536982</v>
       </c>
       <c r="D542" t="n">
-        <v>33.80022023272298</v>
+        <v>54.08136268435963</v>
       </c>
       <c r="E542" t="n">
         <v>0</v>
@@ -9590,13 +9590,13 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>-1.118302303476757</v>
+        <v>3.787004257001655</v>
       </c>
       <c r="C543" t="n">
-        <v>-0.1979884706609027</v>
+        <v>-0.2069369480968817</v>
       </c>
       <c r="D543" t="n">
-        <v>72.31099351281493</v>
+        <v>10.71968167760919</v>
       </c>
       <c r="E543" t="n">
         <v>0</v>
@@ -9607,13 +9607,13 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>1.637811658864015</v>
+        <v>1.971244096235127</v>
       </c>
       <c r="C544" t="n">
-        <v>1.956433617405992</v>
+        <v>-1.39435526231</v>
       </c>
       <c r="D544" t="n">
-        <v>77.2995346739682</v>
+        <v>78.26811619562936</v>
       </c>
       <c r="E544" t="n">
         <v>0</v>
@@ -9624,13 +9624,13 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>7.424287499994488</v>
+        <v>0.79347422800081</v>
       </c>
       <c r="C545" t="n">
-        <v>1.137733167019405</v>
+        <v>-0.5640087695708189</v>
       </c>
       <c r="D545" t="n">
-        <v>38.04386674102081</v>
+        <v>89.65907276681607</v>
       </c>
       <c r="E545" t="n">
         <v>0</v>
@@ -9641,13 +9641,13 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>9.678943495366536</v>
+        <v>0.7464499297979268</v>
       </c>
       <c r="C546" t="n">
-        <v>0.1612428288251522</v>
+        <v>-0.8823952738682692</v>
       </c>
       <c r="D546" t="n">
-        <v>3.310685464715724</v>
+        <v>81.65878816162471</v>
       </c>
       <c r="E546" t="n">
         <v>0</v>
@@ -9658,13 +9658,13 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>8.399155032304705</v>
+        <v>2.398514090259841</v>
       </c>
       <c r="C547" t="n">
-        <v>-5.229805724826065</v>
+        <v>-0.7540310446293006</v>
       </c>
       <c r="D547" t="n">
-        <v>68.63347764001784</v>
+        <v>30.47712323089552</v>
       </c>
       <c r="E547" t="n">
         <v>0</v>
@@ -9675,13 +9675,13 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>4.234048140783973</v>
+        <v>0.6067561552414151</v>
       </c>
       <c r="C548" t="n">
-        <v>4.297613948464004</v>
+        <v>-0.2262315635689447</v>
       </c>
       <c r="D548" t="n">
-        <v>76.63518865759384</v>
+        <v>86.51847879930706</v>
       </c>
       <c r="E548" t="n">
         <v>0</v>
@@ -9692,13 +9692,13 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>4.639638240990731</v>
+        <v>-1.827214680472782</v>
       </c>
       <c r="C549" t="n">
-        <v>-32.94724062857767</v>
+        <v>1.835937261893378</v>
       </c>
       <c r="D549" t="n">
-        <v>21.48935583330005</v>
+        <v>90.75376108288509</v>
       </c>
       <c r="E549" t="n">
         <v>0</v>
@@ -9709,13 +9709,13 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>1.381732340807933</v>
+        <v>-4.896265178067361</v>
       </c>
       <c r="C550" t="n">
-        <v>-5.609776963518016</v>
+        <v>-0.5032852701995125</v>
       </c>
       <c r="D550" t="n">
-        <v>4.547688259814442</v>
+        <v>81.87749295655551</v>
       </c>
       <c r="E550" t="n">
         <v>0</v>
@@ -9726,13 +9726,13 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>3.450838476103861</v>
+        <v>0.0340545943814945</v>
       </c>
       <c r="C551" t="n">
-        <v>21.77451824084801</v>
+        <v>-1.114782502983871</v>
       </c>
       <c r="D551" t="n">
-        <v>62.4092912032288</v>
+        <v>29.85312084679556</v>
       </c>
       <c r="E551" t="n">
         <v>0</v>
@@ -9743,13 +9743,13 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>8.999579677976296</v>
+        <v>0.9179398938956904</v>
       </c>
       <c r="C552" t="n">
-        <v>-6.936273750781311</v>
+        <v>1.526782706881022</v>
       </c>
       <c r="D552" t="n">
-        <v>75.36836142550546</v>
+        <v>82.15893518086807</v>
       </c>
       <c r="E552" t="n">
         <v>0</v>
@@ -9760,13 +9760,13 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>8.265785283226499</v>
+        <v>1.68793349227612</v>
       </c>
       <c r="C553" t="n">
-        <v>14.2604739762271</v>
+        <v>1.387709766190028</v>
       </c>
       <c r="D553" t="n">
-        <v>8.150737477279469</v>
+        <v>33.67562819519112</v>
       </c>
       <c r="E553" t="n">
         <v>0</v>
@@ -9777,13 +9777,13 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>5.505006542988651</v>
+        <v>-4.696011701603227</v>
       </c>
       <c r="C554" t="n">
-        <v>-7.204274369034238</v>
+        <v>-0.5382978353259205</v>
       </c>
       <c r="D554" t="n">
-        <v>1.006292770812678</v>
+        <v>50.25840574840004</v>
       </c>
       <c r="E554" t="n">
         <v>0</v>
@@ -9794,13 +9794,13 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>1.485356354802644</v>
+        <v>-2.373721745678852</v>
       </c>
       <c r="C555" t="n">
-        <v>-12.72942629428962</v>
+        <v>2.124735572352847</v>
       </c>
       <c r="D555" t="n">
-        <v>44.5638137414968</v>
+        <v>18.07717125239477</v>
       </c>
       <c r="E555" t="n">
         <v>0</v>
@@ -9811,13 +9811,13 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>-7.531380069934778</v>
+        <v>3.751638971189813</v>
       </c>
       <c r="C556" t="n">
-        <v>-6.741614783312798</v>
+        <v>-0.2028633373097364</v>
       </c>
       <c r="D556" t="n">
-        <v>31.54809115838646</v>
+        <v>25.07091784281573</v>
       </c>
       <c r="E556" t="n">
         <v>0</v>
@@ -9828,13 +9828,13 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>8.408770182616106</v>
+        <v>-0.2931913956819443</v>
       </c>
       <c r="C557" t="n">
-        <v>-3.531089758002508</v>
+        <v>1.008738306330997</v>
       </c>
       <c r="D557" t="n">
-        <v>36.54314702341988</v>
+        <v>40.35471510806175</v>
       </c>
       <c r="E557" t="n">
         <v>0</v>
@@ -9845,13 +9845,13 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>4.578765472938702</v>
+        <v>0.01930436723989892</v>
       </c>
       <c r="C558" t="n">
-        <v>-15.17688945629607</v>
+        <v>-0.0623147477956536</v>
       </c>
       <c r="D558" t="n">
-        <v>19.84255699420346</v>
+        <v>23.54473604960176</v>
       </c>
       <c r="E558" t="n">
         <v>0</v>
@@ -9862,13 +9862,13 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>-9.27482912132238</v>
+        <v>2.32868452003799</v>
       </c>
       <c r="C559" t="n">
-        <v>29.1959722685292</v>
+        <v>-0.3926341585420232</v>
       </c>
       <c r="D559" t="n">
-        <v>88.99069929836514</v>
+        <v>19.18315517506256</v>
       </c>
       <c r="E559" t="n">
         <v>0</v>
@@ -9879,13 +9879,13 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>4.285090171064759</v>
+        <v>4.511859966203827</v>
       </c>
       <c r="C560" t="n">
-        <v>-8.168149378410817</v>
+        <v>0.4625836935792904</v>
       </c>
       <c r="D560" t="n">
-        <v>95.50370185400413</v>
+        <v>61.34101695805543</v>
       </c>
       <c r="E560" t="n">
         <v>0</v>
@@ -9896,13 +9896,13 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>-9.931933157915147</v>
+        <v>-0.3810388033169412</v>
       </c>
       <c r="C561" t="n">
-        <v>-10.52447544923143</v>
+        <v>-0.7992075981439939</v>
       </c>
       <c r="D561" t="n">
-        <v>18.24984237322496</v>
+        <v>17.37589221225118</v>
       </c>
       <c r="E561" t="n">
         <v>0</v>
@@ -9913,13 +9913,13 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.1497777954235353</v>
+        <v>1.658114913751589</v>
       </c>
       <c r="C562" t="n">
-        <v>3.05907577165226</v>
+        <v>-0.7466147358511535</v>
       </c>
       <c r="D562" t="n">
-        <v>24.98619301152253</v>
+        <v>62.3137393238768</v>
       </c>
       <c r="E562" t="n">
         <v>0</v>
@@ -9930,13 +9930,13 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>0.6485038363187137</v>
+        <v>-0.4899309945232266</v>
       </c>
       <c r="C563" t="n">
-        <v>-29.70214733007606</v>
+        <v>1.775371657700362</v>
       </c>
       <c r="D563" t="n">
-        <v>50.33344102401648</v>
+        <v>4.031608499366735</v>
       </c>
       <c r="E563" t="n">
         <v>0</v>
@@ -9947,13 +9947,13 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>1.596917841123901</v>
+        <v>-3.449888832096541</v>
       </c>
       <c r="C564" t="n">
-        <v>16.53021433644085</v>
+        <v>0.10696979316549</v>
       </c>
       <c r="D564" t="n">
-        <v>32.5268278199832</v>
+        <v>65.68894278955044</v>
       </c>
       <c r="E564" t="n">
         <v>0</v>
@@ -9964,13 +9964,13 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>9.765557074995147</v>
+        <v>2.643337896828458</v>
       </c>
       <c r="C565" t="n">
-        <v>-19.13886082591489</v>
+        <v>0.007580206122156596</v>
       </c>
       <c r="D565" t="n">
-        <v>94.34623575948397</v>
+        <v>89.76322767815954</v>
       </c>
       <c r="E565" t="n">
         <v>0</v>
@@ -9981,13 +9981,13 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>3.143490718779734</v>
+        <v>0.297445353945724</v>
       </c>
       <c r="C566" t="n">
-        <v>-4.164279429377302</v>
+        <v>-0.02854093208497943</v>
       </c>
       <c r="D566" t="n">
-        <v>8.716938668924179</v>
+        <v>85.20018437464641</v>
       </c>
       <c r="E566" t="n">
         <v>0</v>
@@ -9998,13 +9998,13 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>3.480934855608702</v>
+        <v>4.694929074916017</v>
       </c>
       <c r="C567" t="n">
-        <v>-28.69153739657418</v>
+        <v>-0.6958330582165217</v>
       </c>
       <c r="D567" t="n">
-        <v>30.56306928159417</v>
+        <v>21.92205043662567</v>
       </c>
       <c r="E567" t="n">
         <v>0</v>
@@ -10015,13 +10015,13 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>-6.992215014086414</v>
+        <v>3.843058822544311</v>
       </c>
       <c r="C568" t="n">
-        <v>7.115223863184838</v>
+        <v>1.351898822922067</v>
       </c>
       <c r="D568" t="n">
-        <v>96.27643816653791</v>
+        <v>52.14665590568447</v>
       </c>
       <c r="E568" t="n">
         <v>0</v>
@@ -10032,13 +10032,13 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>-7.174009335763223</v>
+        <v>2.99309846542508</v>
       </c>
       <c r="C569" t="n">
-        <v>-2.383203907864754</v>
+        <v>0.2450020802079962</v>
       </c>
       <c r="D569" t="n">
-        <v>94.01491022925764</v>
+        <v>23.00317091353219</v>
       </c>
       <c r="E569" t="n">
         <v>0</v>
@@ -10049,13 +10049,13 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>7.153638239969361</v>
+        <v>-2.538753839570415</v>
       </c>
       <c r="C570" t="n">
-        <v>-7.696049488961307</v>
+        <v>-0.8185627725047198</v>
       </c>
       <c r="D570" t="n">
-        <v>72.84274611757765</v>
+        <v>27.82670947732786</v>
       </c>
       <c r="E570" t="n">
         <v>0</v>
@@ -10066,13 +10066,13 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>2.949779602397182</v>
+        <v>0.9582182475707324</v>
       </c>
       <c r="C571" t="n">
-        <v>-9.279864963404179</v>
+        <v>2.038940453679743</v>
       </c>
       <c r="D571" t="n">
-        <v>7.589255084141111</v>
+        <v>4.626870783874071</v>
       </c>
       <c r="E571" t="n">
         <v>0</v>
@@ -10083,13 +10083,13 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>9.226379258165277</v>
+        <v>-4.788535409601867</v>
       </c>
       <c r="C572" t="n">
-        <v>-3.094444113899726</v>
+        <v>-0.3019212726974274</v>
       </c>
       <c r="D572" t="n">
-        <v>29.82515590456921</v>
+        <v>38.31683014551722</v>
       </c>
       <c r="E572" t="n">
         <v>0</v>
@@ -10100,13 +10100,13 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>4.137360820669468</v>
+        <v>-4.855465239395437</v>
       </c>
       <c r="C573" t="n">
-        <v>12.32952659113016</v>
+        <v>0.9379469527673336</v>
       </c>
       <c r="D573" t="n">
-        <v>84.79727688290744</v>
+        <v>86.36374570986905</v>
       </c>
       <c r="E573" t="n">
         <v>0</v>
@@ -10117,13 +10117,13 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>2.56471238511204</v>
+        <v>4.365320792823201</v>
       </c>
       <c r="C574" t="n">
-        <v>1.766302539953358</v>
+        <v>0.4613109515851193</v>
       </c>
       <c r="D574" t="n">
-        <v>63.20304466947958</v>
+        <v>25.37310359836796</v>
       </c>
       <c r="E574" t="n">
         <v>0</v>
@@ -10134,13 +10134,13 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>5.250289699780723</v>
+        <v>1.374901400916317</v>
       </c>
       <c r="C575" t="n">
-        <v>-4.174560546720386</v>
+        <v>1.005577733119253</v>
       </c>
       <c r="D575" t="n">
-        <v>15.61690781938578</v>
+        <v>33.08576098681259</v>
       </c>
       <c r="E575" t="n">
         <v>0</v>
@@ -10151,13 +10151,13 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>-3.819118977393911</v>
+        <v>2.650658122812924</v>
       </c>
       <c r="C576" t="n">
-        <v>6.074500781959387</v>
+        <v>0.3433407704135334</v>
       </c>
       <c r="D576" t="n">
-        <v>35.81219569756383</v>
+        <v>43.41565484619222</v>
       </c>
       <c r="E576" t="n">
         <v>0</v>
@@ -10168,13 +10168,13 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>6.171088357199061</v>
+        <v>2.262888267154754</v>
       </c>
       <c r="C577" t="n">
-        <v>-3.384903411713367</v>
+        <v>-0.9026178455171703</v>
       </c>
       <c r="D577" t="n">
-        <v>44.4174526994495</v>
+        <v>53.31997359452279</v>
       </c>
       <c r="E577" t="n">
         <v>0</v>
@@ -10185,13 +10185,13 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>5.652497779041468</v>
+        <v>-2.355720609462411</v>
       </c>
       <c r="C578" t="n">
-        <v>13.26383755573875</v>
+        <v>0.8942150312077501</v>
       </c>
       <c r="D578" t="n">
-        <v>83.95595788866319</v>
+        <v>92.96782078501617</v>
       </c>
       <c r="E578" t="n">
         <v>0</v>
@@ -10202,13 +10202,13 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>1.268139663784266</v>
+        <v>-2.690950510998571</v>
       </c>
       <c r="C579" t="n">
-        <v>14.24915716577812</v>
+        <v>-0.2321499186493838</v>
       </c>
       <c r="D579" t="n">
-        <v>84.1161513895414</v>
+        <v>94.74051439953061</v>
       </c>
       <c r="E579" t="n">
         <v>0</v>
@@ -10219,13 +10219,13 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>-8.839646702872393</v>
+        <v>4.830007337816825</v>
       </c>
       <c r="C580" t="n">
-        <v>-31.93030761991531</v>
+        <v>-0.1520235481689269</v>
       </c>
       <c r="D580" t="n">
-        <v>36.40754882707765</v>
+        <v>48.94848471795944</v>
       </c>
       <c r="E580" t="n">
         <v>0</v>
@@ -10236,13 +10236,13 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>-8.481324933361376</v>
+        <v>-2.763667476878112</v>
       </c>
       <c r="C581" t="n">
-        <v>15.16282480528116</v>
+        <v>0.2411697491579616</v>
       </c>
       <c r="D581" t="n">
-        <v>71.52426366205191</v>
+        <v>1.225351108997152</v>
       </c>
       <c r="E581" t="n">
         <v>0</v>
@@ -10253,13 +10253,13 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>7.494136572975133</v>
+        <v>-4.333362261606066</v>
       </c>
       <c r="C582" t="n">
-        <v>4.725859037046575</v>
+        <v>-1.413416465708224</v>
       </c>
       <c r="D582" t="n">
-        <v>31.46521910492566</v>
+        <v>40.17524605052705</v>
       </c>
       <c r="E582" t="n">
         <v>0</v>
@@ -10270,13 +10270,13 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>6.115193878086799</v>
+        <v>-0.8568270987308599</v>
       </c>
       <c r="C583" t="n">
-        <v>21.63441422676624</v>
+        <v>1.968629926725953</v>
       </c>
       <c r="D583" t="n">
-        <v>98.3342071340158</v>
+        <v>76.54448601136083</v>
       </c>
       <c r="E583" t="n">
         <v>0</v>
@@ -10287,13 +10287,13 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>-9.582266973122096</v>
+        <v>-3.716183262087083</v>
       </c>
       <c r="C584" t="n">
-        <v>-5.733410487677247</v>
+        <v>4.18975817092678</v>
       </c>
       <c r="D584" t="n">
-        <v>95.87641873556004</v>
+        <v>54.66633447161373</v>
       </c>
       <c r="E584" t="n">
         <v>0</v>
@@ -10304,13 +10304,13 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>9.168820740318896</v>
+        <v>0.2599712824311906</v>
       </c>
       <c r="C585" t="n">
-        <v>8.713641706737235</v>
+        <v>-0.6421015827615975</v>
       </c>
       <c r="D585" t="n">
-        <v>2.147679292881444</v>
+        <v>66.78317070091573</v>
       </c>
       <c r="E585" t="n">
         <v>0</v>
@@ -10321,13 +10321,13 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>-8.988061554691001</v>
+        <v>-3.477005646998314</v>
       </c>
       <c r="C586" t="n">
-        <v>-0.09923053957163575</v>
+        <v>-2.188231483317395</v>
       </c>
       <c r="D586" t="n">
-        <v>26.29898434981424</v>
+        <v>80.96716998988876</v>
       </c>
       <c r="E586" t="n">
         <v>0</v>
@@ -10338,13 +10338,13 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>0.6121432796279294</v>
+        <v>-4.543697362598489</v>
       </c>
       <c r="C587" t="n">
-        <v>-1.71761078236068</v>
+        <v>0.025069076634054</v>
       </c>
       <c r="D587" t="n">
-        <v>38.23128665763635</v>
+        <v>56.0284596676058</v>
       </c>
       <c r="E587" t="n">
         <v>0</v>
@@ -10355,13 +10355,13 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>-9.415873426417809</v>
+        <v>-0.0882596828135318</v>
       </c>
       <c r="C588" t="n">
-        <v>8.999548218864447</v>
+        <v>-0.5799321160875479</v>
       </c>
       <c r="D588" t="n">
-        <v>99.00876803981123</v>
+        <v>79.79731453133849</v>
       </c>
       <c r="E588" t="n">
         <v>0</v>
@@ -10372,13 +10372,13 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>-1.35911826200574</v>
+        <v>4.98676158787784</v>
       </c>
       <c r="C589" t="n">
-        <v>-33.67978077720909</v>
+        <v>-0.05213772105776115</v>
       </c>
       <c r="D589" t="n">
-        <v>36.65939131602065</v>
+        <v>97.64229664379621</v>
       </c>
       <c r="E589" t="n">
         <v>0</v>
@@ -10389,13 +10389,13 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>-5.415072229206286</v>
+        <v>4.085248805918441</v>
       </c>
       <c r="C590" t="n">
-        <v>11.2351407508429</v>
+        <v>0.8852108690941805</v>
       </c>
       <c r="D590" t="n">
-        <v>14.8945827959205</v>
+        <v>16.65357970509502</v>
       </c>
       <c r="E590" t="n">
         <v>0</v>
@@ -10406,13 +10406,13 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>-3.060971888909161</v>
+        <v>2.217780745713119</v>
       </c>
       <c r="C591" t="n">
-        <v>-4.762871382796448</v>
+        <v>0.4336982640229508</v>
       </c>
       <c r="D591" t="n">
-        <v>94.20657924924456</v>
+        <v>37.50163964873288</v>
       </c>
       <c r="E591" t="n">
         <v>0</v>
@@ -10423,13 +10423,13 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>-3.337027729602644</v>
+        <v>-1.646998192306915</v>
       </c>
       <c r="C592" t="n">
-        <v>10.58347256159959</v>
+        <v>-2.039265342643375</v>
       </c>
       <c r="D592" t="n">
-        <v>72.42109491408726</v>
+        <v>73.26477560961612</v>
       </c>
       <c r="E592" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>3.229281922639494</v>
+        <v>2.55354656594461</v>
       </c>
       <c r="C593" t="n">
-        <v>4.982070774193971</v>
+        <v>-1.416506370559318</v>
       </c>
       <c r="D593" t="n">
-        <v>2.717604776932736</v>
+        <v>33.38334557476329</v>
       </c>
       <c r="E593" t="n">
         <v>0</v>
@@ -10457,13 +10457,13 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>-9.408911526460795</v>
+        <v>0.1034920914238331</v>
       </c>
       <c r="C594" t="n">
-        <v>11.69649632414803</v>
+        <v>-2.962746308336136</v>
       </c>
       <c r="D594" t="n">
-        <v>27.90217945393007</v>
+        <v>56.36327710516515</v>
       </c>
       <c r="E594" t="n">
         <v>0</v>
@@ -10474,13 +10474,13 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>-6.958067345416639</v>
+        <v>-2.314226326879609</v>
       </c>
       <c r="C595" t="n">
-        <v>13.4350050680423</v>
+        <v>2.615734624060678</v>
       </c>
       <c r="D595" t="n">
-        <v>61.14948823288832</v>
+        <v>57.65498141765563</v>
       </c>
       <c r="E595" t="n">
         <v>0</v>
@@ -10491,13 +10491,13 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>-4.835760578413386</v>
+        <v>4.339976090021599</v>
       </c>
       <c r="C596" t="n">
-        <v>43.13510570086555</v>
+        <v>-0.9756956036303563</v>
       </c>
       <c r="D596" t="n">
-        <v>59.60657885523874</v>
+        <v>6.240428259107578</v>
       </c>
       <c r="E596" t="n">
         <v>0</v>
@@ -10508,13 +10508,13 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>1.730135798625339</v>
+        <v>-3.217230812095432</v>
       </c>
       <c r="C597" t="n">
-        <v>10.76863940016733</v>
+        <v>-0.989723487268293</v>
       </c>
       <c r="D597" t="n">
-        <v>86.28292167411971</v>
+        <v>56.65028813541607</v>
       </c>
       <c r="E597" t="n">
         <v>0</v>
@@ -10525,13 +10525,13 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>-7.499143473485566</v>
+        <v>-1.613979035182713</v>
       </c>
       <c r="C598" t="n">
-        <v>0.7372903502202917</v>
+        <v>0.887785678941782</v>
       </c>
       <c r="D598" t="n">
-        <v>89.26301440794641</v>
+        <v>61.38820443459444</v>
       </c>
       <c r="E598" t="n">
         <v>0</v>
@@ -10542,13 +10542,13 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>-7.951938924104054</v>
+        <v>3.178273332751864</v>
       </c>
       <c r="C599" t="n">
-        <v>-2.092480624893369</v>
+        <v>3.198431287549738</v>
       </c>
       <c r="D599" t="n">
-        <v>42.93901828101164</v>
+        <v>43.24941154233019</v>
       </c>
       <c r="E599" t="n">
         <v>0</v>
@@ -10559,13 +10559,13 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>0.7156850727873483</v>
+        <v>-4.565810600925209</v>
       </c>
       <c r="C600" t="n">
-        <v>21.93877938295464</v>
+        <v>-0.8710000481664792</v>
       </c>
       <c r="D600" t="n">
-        <v>91.92145713913624</v>
+        <v>61.26159074981747</v>
       </c>
       <c r="E600" t="n">
         <v>0</v>
@@ -10576,13 +10576,13 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>-5.074774311037233</v>
+        <v>-4.758460654510557</v>
       </c>
       <c r="C601" t="n">
-        <v>-8.370374964680877</v>
+        <v>0.7718832691280113</v>
       </c>
       <c r="D601" t="n">
-        <v>7.167021727324119</v>
+        <v>51.86785559426124</v>
       </c>
       <c r="E601" t="n">
         <v>0</v>
